--- a/Temp/HG/졸작 계획서_송형규.xlsx
+++ b/Temp/HG/졸작 계획서_송형규.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCACDAF-E290-4FD8-9404-18907DC72CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA7B375-2E92-4EEF-AC66-7BB8C9CAA580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 시간 표시 막대" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t xml:space="preserve"> 시작 날짜:</t>
   </si>
@@ -43,127 +43,42 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>블랜더3d 게임 그래픽 특강(김현 교수님)</t>
+    <t>담당자:송형규</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>창원에서 쉬기</t>
+    <t>수업 참여</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>하계 기획자 특훈에서 졸업 작품 게임 기획 구체화</t>
+    <t>2학기 수업 참여</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>하계 기획자 특훈에서 졸업 작품 게임 기획서 제작</t>
+    <t>졸업작품 PPT 또는 문서 작성</t>
+  </si>
+  <si>
+    <t>졸업작품 PPT 또는 문서 작성</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>학교 도서관에서 언리얼 엔진 책을 빌려서 실습</t>
+    <t>기획</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>빛 이론 등 쉐이더 기초 교양 배양</t>
+    <t>모델링</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>책 '혼자 공부하는 SQL' 실습</t>
+    <t>블랜더 공부</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>방학 중 수업 준비 및 개인 독학 환경 구축</t>
+    <t>쉐이더 및 이펙트 공부</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>책 '언리얼 엔진 5 블루프린트 비주얼 스크립팅 3/e' 참고하여 언리얼 엔진 실습</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">UDP, TCP 통신 프로토콜 프로그래밍 실습  </t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>책 '3D 게임을 움직이는 수학과 물리' 학습</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>책 '게임 프로그래밍 패턴' 복습</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>디자인 패턴 실습해보기(관련 책 혹은 강의)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>복습 겸 한 달간 부족한 내용 마무리</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>복습 겸 8월 동안 부족한 내용 마무리</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>복습 겸 7월 동안 부족한 내용 마무리</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>블루프린터로 핵심 메커니즘 프로토타입 제작</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>언리얼 엔진으로 간단한 게임 구현(디자인 패턴을 사용한다, 블루프린트X)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>복습 겸 9월 동안 부족한 내용 마무리</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>복습 겸 10월 동안 부족한 내용 마무리</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸작 프로토타입에 사용할 리소스 제작 혹은 탐색(텍스쳐)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2학기 수업 참여 및 종합설계기획 수강</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로토타입 피드백 및 수정</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>언리얼 엔진 소스 레벨 테스트 및 벤치마킹 환경 구축</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>언리얼 엔진 팀프로젝트 개발 환경 구축(생산성 높이기)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>언리얼 엔진 외부 모듈 소스 분석 및 테스트</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸작 프로토타입 서버 스펙, 프레임워크 설계</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>복습 겸 11월 동안 부족한 내용 마무리</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸작 제안서 제출 및 발표 준비</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당자:홍길동</t>
+    <t>알파 버전용 기획 문서 작성</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +94,7 @@
     <numFmt numFmtId="178" formatCode="d"/>
     <numFmt numFmtId="179" formatCode="m&quot;월&quot;"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -340,8 +255,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="48">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,19 +492,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,24 +504,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC4F4AA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -749,6 +646,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -818,7 +733,7 @@
     <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -867,61 +782,13 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="46" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="44" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="47" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -930,8 +797,50 @@
     <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="6" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -988,7 +897,49 @@
     <cellStyle name="평일" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color theme="1" tint="4.9989318521683403E-2"/>
@@ -1312,71 +1263,71 @@
     <tabColor theme="9"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AD47"/>
+  <dimension ref="B1:AD49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.59765625" style="4" customWidth="1"/>
-    <col min="3" max="17" width="5.59765625" style="3" customWidth="1"/>
-    <col min="18" max="30" width="5.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="4" customWidth="1"/>
+    <col min="3" max="17" width="5.625" style="3" customWidth="1"/>
+    <col min="18" max="30" width="5.625" style="1" customWidth="1"/>
     <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:30" ht="48.75" customHeight="1">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
     </row>
     <row r="2" spans="2:30" ht="24.75" customHeight="1" thickBot="1">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36">
-        <f>DATEVALUE("2023/06/28")</f>
-        <v>45105</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="C2" s="20">
+        <f>DATEVALUE("2025/09/01")</f>
+        <v>45901</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="2:30" ht="12.75" customHeight="1"/>
     <row r="4" spans="2:30" ht="18.75" customHeight="1">
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="str">
         <f>LOWER(TEXT(C6, "m월"))</f>
-        <v>6월</v>
+        <v>9월</v>
       </c>
       <c r="D4" s="7" t="str">
         <f t="shared" ref="D4:I4" si="0">IF(TEXT(D6,"m월")=TEXT(C6,"m월"),"",LOWER(TEXT(D6,"m월")))</f>
@@ -1388,7 +1339,7 @@
       </c>
       <c r="F4" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>7월</v>
+        <v/>
       </c>
       <c r="G4" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1404,7 +1355,7 @@
       </c>
       <c r="J4" s="8" t="str">
         <f>LOWER(TEXT(J6,"m월"))</f>
-        <v>7월</v>
+        <v>9월</v>
       </c>
       <c r="K4" s="8" t="str">
         <f t="shared" ref="K4:P4" si="1">IF(TEXT(K6,"m월")=TEXT(J6,"m월"),"",LOWER(TEXT(K6,"m월")))</f>
@@ -1432,7 +1383,7 @@
       </c>
       <c r="Q4" s="7" t="str">
         <f>LOWER(TEXT(Q6,"m월"))</f>
-        <v>7월</v>
+        <v>9월</v>
       </c>
       <c r="R4" s="7" t="str">
         <f t="shared" ref="R4:W4" si="2">IF(TEXT(R6,"m월")=TEXT(Q6,"m월"),"",LOWER(TEXT(R6,"m월")))</f>
@@ -1460,7 +1411,7 @@
       </c>
       <c r="X4" s="8" t="str">
         <f>LOWER(TEXT(X6,"m월"))</f>
-        <v>7월</v>
+        <v>9월</v>
       </c>
       <c r="Y4" s="8" t="str">
         <f t="shared" ref="Y4:AD4" si="3">IF(TEXT(Y6,"m월")=TEXT(X6,"m월"),"",LOWER(TEXT(Y6,"m월")))</f>
@@ -1491,389 +1442,379 @@
       <c r="B5" s="5"/>
       <c r="C5" s="9" t="str">
         <f>LOWER(TEXT(C6,"aaa"))</f>
-        <v>수</v>
+        <v>월</v>
       </c>
       <c r="D5" s="9" t="str">
         <f t="shared" ref="D5:AD5" si="4">LOWER(TEXT(D6,"aaa"))</f>
-        <v>목</v>
+        <v>화</v>
       </c>
       <c r="E5" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>금</v>
+        <v>수</v>
       </c>
       <c r="F5" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>토</v>
+        <v>목</v>
       </c>
       <c r="G5" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>일</v>
+        <v>금</v>
       </c>
       <c r="H5" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>월</v>
+        <v>토</v>
       </c>
       <c r="I5" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>화</v>
+        <v>일</v>
       </c>
       <c r="J5" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>수</v>
+        <v>월</v>
       </c>
       <c r="K5" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>목</v>
+        <v>화</v>
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>금</v>
+        <v>수</v>
       </c>
       <c r="M5" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>토</v>
+        <v>목</v>
       </c>
       <c r="N5" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>일</v>
+        <v>금</v>
       </c>
       <c r="O5" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>월</v>
+        <v>토</v>
       </c>
       <c r="P5" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>화</v>
+        <v>일</v>
       </c>
       <c r="Q5" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>수</v>
+        <v>월</v>
       </c>
       <c r="R5" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>목</v>
+        <v>화</v>
       </c>
       <c r="S5" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>금</v>
+        <v>수</v>
       </c>
       <c r="T5" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>토</v>
+        <v>목</v>
       </c>
       <c r="U5" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>일</v>
+        <v>금</v>
       </c>
       <c r="V5" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>월</v>
+        <v>토</v>
       </c>
       <c r="W5" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>화</v>
+        <v>일</v>
       </c>
       <c r="X5" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>수</v>
+        <v>월</v>
       </c>
       <c r="Y5" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>목</v>
+        <v>화</v>
       </c>
       <c r="Z5" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>금</v>
+        <v>수</v>
       </c>
       <c r="AA5" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>토</v>
+        <v>목</v>
       </c>
       <c r="AB5" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>일</v>
+        <v>금</v>
       </c>
       <c r="AC5" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>월</v>
+        <v>토</v>
       </c>
       <c r="AD5" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>화</v>
+        <v>일</v>
       </c>
     </row>
     <row r="6" spans="2:30" ht="18" customHeight="1" thickBot="1">
-      <c r="B6" s="17" t="s">
-        <v>32</v>
+      <c r="B6" s="16" t="s">
+        <v>2</v>
       </c>
       <c r="C6" s="11">
         <f>C2</f>
-        <v>45105</v>
+        <v>45901</v>
       </c>
       <c r="D6" s="11">
         <f>C6+1</f>
-        <v>45106</v>
+        <v>45902</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" ref="E6:Q6" si="5">D6+1</f>
-        <v>45107</v>
+        <v>45903</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" si="5"/>
-        <v>45108</v>
+        <v>45904</v>
       </c>
       <c r="G6" s="11">
         <f t="shared" si="5"/>
-        <v>45109</v>
+        <v>45905</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" si="5"/>
-        <v>45110</v>
+        <v>45906</v>
       </c>
       <c r="I6" s="11">
         <f t="shared" si="5"/>
-        <v>45111</v>
+        <v>45907</v>
       </c>
       <c r="J6" s="12">
         <f t="shared" si="5"/>
-        <v>45112</v>
+        <v>45908</v>
       </c>
       <c r="K6" s="12">
         <f t="shared" si="5"/>
-        <v>45113</v>
+        <v>45909</v>
       </c>
       <c r="L6" s="12">
         <f t="shared" si="5"/>
-        <v>45114</v>
+        <v>45910</v>
       </c>
       <c r="M6" s="12">
         <f t="shared" si="5"/>
-        <v>45115</v>
+        <v>45911</v>
       </c>
       <c r="N6" s="12">
         <f t="shared" si="5"/>
-        <v>45116</v>
+        <v>45912</v>
       </c>
       <c r="O6" s="12">
         <f t="shared" si="5"/>
-        <v>45117</v>
+        <v>45913</v>
       </c>
       <c r="P6" s="12">
         <f t="shared" si="5"/>
-        <v>45118</v>
+        <v>45914</v>
       </c>
       <c r="Q6" s="11">
         <f t="shared" si="5"/>
-        <v>45119</v>
+        <v>45915</v>
       </c>
       <c r="R6" s="11">
         <f t="shared" ref="R6:X6" si="6">Q6+1</f>
-        <v>45120</v>
+        <v>45916</v>
       </c>
       <c r="S6" s="11">
         <f t="shared" si="6"/>
-        <v>45121</v>
+        <v>45917</v>
       </c>
       <c r="T6" s="11">
         <f t="shared" si="6"/>
-        <v>45122</v>
+        <v>45918</v>
       </c>
       <c r="U6" s="11">
         <f t="shared" si="6"/>
-        <v>45123</v>
+        <v>45919</v>
       </c>
       <c r="V6" s="11">
         <f t="shared" si="6"/>
-        <v>45124</v>
+        <v>45920</v>
       </c>
       <c r="W6" s="11">
         <f t="shared" si="6"/>
-        <v>45125</v>
+        <v>45921</v>
       </c>
       <c r="X6" s="12">
         <f t="shared" si="6"/>
-        <v>45126</v>
+        <v>45922</v>
       </c>
       <c r="Y6" s="12">
         <f t="shared" ref="Y6:AC6" si="7">X6+1</f>
-        <v>45127</v>
+        <v>45923</v>
       </c>
       <c r="Z6" s="12">
         <f t="shared" si="7"/>
-        <v>45128</v>
+        <v>45924</v>
       </c>
       <c r="AA6" s="12">
         <f t="shared" si="7"/>
-        <v>45129</v>
+        <v>45925</v>
       </c>
       <c r="AB6" s="12">
         <f t="shared" si="7"/>
-        <v>45130</v>
+        <v>45926</v>
       </c>
       <c r="AC6" s="12">
         <f t="shared" si="7"/>
-        <v>45131</v>
+        <v>45927</v>
       </c>
       <c r="AD6" s="12">
         <f>AC6+1</f>
-        <v>45132</v>
+        <v>45928</v>
       </c>
     </row>
     <row r="7" spans="2:30" ht="30" customHeight="1">
       <c r="B7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
     </row>
     <row r="8" spans="2:30" ht="30" customHeight="1">
       <c r="B8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+    </row>
+    <row r="9" spans="2:30" ht="30" customHeight="1">
+      <c r="B9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="24"/>
-      <c r="AD8" s="24"/>
-    </row>
-    <row r="9" spans="2:30" ht="30" customHeight="1">
-      <c r="B9" s="13" t="str">
-        <f>TEXT("내용입력","aaa")</f>
-        <v>내용입력</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="14"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9" s="31"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="23"/>
     </row>
     <row r="10" spans="2:30" ht="30" customHeight="1">
-      <c r="B10" s="13" t="str">
-        <f>TEXT("내용입력","aaa")</f>
-        <v>내용입력</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="14"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="23"/>
     </row>
     <row r="11" spans="2:30" ht="30" customHeight="1">
       <c r="B11" s="13"/>
       <c r="C11" s="6" t="str">
         <f>LOWER(TEXT(C13, "m월"))</f>
-        <v>7월</v>
+        <v>9월</v>
       </c>
       <c r="D11" s="7" t="str">
         <f t="shared" ref="D11" si="8">IF(TEXT(D13,"m월")=TEXT(C13,"m월"),"",LOWER(TEXT(D13,"m월")))</f>
@@ -1881,7 +1822,7 @@
       </c>
       <c r="E11" s="7" t="str">
         <f t="shared" ref="E11" si="9">IF(TEXT(E13,"m월")=TEXT(D13,"m월"),"",LOWER(TEXT(E13,"m월")))</f>
-        <v/>
+        <v>10월</v>
       </c>
       <c r="F11" s="7" t="str">
         <f t="shared" ref="F11" si="10">IF(TEXT(F13,"m월")=TEXT(E13,"m월"),"",LOWER(TEXT(F13,"m월")))</f>
@@ -1897,11 +1838,11 @@
       </c>
       <c r="I11" s="7" t="str">
         <f t="shared" ref="I11" si="13">IF(TEXT(I13,"m월")=TEXT(H13,"m월"),"",LOWER(TEXT(I13,"m월")))</f>
-        <v>8월</v>
+        <v/>
       </c>
       <c r="J11" s="8" t="str">
         <f>LOWER(TEXT(J13,"m월"))</f>
-        <v>8월</v>
+        <v>10월</v>
       </c>
       <c r="K11" s="8" t="str">
         <f t="shared" ref="K11" si="14">IF(TEXT(K13,"m월")=TEXT(J13,"m월"),"",LOWER(TEXT(K13,"m월")))</f>
@@ -1929,7 +1870,7 @@
       </c>
       <c r="Q11" s="7" t="str">
         <f>LOWER(TEXT(Q13,"m월"))</f>
-        <v>8월</v>
+        <v>10월</v>
       </c>
       <c r="R11" s="7" t="str">
         <f t="shared" ref="R11" si="20">IF(TEXT(R13,"m월")=TEXT(Q13,"m월"),"",LOWER(TEXT(R13,"m월")))</f>
@@ -1957,7 +1898,7 @@
       </c>
       <c r="X11" s="8" t="str">
         <f>LOWER(TEXT(X13,"m월"))</f>
-        <v>8월</v>
+        <v>10월</v>
       </c>
       <c r="Y11" s="8" t="str">
         <f t="shared" ref="Y11" si="26">IF(TEXT(Y13,"m월")=TEXT(X13,"m월"),"",LOWER(TEXT(Y13,"m월")))</f>
@@ -1988,333 +1929,331 @@
       <c r="B12" s="13"/>
       <c r="C12" s="9" t="str">
         <f>LOWER(TEXT(C13,"aaa"))</f>
-        <v>수</v>
+        <v>월</v>
       </c>
       <c r="D12" s="9" t="str">
         <f t="shared" ref="D12:AD12" si="32">LOWER(TEXT(D13,"aaa"))</f>
-        <v>목</v>
+        <v>화</v>
       </c>
       <c r="E12" s="9" t="str">
         <f t="shared" si="32"/>
-        <v>금</v>
+        <v>수</v>
       </c>
       <c r="F12" s="9" t="str">
         <f t="shared" si="32"/>
-        <v>토</v>
+        <v>목</v>
       </c>
       <c r="G12" s="9" t="str">
         <f t="shared" si="32"/>
-        <v>일</v>
+        <v>금</v>
       </c>
       <c r="H12" s="9" t="str">
         <f t="shared" si="32"/>
-        <v>월</v>
+        <v>토</v>
       </c>
       <c r="I12" s="9" t="str">
         <f t="shared" si="32"/>
-        <v>화</v>
+        <v>일</v>
       </c>
       <c r="J12" s="10" t="str">
         <f t="shared" si="32"/>
-        <v>수</v>
+        <v>월</v>
       </c>
       <c r="K12" s="10" t="str">
         <f t="shared" si="32"/>
-        <v>목</v>
+        <v>화</v>
       </c>
       <c r="L12" s="10" t="str">
         <f t="shared" si="32"/>
-        <v>금</v>
+        <v>수</v>
       </c>
       <c r="M12" s="10" t="str">
         <f t="shared" si="32"/>
-        <v>토</v>
+        <v>목</v>
       </c>
       <c r="N12" s="10" t="str">
         <f t="shared" si="32"/>
-        <v>일</v>
+        <v>금</v>
       </c>
       <c r="O12" s="10" t="str">
         <f t="shared" si="32"/>
-        <v>월</v>
+        <v>토</v>
       </c>
       <c r="P12" s="10" t="str">
         <f t="shared" si="32"/>
-        <v>화</v>
+        <v>일</v>
       </c>
       <c r="Q12" s="9" t="str">
         <f t="shared" si="32"/>
-        <v>수</v>
+        <v>월</v>
       </c>
       <c r="R12" s="9" t="str">
         <f t="shared" si="32"/>
-        <v>목</v>
+        <v>화</v>
       </c>
       <c r="S12" s="9" t="str">
         <f t="shared" si="32"/>
-        <v>금</v>
+        <v>수</v>
       </c>
       <c r="T12" s="9" t="str">
         <f t="shared" si="32"/>
-        <v>토</v>
+        <v>목</v>
       </c>
       <c r="U12" s="9" t="str">
         <f t="shared" si="32"/>
-        <v>일</v>
+        <v>금</v>
       </c>
       <c r="V12" s="9" t="str">
         <f t="shared" si="32"/>
-        <v>월</v>
+        <v>토</v>
       </c>
       <c r="W12" s="9" t="str">
         <f t="shared" si="32"/>
-        <v>화</v>
+        <v>일</v>
       </c>
       <c r="X12" s="10" t="str">
         <f t="shared" si="32"/>
-        <v>수</v>
+        <v>월</v>
       </c>
       <c r="Y12" s="10" t="str">
         <f t="shared" si="32"/>
-        <v>목</v>
+        <v>화</v>
       </c>
       <c r="Z12" s="10" t="str">
         <f t="shared" si="32"/>
-        <v>금</v>
+        <v>수</v>
       </c>
       <c r="AA12" s="10" t="str">
         <f t="shared" si="32"/>
-        <v>토</v>
+        <v>목</v>
       </c>
       <c r="AB12" s="10" t="str">
         <f t="shared" si="32"/>
-        <v>일</v>
+        <v>금</v>
       </c>
       <c r="AC12" s="10" t="str">
         <f t="shared" si="32"/>
-        <v>월</v>
+        <v>토</v>
       </c>
       <c r="AD12" s="10" t="str">
         <f t="shared" si="32"/>
-        <v>화</v>
+        <v>일</v>
       </c>
     </row>
     <row r="13" spans="2:30" ht="30" customHeight="1" thickBot="1">
       <c r="B13" s="13"/>
       <c r="C13" s="11">
         <f>AD6+1</f>
-        <v>45133</v>
+        <v>45929</v>
       </c>
       <c r="D13" s="11">
         <f>C13+1</f>
-        <v>45134</v>
+        <v>45930</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" ref="E13" si="33">D13+1</f>
-        <v>45135</v>
+        <v>45931</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" ref="F13" si="34">E13+1</f>
-        <v>45136</v>
+        <v>45932</v>
       </c>
       <c r="G13" s="11">
         <f t="shared" ref="G13" si="35">F13+1</f>
-        <v>45137</v>
+        <v>45933</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" ref="H13" si="36">G13+1</f>
-        <v>45138</v>
+        <v>45934</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ref="I13" si="37">H13+1</f>
-        <v>45139</v>
+        <v>45935</v>
       </c>
       <c r="J13" s="12">
         <f t="shared" ref="J13" si="38">I13+1</f>
-        <v>45140</v>
+        <v>45936</v>
       </c>
       <c r="K13" s="12">
         <f t="shared" ref="K13" si="39">J13+1</f>
-        <v>45141</v>
+        <v>45937</v>
       </c>
       <c r="L13" s="12">
         <f t="shared" ref="L13" si="40">K13+1</f>
-        <v>45142</v>
+        <v>45938</v>
       </c>
       <c r="M13" s="12">
         <f t="shared" ref="M13" si="41">L13+1</f>
-        <v>45143</v>
+        <v>45939</v>
       </c>
       <c r="N13" s="12">
         <f t="shared" ref="N13" si="42">M13+1</f>
-        <v>45144</v>
+        <v>45940</v>
       </c>
       <c r="O13" s="12">
         <f t="shared" ref="O13" si="43">N13+1</f>
-        <v>45145</v>
+        <v>45941</v>
       </c>
       <c r="P13" s="12">
         <f t="shared" ref="P13" si="44">O13+1</f>
-        <v>45146</v>
+        <v>45942</v>
       </c>
       <c r="Q13" s="11">
         <f t="shared" ref="Q13" si="45">P13+1</f>
-        <v>45147</v>
+        <v>45943</v>
       </c>
       <c r="R13" s="11">
         <f t="shared" ref="R13" si="46">Q13+1</f>
-        <v>45148</v>
+        <v>45944</v>
       </c>
       <c r="S13" s="11">
         <f t="shared" ref="S13" si="47">R13+1</f>
-        <v>45149</v>
+        <v>45945</v>
       </c>
       <c r="T13" s="11">
         <f t="shared" ref="T13" si="48">S13+1</f>
-        <v>45150</v>
+        <v>45946</v>
       </c>
       <c r="U13" s="11">
         <f t="shared" ref="U13" si="49">T13+1</f>
-        <v>45151</v>
+        <v>45947</v>
       </c>
       <c r="V13" s="11">
         <f t="shared" ref="V13" si="50">U13+1</f>
-        <v>45152</v>
+        <v>45948</v>
       </c>
       <c r="W13" s="11">
         <f t="shared" ref="W13" si="51">V13+1</f>
-        <v>45153</v>
+        <v>45949</v>
       </c>
       <c r="X13" s="12">
         <f t="shared" ref="X13" si="52">W13+1</f>
-        <v>45154</v>
+        <v>45950</v>
       </c>
       <c r="Y13" s="12">
         <f t="shared" ref="Y13" si="53">X13+1</f>
-        <v>45155</v>
+        <v>45951</v>
       </c>
       <c r="Z13" s="12">
         <f t="shared" ref="Z13" si="54">Y13+1</f>
-        <v>45156</v>
+        <v>45952</v>
       </c>
       <c r="AA13" s="12">
         <f t="shared" ref="AA13" si="55">Z13+1</f>
-        <v>45157</v>
+        <v>45953</v>
       </c>
       <c r="AB13" s="12">
         <f t="shared" ref="AB13" si="56">AA13+1</f>
-        <v>45158</v>
+        <v>45954</v>
       </c>
       <c r="AC13" s="12">
         <f t="shared" ref="AC13" si="57">AB13+1</f>
-        <v>45159</v>
+        <v>45955</v>
       </c>
       <c r="AD13" s="12">
         <f t="shared" ref="AD13" si="58">AC13+1</f>
-        <v>45160</v>
+        <v>45956</v>
       </c>
     </row>
     <row r="14" spans="2:30" ht="30" customHeight="1">
-      <c r="B14" s="13" t="str">
-        <f>TEXT("내용입력","aaa")</f>
-        <v>내용입력</v>
-      </c>
-      <c r="C14" s="32" t="s">
+      <c r="B14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="14"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
     </row>
     <row r="15" spans="2:30" ht="30" customHeight="1">
-      <c r="B15" s="13"/>
-      <c r="C15" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="34" t="s">
+      <c r="B15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="22"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="14"/>
     </row>
     <row r="16" spans="2:30" ht="30" customHeight="1">
-      <c r="B16" s="13" t="str">
-        <f>TEXT("내용입력","aaa")</f>
-        <v>내용입력</v>
+      <c r="B16" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
+      <c r="D16" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="31"/>
       <c r="F16" s="14"/>
       <c r="G16" s="15"/>
       <c r="H16" s="14"/>
       <c r="I16" s="15"/>
       <c r="J16" s="14"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="14"/>
+      <c r="K16" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="31"/>
       <c r="M16" s="15"/>
       <c r="N16" s="14"/>
       <c r="O16" s="15"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="15"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="15"/>
+      <c r="R16" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="S16" s="31"/>
       <c r="T16" s="14"/>
       <c r="U16" s="15"/>
       <c r="V16" s="14"/>
@@ -2328,10 +2267,7 @@
       <c r="AD16" s="14"/>
     </row>
     <row r="17" spans="2:30" ht="30" customHeight="1">
-      <c r="B17" s="13" t="str">
-        <f>TEXT("내용입력","aaa")</f>
-        <v>내용입력</v>
-      </c>
+      <c r="B17" s="13"/>
       <c r="C17" s="15"/>
       <c r="D17" s="14"/>
       <c r="E17" s="15"/>
@@ -2365,7 +2301,7 @@
       <c r="B18" s="13"/>
       <c r="C18" s="6" t="str">
         <f>LOWER(TEXT(C20, "m월"))</f>
-        <v>8월</v>
+        <v>10월</v>
       </c>
       <c r="D18" s="7" t="str">
         <f t="shared" ref="D18" si="59">IF(TEXT(D20,"m월")=TEXT(C20,"m월"),"",LOWER(TEXT(D20,"m월")))</f>
@@ -2385,7 +2321,7 @@
       </c>
       <c r="H18" s="7" t="str">
         <f t="shared" ref="H18" si="63">IF(TEXT(H20,"m월")=TEXT(G20,"m월"),"",LOWER(TEXT(H20,"m월")))</f>
-        <v/>
+        <v>11월</v>
       </c>
       <c r="I18" s="7" t="str">
         <f>IF(TEXT(I20,"m월")=TEXT(H20,"m월"),"",LOWER(TEXT(I20,"m월")))</f>
@@ -2393,7 +2329,7 @@
       </c>
       <c r="J18" s="8" t="str">
         <f>LOWER(TEXT(J20,"m월"))</f>
-        <v>8월</v>
+        <v>11월</v>
       </c>
       <c r="K18" s="8" t="str">
         <f t="shared" ref="K18" si="64">IF(TEXT(K20,"m월")=TEXT(J20,"m월"),"",LOWER(TEXT(K20,"m월")))</f>
@@ -2401,7 +2337,7 @@
       </c>
       <c r="L18" s="8" t="str">
         <f t="shared" ref="L18" si="65">IF(TEXT(L20,"m월")=TEXT(K20,"m월"),"",LOWER(TEXT(L20,"m월")))</f>
-        <v>9월</v>
+        <v/>
       </c>
       <c r="M18" s="8" t="str">
         <f t="shared" ref="M18" si="66">IF(TEXT(M20,"m월")=TEXT(L20,"m월"),"",LOWER(TEXT(M20,"m월")))</f>
@@ -2421,7 +2357,7 @@
       </c>
       <c r="Q18" s="7" t="str">
         <f>LOWER(TEXT(Q20,"m월"))</f>
-        <v>9월</v>
+        <v>11월</v>
       </c>
       <c r="R18" s="7" t="str">
         <f t="shared" ref="R18" si="69">IF(TEXT(R20,"m월")=TEXT(Q20,"m월"),"",LOWER(TEXT(R20,"m월")))</f>
@@ -2449,7 +2385,7 @@
       </c>
       <c r="X18" s="8" t="str">
         <f>LOWER(TEXT(X20,"m월"))</f>
-        <v>9월</v>
+        <v>11월</v>
       </c>
       <c r="Y18" s="8" t="str">
         <f t="shared" ref="Y18" si="75">IF(TEXT(Y20,"m월")=TEXT(X20,"m월"),"",LOWER(TEXT(Y20,"m월")))</f>
@@ -2480,314 +2416,303 @@
       <c r="B19" s="13"/>
       <c r="C19" s="9" t="str">
         <f>LOWER(TEXT(C20,"aaa"))</f>
-        <v>수</v>
+        <v>월</v>
       </c>
       <c r="D19" s="9" t="str">
         <f t="shared" ref="D19:AD19" si="81">LOWER(TEXT(D20,"aaa"))</f>
-        <v>목</v>
+        <v>화</v>
       </c>
       <c r="E19" s="9" t="str">
         <f t="shared" si="81"/>
-        <v>금</v>
+        <v>수</v>
       </c>
       <c r="F19" s="9" t="str">
         <f t="shared" si="81"/>
-        <v>토</v>
+        <v>목</v>
       </c>
       <c r="G19" s="9" t="str">
         <f t="shared" si="81"/>
-        <v>일</v>
+        <v>금</v>
       </c>
       <c r="H19" s="9" t="str">
         <f t="shared" si="81"/>
-        <v>월</v>
+        <v>토</v>
       </c>
       <c r="I19" s="9" t="str">
         <f t="shared" si="81"/>
-        <v>화</v>
+        <v>일</v>
       </c>
       <c r="J19" s="10" t="str">
         <f t="shared" si="81"/>
-        <v>수</v>
+        <v>월</v>
       </c>
       <c r="K19" s="10" t="str">
         <f t="shared" si="81"/>
-        <v>목</v>
+        <v>화</v>
       </c>
       <c r="L19" s="10" t="str">
         <f t="shared" si="81"/>
-        <v>금</v>
+        <v>수</v>
       </c>
       <c r="M19" s="10" t="str">
         <f t="shared" si="81"/>
-        <v>토</v>
+        <v>목</v>
       </c>
       <c r="N19" s="10" t="str">
         <f t="shared" si="81"/>
-        <v>일</v>
+        <v>금</v>
       </c>
       <c r="O19" s="10" t="str">
         <f t="shared" si="81"/>
-        <v>월</v>
+        <v>토</v>
       </c>
       <c r="P19" s="10" t="str">
         <f t="shared" si="81"/>
-        <v>화</v>
+        <v>일</v>
       </c>
       <c r="Q19" s="9" t="str">
         <f t="shared" si="81"/>
-        <v>수</v>
+        <v>월</v>
       </c>
       <c r="R19" s="9" t="str">
         <f t="shared" si="81"/>
-        <v>목</v>
+        <v>화</v>
       </c>
       <c r="S19" s="9" t="str">
         <f t="shared" si="81"/>
-        <v>금</v>
+        <v>수</v>
       </c>
       <c r="T19" s="9" t="str">
         <f t="shared" si="81"/>
-        <v>토</v>
+        <v>목</v>
       </c>
       <c r="U19" s="9" t="str">
         <f t="shared" si="81"/>
-        <v>일</v>
+        <v>금</v>
       </c>
       <c r="V19" s="9" t="str">
         <f t="shared" si="81"/>
-        <v>월</v>
+        <v>토</v>
       </c>
       <c r="W19" s="9" t="str">
         <f t="shared" si="81"/>
-        <v>화</v>
+        <v>일</v>
       </c>
       <c r="X19" s="10" t="str">
         <f t="shared" si="81"/>
-        <v>수</v>
+        <v>월</v>
       </c>
       <c r="Y19" s="10" t="str">
         <f t="shared" si="81"/>
-        <v>목</v>
+        <v>화</v>
       </c>
       <c r="Z19" s="10" t="str">
         <f t="shared" si="81"/>
-        <v>금</v>
+        <v>수</v>
       </c>
       <c r="AA19" s="10" t="str">
         <f t="shared" si="81"/>
-        <v>토</v>
+        <v>목</v>
       </c>
       <c r="AB19" s="10" t="str">
         <f t="shared" si="81"/>
-        <v>일</v>
+        <v>금</v>
       </c>
       <c r="AC19" s="10" t="str">
         <f t="shared" si="81"/>
-        <v>월</v>
+        <v>토</v>
       </c>
       <c r="AD19" s="10" t="str">
         <f t="shared" si="81"/>
-        <v>화</v>
+        <v>일</v>
       </c>
     </row>
     <row r="20" spans="2:30" ht="30" customHeight="1" thickBot="1">
       <c r="B20" s="13"/>
       <c r="C20" s="11">
         <f>AD13+1</f>
-        <v>45161</v>
+        <v>45957</v>
       </c>
       <c r="D20" s="11">
         <f>C20+1</f>
-        <v>45162</v>
+        <v>45958</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" ref="E20" si="82">D20+1</f>
-        <v>45163</v>
+        <v>45959</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" ref="F20" si="83">E20+1</f>
-        <v>45164</v>
+        <v>45960</v>
       </c>
       <c r="G20" s="11">
         <f t="shared" ref="G20" si="84">F20+1</f>
-        <v>45165</v>
+        <v>45961</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" ref="H20" si="85">G20+1</f>
-        <v>45166</v>
+        <v>45962</v>
       </c>
       <c r="I20" s="11">
         <f>H20+1</f>
-        <v>45167</v>
+        <v>45963</v>
       </c>
       <c r="J20" s="12">
         <f t="shared" ref="J20" si="86">I20+1</f>
-        <v>45168</v>
+        <v>45964</v>
       </c>
       <c r="K20" s="12">
         <f t="shared" ref="K20" si="87">J20+1</f>
-        <v>45169</v>
+        <v>45965</v>
       </c>
       <c r="L20" s="12">
         <f t="shared" ref="L20" si="88">K20+1</f>
-        <v>45170</v>
+        <v>45966</v>
       </c>
       <c r="M20" s="12">
         <f t="shared" ref="M20" si="89">L20+1</f>
-        <v>45171</v>
+        <v>45967</v>
       </c>
       <c r="N20" s="12">
         <f t="shared" ref="N20" si="90">M20+1</f>
-        <v>45172</v>
+        <v>45968</v>
       </c>
       <c r="O20" s="12">
         <f t="shared" ref="O20" si="91">N20+1</f>
-        <v>45173</v>
+        <v>45969</v>
       </c>
       <c r="P20" s="12">
         <f>O20+1</f>
-        <v>45174</v>
+        <v>45970</v>
       </c>
       <c r="Q20" s="11">
         <f t="shared" ref="Q20" si="92">P20+1</f>
-        <v>45175</v>
+        <v>45971</v>
       </c>
       <c r="R20" s="11">
         <f t="shared" ref="R20" si="93">Q20+1</f>
-        <v>45176</v>
+        <v>45972</v>
       </c>
       <c r="S20" s="11">
         <f t="shared" ref="S20" si="94">R20+1</f>
-        <v>45177</v>
+        <v>45973</v>
       </c>
       <c r="T20" s="11">
         <f t="shared" ref="T20" si="95">S20+1</f>
-        <v>45178</v>
+        <v>45974</v>
       </c>
       <c r="U20" s="11">
         <f t="shared" ref="U20" si="96">T20+1</f>
-        <v>45179</v>
+        <v>45975</v>
       </c>
       <c r="V20" s="11">
         <f t="shared" ref="V20" si="97">U20+1</f>
-        <v>45180</v>
+        <v>45976</v>
       </c>
       <c r="W20" s="11">
         <f t="shared" ref="W20" si="98">V20+1</f>
-        <v>45181</v>
+        <v>45977</v>
       </c>
       <c r="X20" s="12">
         <f t="shared" ref="X20" si="99">W20+1</f>
-        <v>45182</v>
+        <v>45978</v>
       </c>
       <c r="Y20" s="12">
         <f t="shared" ref="Y20" si="100">X20+1</f>
-        <v>45183</v>
+        <v>45979</v>
       </c>
       <c r="Z20" s="12">
         <f t="shared" ref="Z20" si="101">Y20+1</f>
-        <v>45184</v>
+        <v>45980</v>
       </c>
       <c r="AA20" s="12">
         <f t="shared" ref="AA20" si="102">Z20+1</f>
-        <v>45185</v>
+        <v>45981</v>
       </c>
       <c r="AB20" s="12">
         <f t="shared" ref="AB20" si="103">AA20+1</f>
-        <v>45186</v>
+        <v>45982</v>
       </c>
       <c r="AC20" s="12">
         <f t="shared" ref="AC20" si="104">AB20+1</f>
-        <v>45187</v>
+        <v>45983</v>
       </c>
       <c r="AD20" s="12">
         <f t="shared" ref="AD20" si="105">AC20+1</f>
-        <v>45188</v>
+        <v>45984</v>
       </c>
     </row>
     <row r="21" spans="2:30" ht="30" customHeight="1">
-      <c r="B21" s="13" t="str">
-        <f>TEXT("내용입력","aaa")</f>
-        <v>내용입력</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="31"/>
+      <c r="B21" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
     </row>
     <row r="22" spans="2:30" ht="30" customHeight="1">
-      <c r="B22" s="13" t="str">
-        <f>TEXT("내용입력","aaa")</f>
-        <v>내용입력</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="30" t="s">
+      <c r="B22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="14"/>
+    </row>
+    <row r="23" spans="2:30" ht="30" customHeight="1">
+      <c r="B23" s="13" t="s">
         <v>8</v>
-      </c>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-    </row>
-    <row r="23" spans="2:30" ht="30" customHeight="1">
-      <c r="B23" s="13" t="str">
-        <f>TEXT("내용입력","aaa")</f>
-        <v>내용입력</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="14"/>
@@ -2797,22 +2722,28 @@
       <c r="H23" s="14"/>
       <c r="I23" s="15"/>
       <c r="J23" s="14"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="14"/>
+      <c r="K23" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="31"/>
       <c r="M23" s="15"/>
       <c r="N23" s="14"/>
       <c r="O23" s="15"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="15"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="15"/>
+      <c r="R23" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="S23" s="31"/>
       <c r="T23" s="14"/>
       <c r="U23" s="15"/>
       <c r="V23" s="14"/>
       <c r="W23" s="15"/>
       <c r="X23" s="14"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="14"/>
+      <c r="Y23" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z23" s="31"/>
       <c r="AA23" s="15"/>
       <c r="AB23" s="14"/>
       <c r="AC23" s="15"/>
@@ -2820,434 +2751,417 @@
     </row>
     <row r="24" spans="2:30" ht="30" customHeight="1">
       <c r="B24" s="13"/>
-      <c r="C24" s="6" t="str">
-        <f>LOWER(TEXT(C26, "m월"))</f>
-        <v>9월</v>
-      </c>
-      <c r="D24" s="7" t="str">
-        <f t="shared" ref="D24" si="106">IF(TEXT(D26,"m월")=TEXT(C26,"m월"),"",LOWER(TEXT(D26,"m월")))</f>
-        <v/>
-      </c>
-      <c r="E24" s="7" t="str">
-        <f t="shared" ref="E24" si="107">IF(TEXT(E26,"m월")=TEXT(D26,"m월"),"",LOWER(TEXT(E26,"m월")))</f>
-        <v/>
-      </c>
-      <c r="F24" s="7" t="str">
-        <f t="shared" ref="F24" si="108">IF(TEXT(F26,"m월")=TEXT(E26,"m월"),"",LOWER(TEXT(F26,"m월")))</f>
-        <v/>
-      </c>
-      <c r="G24" s="7" t="str">
-        <f t="shared" ref="G24" si="109">IF(TEXT(G26,"m월")=TEXT(F26,"m월"),"",LOWER(TEXT(G26,"m월")))</f>
-        <v/>
-      </c>
-      <c r="H24" s="7" t="str">
-        <f t="shared" ref="H24" si="110">IF(TEXT(H26,"m월")=TEXT(G26,"m월"),"",LOWER(TEXT(H26,"m월")))</f>
-        <v/>
-      </c>
-      <c r="I24" s="7" t="str">
-        <f>IF(TEXT(I26,"m월")=TEXT(H26,"m월"),"",LOWER(TEXT(I26,"m월")))</f>
-        <v/>
-      </c>
-      <c r="J24" s="8" t="str">
-        <f>LOWER(TEXT(J26,"m월"))</f>
-        <v>9월</v>
-      </c>
-      <c r="K24" s="8" t="str">
-        <f t="shared" ref="K24" si="111">IF(TEXT(K26,"m월")=TEXT(J26,"m월"),"",LOWER(TEXT(K26,"m월")))</f>
-        <v/>
-      </c>
-      <c r="L24" s="8" t="str">
-        <f t="shared" ref="L24" si="112">IF(TEXT(L26,"m월")=TEXT(K26,"m월"),"",LOWER(TEXT(L26,"m월")))</f>
-        <v/>
-      </c>
-      <c r="M24" s="8" t="str">
-        <f t="shared" ref="M24" si="113">IF(TEXT(M26,"m월")=TEXT(L26,"m월"),"",LOWER(TEXT(M26,"m월")))</f>
-        <v/>
-      </c>
-      <c r="N24" s="8" t="str">
-        <f t="shared" ref="N24" si="114">IF(TEXT(N26,"m월")=TEXT(M26,"m월"),"",LOWER(TEXT(N26,"m월")))</f>
-        <v>10월</v>
-      </c>
-      <c r="O24" s="8" t="str">
-        <f t="shared" ref="O24" si="115">IF(TEXT(O26,"m월")=TEXT(N26,"m월"),"",LOWER(TEXT(O26,"m월")))</f>
-        <v/>
-      </c>
-      <c r="P24" s="8" t="str">
-        <f>IF(TEXT(P26,"m월")=TEXT(O26,"m월"),"",LOWER(TEXT(P26,"m월")))</f>
-        <v/>
-      </c>
-      <c r="Q24" s="7" t="str">
-        <f>LOWER(TEXT(Q26,"m월"))</f>
-        <v>10월</v>
-      </c>
-      <c r="R24" s="7" t="str">
-        <f t="shared" ref="R24" si="116">IF(TEXT(R26,"m월")=TEXT(Q26,"m월"),"",LOWER(TEXT(R26,"m월")))</f>
-        <v/>
-      </c>
-      <c r="S24" s="7" t="str">
-        <f t="shared" ref="S24" si="117">IF(TEXT(S26,"m월")=TEXT(R26,"m월"),"",LOWER(TEXT(S26,"m월")))</f>
-        <v/>
-      </c>
-      <c r="T24" s="7" t="str">
-        <f t="shared" ref="T24" si="118">IF(TEXT(T26,"m월")=TEXT(S26,"m월"),"",LOWER(TEXT(T26,"m월")))</f>
-        <v/>
-      </c>
-      <c r="U24" s="7" t="str">
-        <f t="shared" ref="U24" si="119">IF(TEXT(U26,"m월")=TEXT(T26,"m월"),"",LOWER(TEXT(U26,"m월")))</f>
-        <v/>
-      </c>
-      <c r="V24" s="7" t="str">
-        <f t="shared" ref="V24" si="120">IF(TEXT(V26,"m월")=TEXT(U26,"m월"),"",LOWER(TEXT(V26,"m월")))</f>
-        <v/>
-      </c>
-      <c r="W24" s="7" t="str">
-        <f t="shared" ref="W24" si="121">IF(TEXT(W26,"m월")=TEXT(V26,"m월"),"",LOWER(TEXT(W26,"m월")))</f>
-        <v/>
-      </c>
-      <c r="X24" s="8" t="str">
-        <f>LOWER(TEXT(X26,"m월"))</f>
-        <v>10월</v>
-      </c>
-      <c r="Y24" s="8" t="str">
-        <f t="shared" ref="Y24" si="122">IF(TEXT(Y26,"m월")=TEXT(X26,"m월"),"",LOWER(TEXT(Y26,"m월")))</f>
-        <v/>
-      </c>
-      <c r="Z24" s="8" t="str">
-        <f t="shared" ref="Z24" si="123">IF(TEXT(Z26,"m월")=TEXT(Y26,"m월"),"",LOWER(TEXT(Z26,"m월")))</f>
-        <v/>
-      </c>
-      <c r="AA24" s="8" t="str">
-        <f t="shared" ref="AA24" si="124">IF(TEXT(AA26,"m월")=TEXT(Z26,"m월"),"",LOWER(TEXT(AA26,"m월")))</f>
-        <v/>
-      </c>
-      <c r="AB24" s="8" t="str">
-        <f t="shared" ref="AB24" si="125">IF(TEXT(AB26,"m월")=TEXT(AA26,"m월"),"",LOWER(TEXT(AB26,"m월")))</f>
-        <v/>
-      </c>
-      <c r="AC24" s="8" t="str">
-        <f t="shared" ref="AC24" si="126">IF(TEXT(AC26,"m월")=TEXT(AB26,"m월"),"",LOWER(TEXT(AC26,"m월")))</f>
-        <v/>
-      </c>
-      <c r="AD24" s="8" t="str">
-        <f t="shared" ref="AD24" si="127">IF(TEXT(AD26,"m월")=TEXT(AC26,"m월"),"",LOWER(TEXT(AD26,"m월")))</f>
-        <v/>
-      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="14"/>
     </row>
     <row r="25" spans="2:30" ht="30" customHeight="1">
       <c r="B25" s="13"/>
-      <c r="C25" s="9" t="str">
-        <f>LOWER(TEXT(C26,"aaa"))</f>
+      <c r="C25" s="6" t="str">
+        <f>LOWER(TEXT(C27, "m월"))</f>
+        <v>11월</v>
+      </c>
+      <c r="D25" s="7" t="str">
+        <f t="shared" ref="D25" si="106">IF(TEXT(D27,"m월")=TEXT(C27,"m월"),"",LOWER(TEXT(D27,"m월")))</f>
+        <v/>
+      </c>
+      <c r="E25" s="7" t="str">
+        <f t="shared" ref="E25" si="107">IF(TEXT(E27,"m월")=TEXT(D27,"m월"),"",LOWER(TEXT(E27,"m월")))</f>
+        <v/>
+      </c>
+      <c r="F25" s="7" t="str">
+        <f t="shared" ref="F25" si="108">IF(TEXT(F27,"m월")=TEXT(E27,"m월"),"",LOWER(TEXT(F27,"m월")))</f>
+        <v/>
+      </c>
+      <c r="G25" s="7" t="str">
+        <f t="shared" ref="G25" si="109">IF(TEXT(G27,"m월")=TEXT(F27,"m월"),"",LOWER(TEXT(G27,"m월")))</f>
+        <v/>
+      </c>
+      <c r="H25" s="7" t="str">
+        <f t="shared" ref="H25" si="110">IF(TEXT(H27,"m월")=TEXT(G27,"m월"),"",LOWER(TEXT(H27,"m월")))</f>
+        <v/>
+      </c>
+      <c r="I25" s="7" t="str">
+        <f>IF(TEXT(I27,"m월")=TEXT(H27,"m월"),"",LOWER(TEXT(I27,"m월")))</f>
+        <v/>
+      </c>
+      <c r="J25" s="8" t="str">
+        <f>LOWER(TEXT(J27,"m월"))</f>
+        <v>12월</v>
+      </c>
+      <c r="K25" s="8" t="str">
+        <f t="shared" ref="K25" si="111">IF(TEXT(K27,"m월")=TEXT(J27,"m월"),"",LOWER(TEXT(K27,"m월")))</f>
+        <v/>
+      </c>
+      <c r="L25" s="8" t="str">
+        <f t="shared" ref="L25" si="112">IF(TEXT(L27,"m월")=TEXT(K27,"m월"),"",LOWER(TEXT(L27,"m월")))</f>
+        <v/>
+      </c>
+      <c r="M25" s="8" t="str">
+        <f t="shared" ref="M25" si="113">IF(TEXT(M27,"m월")=TEXT(L27,"m월"),"",LOWER(TEXT(M27,"m월")))</f>
+        <v/>
+      </c>
+      <c r="N25" s="8" t="str">
+        <f t="shared" ref="N25" si="114">IF(TEXT(N27,"m월")=TEXT(M27,"m월"),"",LOWER(TEXT(N27,"m월")))</f>
+        <v/>
+      </c>
+      <c r="O25" s="8" t="str">
+        <f t="shared" ref="O25" si="115">IF(TEXT(O27,"m월")=TEXT(N27,"m월"),"",LOWER(TEXT(O27,"m월")))</f>
+        <v/>
+      </c>
+      <c r="P25" s="8" t="str">
+        <f>IF(TEXT(P27,"m월")=TEXT(O27,"m월"),"",LOWER(TEXT(P27,"m월")))</f>
+        <v/>
+      </c>
+      <c r="Q25" s="7" t="str">
+        <f>LOWER(TEXT(Q27,"m월"))</f>
+        <v>12월</v>
+      </c>
+      <c r="R25" s="7" t="str">
+        <f t="shared" ref="R25" si="116">IF(TEXT(R27,"m월")=TEXT(Q27,"m월"),"",LOWER(TEXT(R27,"m월")))</f>
+        <v/>
+      </c>
+      <c r="S25" s="7" t="str">
+        <f t="shared" ref="S25" si="117">IF(TEXT(S27,"m월")=TEXT(R27,"m월"),"",LOWER(TEXT(S27,"m월")))</f>
+        <v/>
+      </c>
+      <c r="T25" s="7" t="str">
+        <f t="shared" ref="T25" si="118">IF(TEXT(T27,"m월")=TEXT(S27,"m월"),"",LOWER(TEXT(T27,"m월")))</f>
+        <v/>
+      </c>
+      <c r="U25" s="7" t="str">
+        <f t="shared" ref="U25" si="119">IF(TEXT(U27,"m월")=TEXT(T27,"m월"),"",LOWER(TEXT(U27,"m월")))</f>
+        <v/>
+      </c>
+      <c r="V25" s="7" t="str">
+        <f t="shared" ref="V25" si="120">IF(TEXT(V27,"m월")=TEXT(U27,"m월"),"",LOWER(TEXT(V27,"m월")))</f>
+        <v/>
+      </c>
+      <c r="W25" s="7" t="str">
+        <f t="shared" ref="W25" si="121">IF(TEXT(W27,"m월")=TEXT(V27,"m월"),"",LOWER(TEXT(W27,"m월")))</f>
+        <v/>
+      </c>
+      <c r="X25" s="8" t="str">
+        <f>LOWER(TEXT(X27,"m월"))</f>
+        <v>12월</v>
+      </c>
+      <c r="Y25" s="8" t="str">
+        <f t="shared" ref="Y25" si="122">IF(TEXT(Y27,"m월")=TEXT(X27,"m월"),"",LOWER(TEXT(Y27,"m월")))</f>
+        <v/>
+      </c>
+      <c r="Z25" s="8" t="str">
+        <f t="shared" ref="Z25" si="123">IF(TEXT(Z27,"m월")=TEXT(Y27,"m월"),"",LOWER(TEXT(Z27,"m월")))</f>
+        <v/>
+      </c>
+      <c r="AA25" s="8" t="str">
+        <f t="shared" ref="AA25" si="124">IF(TEXT(AA27,"m월")=TEXT(Z27,"m월"),"",LOWER(TEXT(AA27,"m월")))</f>
+        <v/>
+      </c>
+      <c r="AB25" s="8" t="str">
+        <f t="shared" ref="AB25" si="125">IF(TEXT(AB27,"m월")=TEXT(AA27,"m월"),"",LOWER(TEXT(AB27,"m월")))</f>
+        <v/>
+      </c>
+      <c r="AC25" s="8" t="str">
+        <f t="shared" ref="AC25" si="126">IF(TEXT(AC27,"m월")=TEXT(AB27,"m월"),"",LOWER(TEXT(AC27,"m월")))</f>
+        <v/>
+      </c>
+      <c r="AD25" s="8" t="str">
+        <f t="shared" ref="AD25" si="127">IF(TEXT(AD27,"m월")=TEXT(AC27,"m월"),"",LOWER(TEXT(AD27,"m월")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:30" ht="30" customHeight="1">
+      <c r="B26" s="13"/>
+      <c r="C26" s="9" t="str">
+        <f>LOWER(TEXT(C27,"aaa"))</f>
+        <v>월</v>
+      </c>
+      <c r="D26" s="9" t="str">
+        <f t="shared" ref="D26:AD26" si="128">LOWER(TEXT(D27,"aaa"))</f>
+        <v>화</v>
+      </c>
+      <c r="E26" s="9" t="str">
+        <f t="shared" si="128"/>
         <v>수</v>
       </c>
-      <c r="D25" s="9" t="str">
-        <f t="shared" ref="D25:AD25" si="128">LOWER(TEXT(D26,"aaa"))</f>
+      <c r="F26" s="9" t="str">
+        <f t="shared" si="128"/>
         <v>목</v>
       </c>
-      <c r="E25" s="9" t="str">
+      <c r="G26" s="9" t="str">
         <f t="shared" si="128"/>
         <v>금</v>
       </c>
-      <c r="F25" s="9" t="str">
+      <c r="H26" s="9" t="str">
         <f t="shared" si="128"/>
         <v>토</v>
       </c>
-      <c r="G25" s="9" t="str">
+      <c r="I26" s="9" t="str">
         <f t="shared" si="128"/>
         <v>일</v>
       </c>
-      <c r="H25" s="9" t="str">
+      <c r="J26" s="10" t="str">
         <f t="shared" si="128"/>
         <v>월</v>
       </c>
-      <c r="I25" s="9" t="str">
+      <c r="K26" s="10" t="str">
         <f t="shared" si="128"/>
         <v>화</v>
       </c>
-      <c r="J25" s="10" t="str">
+      <c r="L26" s="10" t="str">
         <f t="shared" si="128"/>
         <v>수</v>
       </c>
-      <c r="K25" s="10" t="str">
+      <c r="M26" s="10" t="str">
         <f t="shared" si="128"/>
         <v>목</v>
       </c>
-      <c r="L25" s="10" t="str">
+      <c r="N26" s="10" t="str">
         <f t="shared" si="128"/>
         <v>금</v>
       </c>
-      <c r="M25" s="10" t="str">
+      <c r="O26" s="10" t="str">
         <f t="shared" si="128"/>
         <v>토</v>
       </c>
-      <c r="N25" s="10" t="str">
+      <c r="P26" s="10" t="str">
         <f t="shared" si="128"/>
         <v>일</v>
       </c>
-      <c r="O25" s="10" t="str">
+      <c r="Q26" s="9" t="str">
         <f t="shared" si="128"/>
         <v>월</v>
       </c>
-      <c r="P25" s="10" t="str">
+      <c r="R26" s="9" t="str">
         <f t="shared" si="128"/>
         <v>화</v>
       </c>
-      <c r="Q25" s="9" t="str">
+      <c r="S26" s="9" t="str">
         <f t="shared" si="128"/>
         <v>수</v>
       </c>
-      <c r="R25" s="9" t="str">
+      <c r="T26" s="9" t="str">
         <f t="shared" si="128"/>
         <v>목</v>
       </c>
-      <c r="S25" s="9" t="str">
+      <c r="U26" s="9" t="str">
         <f t="shared" si="128"/>
         <v>금</v>
       </c>
-      <c r="T25" s="9" t="str">
+      <c r="V26" s="9" t="str">
         <f t="shared" si="128"/>
         <v>토</v>
       </c>
-      <c r="U25" s="9" t="str">
+      <c r="W26" s="9" t="str">
         <f t="shared" si="128"/>
         <v>일</v>
       </c>
-      <c r="V25" s="9" t="str">
+      <c r="X26" s="10" t="str">
         <f t="shared" si="128"/>
         <v>월</v>
       </c>
-      <c r="W25" s="9" t="str">
+      <c r="Y26" s="10" t="str">
         <f t="shared" si="128"/>
         <v>화</v>
       </c>
-      <c r="X25" s="10" t="str">
+      <c r="Z26" s="10" t="str">
         <f t="shared" si="128"/>
         <v>수</v>
       </c>
-      <c r="Y25" s="10" t="str">
+      <c r="AA26" s="10" t="str">
         <f t="shared" si="128"/>
         <v>목</v>
       </c>
-      <c r="Z25" s="10" t="str">
+      <c r="AB26" s="10" t="str">
         <f t="shared" si="128"/>
         <v>금</v>
       </c>
-      <c r="AA25" s="10" t="str">
+      <c r="AC26" s="10" t="str">
         <f t="shared" si="128"/>
         <v>토</v>
       </c>
-      <c r="AB25" s="10" t="str">
+      <c r="AD26" s="10" t="str">
         <f t="shared" si="128"/>
         <v>일</v>
       </c>
-      <c r="AC25" s="10" t="str">
-        <f t="shared" si="128"/>
-        <v>월</v>
-      </c>
-      <c r="AD25" s="10" t="str">
-        <f t="shared" si="128"/>
-        <v>화</v>
-      </c>
-    </row>
-    <row r="26" spans="2:30" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="13"/>
-      <c r="C26" s="11">
+    </row>
+    <row r="27" spans="2:30" ht="30" customHeight="1" thickBot="1">
+      <c r="B27" s="13"/>
+      <c r="C27" s="11">
         <f>AD20+1</f>
-        <v>45189</v>
-      </c>
-      <c r="D26" s="11">
-        <f>C26+1</f>
-        <v>45190</v>
-      </c>
-      <c r="E26" s="11">
-        <f t="shared" ref="E26" si="129">D26+1</f>
-        <v>45191</v>
-      </c>
-      <c r="F26" s="11">
-        <f t="shared" ref="F26" si="130">E26+1</f>
-        <v>45192</v>
-      </c>
-      <c r="G26" s="11">
-        <f t="shared" ref="G26" si="131">F26+1</f>
-        <v>45193</v>
-      </c>
-      <c r="H26" s="11">
-        <f t="shared" ref="H26" si="132">G26+1</f>
-        <v>45194</v>
-      </c>
-      <c r="I26" s="11">
-        <f>H26+1</f>
-        <v>45195</v>
-      </c>
-      <c r="J26" s="12">
-        <f t="shared" ref="J26" si="133">I26+1</f>
-        <v>45196</v>
-      </c>
-      <c r="K26" s="12">
-        <f t="shared" ref="K26" si="134">J26+1</f>
-        <v>45197</v>
-      </c>
-      <c r="L26" s="12">
-        <f t="shared" ref="L26" si="135">K26+1</f>
-        <v>45198</v>
-      </c>
-      <c r="M26" s="12">
-        <f t="shared" ref="M26" si="136">L26+1</f>
-        <v>45199</v>
-      </c>
-      <c r="N26" s="12">
-        <f t="shared" ref="N26" si="137">M26+1</f>
-        <v>45200</v>
-      </c>
-      <c r="O26" s="12">
-        <f t="shared" ref="O26" si="138">N26+1</f>
-        <v>45201</v>
-      </c>
-      <c r="P26" s="12">
-        <f>O26+1</f>
-        <v>45202</v>
-      </c>
-      <c r="Q26" s="11">
-        <f t="shared" ref="Q26" si="139">P26+1</f>
-        <v>45203</v>
-      </c>
-      <c r="R26" s="11">
-        <f t="shared" ref="R26" si="140">Q26+1</f>
-        <v>45204</v>
-      </c>
-      <c r="S26" s="11">
-        <f t="shared" ref="S26" si="141">R26+1</f>
-        <v>45205</v>
-      </c>
-      <c r="T26" s="11">
-        <f t="shared" ref="T26" si="142">S26+1</f>
-        <v>45206</v>
-      </c>
-      <c r="U26" s="11">
-        <f t="shared" ref="U26" si="143">T26+1</f>
-        <v>45207</v>
-      </c>
-      <c r="V26" s="11">
-        <f t="shared" ref="V26" si="144">U26+1</f>
-        <v>45208</v>
-      </c>
-      <c r="W26" s="11">
-        <f t="shared" ref="W26" si="145">V26+1</f>
-        <v>45209</v>
-      </c>
-      <c r="X26" s="12">
-        <f t="shared" ref="X26" si="146">W26+1</f>
-        <v>45210</v>
-      </c>
-      <c r="Y26" s="12">
-        <f t="shared" ref="Y26" si="147">X26+1</f>
-        <v>45211</v>
-      </c>
-      <c r="Z26" s="12">
-        <f t="shared" ref="Z26" si="148">Y26+1</f>
-        <v>45212</v>
-      </c>
-      <c r="AA26" s="12">
-        <f t="shared" ref="AA26" si="149">Z26+1</f>
-        <v>45213</v>
-      </c>
-      <c r="AB26" s="12">
-        <f t="shared" ref="AB26" si="150">AA26+1</f>
-        <v>45214</v>
-      </c>
-      <c r="AC26" s="12">
-        <f t="shared" ref="AC26" si="151">AB26+1</f>
-        <v>45215</v>
-      </c>
-      <c r="AD26" s="12">
-        <f t="shared" ref="AD26" si="152">AC26+1</f>
-        <v>45216</v>
-      </c>
-    </row>
-    <row r="27" spans="2:30" ht="30" customHeight="1">
-      <c r="B27" s="13" t="str">
-        <f>TEXT("내용입력","aaa")</f>
-        <v>내용입력</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="31"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="31"/>
+        <v>45985</v>
+      </c>
+      <c r="D27" s="11">
+        <f>C27+1</f>
+        <v>45986</v>
+      </c>
+      <c r="E27" s="11">
+        <f t="shared" ref="E27" si="129">D27+1</f>
+        <v>45987</v>
+      </c>
+      <c r="F27" s="11">
+        <f t="shared" ref="F27" si="130">E27+1</f>
+        <v>45988</v>
+      </c>
+      <c r="G27" s="11">
+        <f t="shared" ref="G27" si="131">F27+1</f>
+        <v>45989</v>
+      </c>
+      <c r="H27" s="11">
+        <f t="shared" ref="H27" si="132">G27+1</f>
+        <v>45990</v>
+      </c>
+      <c r="I27" s="11">
+        <f>H27+1</f>
+        <v>45991</v>
+      </c>
+      <c r="J27" s="12">
+        <f t="shared" ref="J27" si="133">I27+1</f>
+        <v>45992</v>
+      </c>
+      <c r="K27" s="12">
+        <f t="shared" ref="K27" si="134">J27+1</f>
+        <v>45993</v>
+      </c>
+      <c r="L27" s="12">
+        <f t="shared" ref="L27" si="135">K27+1</f>
+        <v>45994</v>
+      </c>
+      <c r="M27" s="12">
+        <f t="shared" ref="M27" si="136">L27+1</f>
+        <v>45995</v>
+      </c>
+      <c r="N27" s="12">
+        <f t="shared" ref="N27" si="137">M27+1</f>
+        <v>45996</v>
+      </c>
+      <c r="O27" s="12">
+        <f t="shared" ref="O27" si="138">N27+1</f>
+        <v>45997</v>
+      </c>
+      <c r="P27" s="12">
+        <f>O27+1</f>
+        <v>45998</v>
+      </c>
+      <c r="Q27" s="11">
+        <f t="shared" ref="Q27" si="139">P27+1</f>
+        <v>45999</v>
+      </c>
+      <c r="R27" s="11">
+        <f t="shared" ref="R27" si="140">Q27+1</f>
+        <v>46000</v>
+      </c>
+      <c r="S27" s="11">
+        <f t="shared" ref="S27" si="141">R27+1</f>
+        <v>46001</v>
+      </c>
+      <c r="T27" s="11">
+        <f t="shared" ref="T27" si="142">S27+1</f>
+        <v>46002</v>
+      </c>
+      <c r="U27" s="11">
+        <f t="shared" ref="U27" si="143">T27+1</f>
+        <v>46003</v>
+      </c>
+      <c r="V27" s="11">
+        <f t="shared" ref="V27" si="144">U27+1</f>
+        <v>46004</v>
+      </c>
+      <c r="W27" s="11">
+        <f t="shared" ref="W27" si="145">V27+1</f>
+        <v>46005</v>
+      </c>
+      <c r="X27" s="12">
+        <f t="shared" ref="X27" si="146">W27+1</f>
+        <v>46006</v>
+      </c>
+      <c r="Y27" s="12">
+        <f t="shared" ref="Y27" si="147">X27+1</f>
+        <v>46007</v>
+      </c>
+      <c r="Z27" s="12">
+        <f t="shared" ref="Z27" si="148">Y27+1</f>
+        <v>46008</v>
+      </c>
+      <c r="AA27" s="12">
+        <f t="shared" ref="AA27" si="149">Z27+1</f>
+        <v>46009</v>
+      </c>
+      <c r="AB27" s="12">
+        <f t="shared" ref="AB27" si="150">AA27+1</f>
+        <v>46010</v>
+      </c>
+      <c r="AC27" s="12">
+        <f t="shared" ref="AC27" si="151">AB27+1</f>
+        <v>46011</v>
+      </c>
+      <c r="AD27" s="12">
+        <f t="shared" ref="AD27" si="152">AC27+1</f>
+        <v>46012</v>
+      </c>
     </row>
     <row r="28" spans="2:30" ht="30" customHeight="1">
-      <c r="B28" s="13" t="str">
-        <f>TEXT("내용입력","aaa")</f>
-        <v>내용입력</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="27"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="23"/>
+      <c r="B28" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="34"/>
     </row>
     <row r="29" spans="2:30" ht="30" customHeight="1">
-      <c r="B29" s="13" t="str">
-        <f>TEXT("내용입력","aaa")</f>
-        <v>내용입력</v>
-      </c>
+      <c r="B29" s="13"/>
       <c r="C29" s="15"/>
       <c r="D29" s="14"/>
       <c r="E29" s="15"/>
@@ -3278,433 +3192,430 @@
       <c r="AD29" s="14"/>
     </row>
     <row r="30" spans="2:30" ht="30" customHeight="1">
-      <c r="B30" s="13"/>
-      <c r="C30" s="6" t="str">
-        <f>LOWER(TEXT(C32, "m월"))</f>
-        <v>10월</v>
-      </c>
-      <c r="D30" s="7" t="str">
-        <f t="shared" ref="D30" si="153">IF(TEXT(D32,"m월")=TEXT(C32,"m월"),"",LOWER(TEXT(D32,"m월")))</f>
-        <v/>
-      </c>
-      <c r="E30" s="7" t="str">
-        <f t="shared" ref="E30" si="154">IF(TEXT(E32,"m월")=TEXT(D32,"m월"),"",LOWER(TEXT(E32,"m월")))</f>
-        <v/>
-      </c>
-      <c r="F30" s="7" t="str">
-        <f t="shared" ref="F30" si="155">IF(TEXT(F32,"m월")=TEXT(E32,"m월"),"",LOWER(TEXT(F32,"m월")))</f>
-        <v/>
-      </c>
-      <c r="G30" s="7" t="str">
-        <f t="shared" ref="G30" si="156">IF(TEXT(G32,"m월")=TEXT(F32,"m월"),"",LOWER(TEXT(G32,"m월")))</f>
-        <v/>
-      </c>
-      <c r="H30" s="7" t="str">
-        <f t="shared" ref="H30" si="157">IF(TEXT(H32,"m월")=TEXT(G32,"m월"),"",LOWER(TEXT(H32,"m월")))</f>
-        <v/>
-      </c>
-      <c r="I30" s="7" t="str">
-        <f>IF(TEXT(I32,"m월")=TEXT(H32,"m월"),"",LOWER(TEXT(I32,"m월")))</f>
-        <v/>
-      </c>
-      <c r="J30" s="8" t="str">
-        <f>LOWER(TEXT(J32,"m월"))</f>
-        <v>10월</v>
-      </c>
-      <c r="K30" s="8" t="str">
-        <f t="shared" ref="K30" si="158">IF(TEXT(K32,"m월")=TEXT(J32,"m월"),"",LOWER(TEXT(K32,"m월")))</f>
-        <v/>
-      </c>
-      <c r="L30" s="8" t="str">
-        <f t="shared" ref="L30" si="159">IF(TEXT(L32,"m월")=TEXT(K32,"m월"),"",LOWER(TEXT(L32,"m월")))</f>
-        <v/>
-      </c>
-      <c r="M30" s="8" t="str">
-        <f t="shared" ref="M30" si="160">IF(TEXT(M32,"m월")=TEXT(L32,"m월"),"",LOWER(TEXT(M32,"m월")))</f>
-        <v/>
-      </c>
-      <c r="N30" s="8" t="str">
-        <f t="shared" ref="N30" si="161">IF(TEXT(N32,"m월")=TEXT(M32,"m월"),"",LOWER(TEXT(N32,"m월")))</f>
-        <v/>
-      </c>
-      <c r="O30" s="8" t="str">
-        <f t="shared" ref="O30" si="162">IF(TEXT(O32,"m월")=TEXT(N32,"m월"),"",LOWER(TEXT(O32,"m월")))</f>
-        <v/>
-      </c>
-      <c r="P30" s="8" t="str">
-        <f>IF(TEXT(P32,"m월")=TEXT(O32,"m월"),"",LOWER(TEXT(P32,"m월")))</f>
-        <v/>
-      </c>
-      <c r="Q30" s="7" t="str">
-        <f>LOWER(TEXT(Q32,"m월"))</f>
-        <v>11월</v>
-      </c>
-      <c r="R30" s="7" t="str">
-        <f t="shared" ref="R30" si="163">IF(TEXT(R32,"m월")=TEXT(Q32,"m월"),"",LOWER(TEXT(R32,"m월")))</f>
-        <v/>
-      </c>
-      <c r="S30" s="7" t="str">
-        <f t="shared" ref="S30" si="164">IF(TEXT(S32,"m월")=TEXT(R32,"m월"),"",LOWER(TEXT(S32,"m월")))</f>
-        <v/>
-      </c>
-      <c r="T30" s="7" t="str">
-        <f t="shared" ref="T30" si="165">IF(TEXT(T32,"m월")=TEXT(S32,"m월"),"",LOWER(TEXT(T32,"m월")))</f>
-        <v/>
-      </c>
-      <c r="U30" s="7" t="str">
-        <f t="shared" ref="U30" si="166">IF(TEXT(U32,"m월")=TEXT(T32,"m월"),"",LOWER(TEXT(U32,"m월")))</f>
-        <v/>
-      </c>
-      <c r="V30" s="7" t="str">
-        <f t="shared" ref="V30" si="167">IF(TEXT(V32,"m월")=TEXT(U32,"m월"),"",LOWER(TEXT(V32,"m월")))</f>
-        <v/>
-      </c>
-      <c r="W30" s="7" t="str">
-        <f t="shared" ref="W30" si="168">IF(TEXT(W32,"m월")=TEXT(V32,"m월"),"",LOWER(TEXT(W32,"m월")))</f>
-        <v/>
-      </c>
-      <c r="X30" s="8" t="str">
-        <f>LOWER(TEXT(X32,"m월"))</f>
-        <v>11월</v>
-      </c>
-      <c r="Y30" s="8" t="str">
-        <f t="shared" ref="Y30" si="169">IF(TEXT(Y32,"m월")=TEXT(X32,"m월"),"",LOWER(TEXT(Y32,"m월")))</f>
-        <v/>
-      </c>
-      <c r="Z30" s="8" t="str">
-        <f t="shared" ref="Z30" si="170">IF(TEXT(Z32,"m월")=TEXT(Y32,"m월"),"",LOWER(TEXT(Z32,"m월")))</f>
-        <v/>
-      </c>
-      <c r="AA30" s="8" t="str">
-        <f t="shared" ref="AA30" si="171">IF(TEXT(AA32,"m월")=TEXT(Z32,"m월"),"",LOWER(TEXT(AA32,"m월")))</f>
-        <v/>
-      </c>
-      <c r="AB30" s="8" t="str">
-        <f t="shared" ref="AB30" si="172">IF(TEXT(AB32,"m월")=TEXT(AA32,"m월"),"",LOWER(TEXT(AB32,"m월")))</f>
-        <v/>
-      </c>
-      <c r="AC30" s="8" t="str">
-        <f t="shared" ref="AC30" si="173">IF(TEXT(AC32,"m월")=TEXT(AB32,"m월"),"",LOWER(TEXT(AC32,"m월")))</f>
-        <v/>
-      </c>
-      <c r="AD30" s="8" t="str">
-        <f t="shared" ref="AD30" si="174">IF(TEXT(AD32,"m월")=TEXT(AC32,"m월"),"",LOWER(TEXT(AD32,"m월")))</f>
-        <v/>
-      </c>
+      <c r="B30" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="33"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="31"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="S30" s="31"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="14"/>
     </row>
     <row r="31" spans="2:30" ht="30" customHeight="1">
       <c r="B31" s="13"/>
-      <c r="C31" s="9" t="str">
-        <f>LOWER(TEXT(C32,"aaa"))</f>
+      <c r="C31" s="15"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="14"/>
+    </row>
+    <row r="32" spans="2:30" ht="30" customHeight="1">
+      <c r="B32" s="13"/>
+      <c r="C32" s="6" t="str">
+        <f>LOWER(TEXT(C34, "m월"))</f>
+        <v>12월</v>
+      </c>
+      <c r="D32" s="7" t="str">
+        <f t="shared" ref="D32" si="153">IF(TEXT(D34,"m월")=TEXT(C34,"m월"),"",LOWER(TEXT(D34,"m월")))</f>
+        <v/>
+      </c>
+      <c r="E32" s="7" t="str">
+        <f t="shared" ref="E32" si="154">IF(TEXT(E34,"m월")=TEXT(D34,"m월"),"",LOWER(TEXT(E34,"m월")))</f>
+        <v/>
+      </c>
+      <c r="F32" s="7" t="str">
+        <f t="shared" ref="F32" si="155">IF(TEXT(F34,"m월")=TEXT(E34,"m월"),"",LOWER(TEXT(F34,"m월")))</f>
+        <v/>
+      </c>
+      <c r="G32" s="7" t="str">
+        <f t="shared" ref="G32" si="156">IF(TEXT(G34,"m월")=TEXT(F34,"m월"),"",LOWER(TEXT(G34,"m월")))</f>
+        <v/>
+      </c>
+      <c r="H32" s="7" t="str">
+        <f t="shared" ref="H32" si="157">IF(TEXT(H34,"m월")=TEXT(G34,"m월"),"",LOWER(TEXT(H34,"m월")))</f>
+        <v/>
+      </c>
+      <c r="I32" s="7" t="str">
+        <f>IF(TEXT(I34,"m월")=TEXT(H34,"m월"),"",LOWER(TEXT(I34,"m월")))</f>
+        <v/>
+      </c>
+      <c r="J32" s="8" t="str">
+        <f>LOWER(TEXT(J34,"m월"))</f>
+        <v>12월</v>
+      </c>
+      <c r="K32" s="8" t="str">
+        <f t="shared" ref="K32" si="158">IF(TEXT(K34,"m월")=TEXT(J34,"m월"),"",LOWER(TEXT(K34,"m월")))</f>
+        <v/>
+      </c>
+      <c r="L32" s="8" t="str">
+        <f t="shared" ref="L32" si="159">IF(TEXT(L34,"m월")=TEXT(K34,"m월"),"",LOWER(TEXT(L34,"m월")))</f>
+        <v/>
+      </c>
+      <c r="M32" s="8" t="str">
+        <f t="shared" ref="M32" si="160">IF(TEXT(M34,"m월")=TEXT(L34,"m월"),"",LOWER(TEXT(M34,"m월")))</f>
+        <v>1월</v>
+      </c>
+      <c r="N32" s="8" t="str">
+        <f t="shared" ref="N32" si="161">IF(TEXT(N34,"m월")=TEXT(M34,"m월"),"",LOWER(TEXT(N34,"m월")))</f>
+        <v/>
+      </c>
+      <c r="O32" s="8" t="str">
+        <f t="shared" ref="O32" si="162">IF(TEXT(O34,"m월")=TEXT(N34,"m월"),"",LOWER(TEXT(O34,"m월")))</f>
+        <v/>
+      </c>
+      <c r="P32" s="8" t="str">
+        <f>IF(TEXT(P34,"m월")=TEXT(O34,"m월"),"",LOWER(TEXT(P34,"m월")))</f>
+        <v/>
+      </c>
+      <c r="Q32" s="7" t="str">
+        <f>LOWER(TEXT(Q34,"m월"))</f>
+        <v>1월</v>
+      </c>
+      <c r="R32" s="7" t="str">
+        <f t="shared" ref="R32" si="163">IF(TEXT(R34,"m월")=TEXT(Q34,"m월"),"",LOWER(TEXT(R34,"m월")))</f>
+        <v/>
+      </c>
+      <c r="S32" s="7" t="str">
+        <f t="shared" ref="S32" si="164">IF(TEXT(S34,"m월")=TEXT(R34,"m월"),"",LOWER(TEXT(S34,"m월")))</f>
+        <v/>
+      </c>
+      <c r="T32" s="7" t="str">
+        <f t="shared" ref="T32" si="165">IF(TEXT(T34,"m월")=TEXT(S34,"m월"),"",LOWER(TEXT(T34,"m월")))</f>
+        <v/>
+      </c>
+      <c r="U32" s="7" t="str">
+        <f t="shared" ref="U32" si="166">IF(TEXT(U34,"m월")=TEXT(T34,"m월"),"",LOWER(TEXT(U34,"m월")))</f>
+        <v/>
+      </c>
+      <c r="V32" s="7" t="str">
+        <f t="shared" ref="V32" si="167">IF(TEXT(V34,"m월")=TEXT(U34,"m월"),"",LOWER(TEXT(V34,"m월")))</f>
+        <v/>
+      </c>
+      <c r="W32" s="7" t="str">
+        <f t="shared" ref="W32" si="168">IF(TEXT(W34,"m월")=TEXT(V34,"m월"),"",LOWER(TEXT(W34,"m월")))</f>
+        <v/>
+      </c>
+      <c r="X32" s="8" t="str">
+        <f>LOWER(TEXT(X34,"m월"))</f>
+        <v>1월</v>
+      </c>
+      <c r="Y32" s="8" t="str">
+        <f t="shared" ref="Y32" si="169">IF(TEXT(Y34,"m월")=TEXT(X34,"m월"),"",LOWER(TEXT(Y34,"m월")))</f>
+        <v/>
+      </c>
+      <c r="Z32" s="8" t="str">
+        <f t="shared" ref="Z32" si="170">IF(TEXT(Z34,"m월")=TEXT(Y34,"m월"),"",LOWER(TEXT(Z34,"m월")))</f>
+        <v/>
+      </c>
+      <c r="AA32" s="8" t="str">
+        <f t="shared" ref="AA32" si="171">IF(TEXT(AA34,"m월")=TEXT(Z34,"m월"),"",LOWER(TEXT(AA34,"m월")))</f>
+        <v/>
+      </c>
+      <c r="AB32" s="8" t="str">
+        <f t="shared" ref="AB32" si="172">IF(TEXT(AB34,"m월")=TEXT(AA34,"m월"),"",LOWER(TEXT(AB34,"m월")))</f>
+        <v/>
+      </c>
+      <c r="AC32" s="8" t="str">
+        <f t="shared" ref="AC32" si="173">IF(TEXT(AC34,"m월")=TEXT(AB34,"m월"),"",LOWER(TEXT(AC34,"m월")))</f>
+        <v/>
+      </c>
+      <c r="AD32" s="8" t="str">
+        <f t="shared" ref="AD32" si="174">IF(TEXT(AD34,"m월")=TEXT(AC34,"m월"),"",LOWER(TEXT(AD34,"m월")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:30" ht="30" customHeight="1">
+      <c r="B33" s="13"/>
+      <c r="C33" s="9" t="str">
+        <f>LOWER(TEXT(C34,"aaa"))</f>
+        <v>월</v>
+      </c>
+      <c r="D33" s="9" t="str">
+        <f t="shared" ref="D33:AD33" si="175">LOWER(TEXT(D34,"aaa"))</f>
+        <v>화</v>
+      </c>
+      <c r="E33" s="9" t="str">
+        <f t="shared" si="175"/>
         <v>수</v>
       </c>
-      <c r="D31" s="9" t="str">
-        <f t="shared" ref="D31:AD31" si="175">LOWER(TEXT(D32,"aaa"))</f>
+      <c r="F33" s="9" t="str">
+        <f t="shared" si="175"/>
         <v>목</v>
       </c>
-      <c r="E31" s="9" t="str">
+      <c r="G33" s="9" t="str">
         <f t="shared" si="175"/>
         <v>금</v>
       </c>
-      <c r="F31" s="9" t="str">
+      <c r="H33" s="9" t="str">
         <f t="shared" si="175"/>
         <v>토</v>
       </c>
-      <c r="G31" s="9" t="str">
+      <c r="I33" s="9" t="str">
         <f t="shared" si="175"/>
         <v>일</v>
       </c>
-      <c r="H31" s="9" t="str">
+      <c r="J33" s="10" t="str">
         <f t="shared" si="175"/>
         <v>월</v>
       </c>
-      <c r="I31" s="9" t="str">
+      <c r="K33" s="10" t="str">
         <f t="shared" si="175"/>
         <v>화</v>
       </c>
-      <c r="J31" s="10" t="str">
+      <c r="L33" s="10" t="str">
         <f t="shared" si="175"/>
         <v>수</v>
       </c>
-      <c r="K31" s="10" t="str">
+      <c r="M33" s="10" t="str">
         <f t="shared" si="175"/>
         <v>목</v>
       </c>
-      <c r="L31" s="10" t="str">
+      <c r="N33" s="10" t="str">
         <f t="shared" si="175"/>
         <v>금</v>
       </c>
-      <c r="M31" s="10" t="str">
+      <c r="O33" s="10" t="str">
         <f t="shared" si="175"/>
         <v>토</v>
       </c>
-      <c r="N31" s="10" t="str">
+      <c r="P33" s="10" t="str">
         <f t="shared" si="175"/>
         <v>일</v>
       </c>
-      <c r="O31" s="10" t="str">
+      <c r="Q33" s="9" t="str">
         <f t="shared" si="175"/>
         <v>월</v>
       </c>
-      <c r="P31" s="10" t="str">
+      <c r="R33" s="9" t="str">
         <f t="shared" si="175"/>
         <v>화</v>
       </c>
-      <c r="Q31" s="9" t="str">
+      <c r="S33" s="9" t="str">
         <f t="shared" si="175"/>
         <v>수</v>
       </c>
-      <c r="R31" s="9" t="str">
+      <c r="T33" s="9" t="str">
         <f t="shared" si="175"/>
         <v>목</v>
       </c>
-      <c r="S31" s="9" t="str">
+      <c r="U33" s="9" t="str">
         <f t="shared" si="175"/>
         <v>금</v>
       </c>
-      <c r="T31" s="9" t="str">
+      <c r="V33" s="9" t="str">
         <f t="shared" si="175"/>
         <v>토</v>
       </c>
-      <c r="U31" s="9" t="str">
+      <c r="W33" s="9" t="str">
         <f t="shared" si="175"/>
         <v>일</v>
       </c>
-      <c r="V31" s="9" t="str">
+      <c r="X33" s="10" t="str">
         <f t="shared" si="175"/>
         <v>월</v>
       </c>
-      <c r="W31" s="9" t="str">
+      <c r="Y33" s="10" t="str">
         <f t="shared" si="175"/>
         <v>화</v>
       </c>
-      <c r="X31" s="10" t="str">
+      <c r="Z33" s="10" t="str">
         <f t="shared" si="175"/>
         <v>수</v>
       </c>
-      <c r="Y31" s="10" t="str">
+      <c r="AA33" s="10" t="str">
         <f t="shared" si="175"/>
         <v>목</v>
       </c>
-      <c r="Z31" s="10" t="str">
+      <c r="AB33" s="10" t="str">
         <f t="shared" si="175"/>
         <v>금</v>
       </c>
-      <c r="AA31" s="10" t="str">
+      <c r="AC33" s="10" t="str">
         <f t="shared" si="175"/>
         <v>토</v>
       </c>
-      <c r="AB31" s="10" t="str">
+      <c r="AD33" s="10" t="str">
         <f t="shared" si="175"/>
         <v>일</v>
       </c>
-      <c r="AC31" s="10" t="str">
-        <f t="shared" si="175"/>
-        <v>월</v>
-      </c>
-      <c r="AD31" s="10" t="str">
-        <f t="shared" si="175"/>
-        <v>화</v>
-      </c>
-    </row>
-    <row r="32" spans="2:30" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="13"/>
-      <c r="C32" s="11">
-        <f>AD26+1</f>
-        <v>45217</v>
-      </c>
-      <c r="D32" s="11">
-        <f>C32+1</f>
-        <v>45218</v>
-      </c>
-      <c r="E32" s="11">
-        <f t="shared" ref="E32" si="176">D32+1</f>
-        <v>45219</v>
-      </c>
-      <c r="F32" s="11">
-        <f t="shared" ref="F32" si="177">E32+1</f>
-        <v>45220</v>
-      </c>
-      <c r="G32" s="11">
-        <f t="shared" ref="G32" si="178">F32+1</f>
-        <v>45221</v>
-      </c>
-      <c r="H32" s="11">
-        <f t="shared" ref="H32" si="179">G32+1</f>
-        <v>45222</v>
-      </c>
-      <c r="I32" s="11">
-        <f>H32+1</f>
-        <v>45223</v>
-      </c>
-      <c r="J32" s="12">
-        <f t="shared" ref="J32" si="180">I32+1</f>
-        <v>45224</v>
-      </c>
-      <c r="K32" s="12">
-        <f t="shared" ref="K32" si="181">J32+1</f>
-        <v>45225</v>
-      </c>
-      <c r="L32" s="12">
-        <f t="shared" ref="L32" si="182">K32+1</f>
-        <v>45226</v>
-      </c>
-      <c r="M32" s="12">
-        <f t="shared" ref="M32" si="183">L32+1</f>
-        <v>45227</v>
-      </c>
-      <c r="N32" s="12">
-        <f t="shared" ref="N32" si="184">M32+1</f>
-        <v>45228</v>
-      </c>
-      <c r="O32" s="12">
-        <f t="shared" ref="O32" si="185">N32+1</f>
-        <v>45229</v>
-      </c>
-      <c r="P32" s="12">
-        <f>O32+1</f>
-        <v>45230</v>
-      </c>
-      <c r="Q32" s="11">
-        <f t="shared" ref="Q32" si="186">P32+1</f>
-        <v>45231</v>
-      </c>
-      <c r="R32" s="11">
-        <f t="shared" ref="R32" si="187">Q32+1</f>
-        <v>45232</v>
-      </c>
-      <c r="S32" s="11">
-        <f t="shared" ref="S32" si="188">R32+1</f>
-        <v>45233</v>
-      </c>
-      <c r="T32" s="11">
-        <f t="shared" ref="T32" si="189">S32+1</f>
-        <v>45234</v>
-      </c>
-      <c r="U32" s="11">
-        <f t="shared" ref="U32" si="190">T32+1</f>
-        <v>45235</v>
-      </c>
-      <c r="V32" s="11">
-        <f t="shared" ref="V32" si="191">U32+1</f>
-        <v>45236</v>
-      </c>
-      <c r="W32" s="11">
-        <f t="shared" ref="W32" si="192">V32+1</f>
-        <v>45237</v>
-      </c>
-      <c r="X32" s="12">
-        <f t="shared" ref="X32" si="193">W32+1</f>
-        <v>45238</v>
-      </c>
-      <c r="Y32" s="12">
-        <f t="shared" ref="Y32" si="194">X32+1</f>
-        <v>45239</v>
-      </c>
-      <c r="Z32" s="12">
-        <f t="shared" ref="Z32" si="195">Y32+1</f>
-        <v>45240</v>
-      </c>
-      <c r="AA32" s="12">
-        <f t="shared" ref="AA32" si="196">Z32+1</f>
-        <v>45241</v>
-      </c>
-      <c r="AB32" s="12">
-        <f t="shared" ref="AB32" si="197">AA32+1</f>
-        <v>45242</v>
-      </c>
-      <c r="AC32" s="12">
-        <f t="shared" ref="AC32" si="198">AB32+1</f>
-        <v>45243</v>
-      </c>
-      <c r="AD32" s="12">
-        <f t="shared" ref="AD32" si="199">AC32+1</f>
-        <v>45244</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" ht="30" customHeight="1">
-      <c r="B33" s="13" t="str">
-        <f>TEXT("내용입력","aaa")</f>
-        <v>내용입력</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="31"/>
-      <c r="AA33" s="31"/>
-      <c r="AB33" s="31"/>
-      <c r="AC33" s="31"/>
-      <c r="AD33" s="31"/>
-    </row>
-    <row r="34" spans="2:30" ht="30" customHeight="1">
-      <c r="B34" s="13" t="str">
-        <f>TEXT("내용입력","aaa")</f>
-        <v>내용입력</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="26"/>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="26"/>
-      <c r="Z34" s="26"/>
-      <c r="AA34" s="26"/>
-      <c r="AB34" s="26"/>
-      <c r="AC34" s="26"/>
-      <c r="AD34" s="26"/>
+    </row>
+    <row r="34" spans="2:30" ht="30" customHeight="1" thickBot="1">
+      <c r="B34" s="13"/>
+      <c r="C34" s="11">
+        <f>AD27+1</f>
+        <v>46013</v>
+      </c>
+      <c r="D34" s="11">
+        <f>C34+1</f>
+        <v>46014</v>
+      </c>
+      <c r="E34" s="11">
+        <f t="shared" ref="E34" si="176">D34+1</f>
+        <v>46015</v>
+      </c>
+      <c r="F34" s="11">
+        <f t="shared" ref="F34" si="177">E34+1</f>
+        <v>46016</v>
+      </c>
+      <c r="G34" s="11">
+        <f t="shared" ref="G34" si="178">F34+1</f>
+        <v>46017</v>
+      </c>
+      <c r="H34" s="11">
+        <f t="shared" ref="H34" si="179">G34+1</f>
+        <v>46018</v>
+      </c>
+      <c r="I34" s="11">
+        <f>H34+1</f>
+        <v>46019</v>
+      </c>
+      <c r="J34" s="12">
+        <f t="shared" ref="J34" si="180">I34+1</f>
+        <v>46020</v>
+      </c>
+      <c r="K34" s="12">
+        <f t="shared" ref="K34" si="181">J34+1</f>
+        <v>46021</v>
+      </c>
+      <c r="L34" s="12">
+        <f t="shared" ref="L34" si="182">K34+1</f>
+        <v>46022</v>
+      </c>
+      <c r="M34" s="12">
+        <f t="shared" ref="M34" si="183">L34+1</f>
+        <v>46023</v>
+      </c>
+      <c r="N34" s="12">
+        <f t="shared" ref="N34" si="184">M34+1</f>
+        <v>46024</v>
+      </c>
+      <c r="O34" s="12">
+        <f t="shared" ref="O34" si="185">N34+1</f>
+        <v>46025</v>
+      </c>
+      <c r="P34" s="12">
+        <f>O34+1</f>
+        <v>46026</v>
+      </c>
+      <c r="Q34" s="11">
+        <f t="shared" ref="Q34" si="186">P34+1</f>
+        <v>46027</v>
+      </c>
+      <c r="R34" s="11">
+        <f t="shared" ref="R34" si="187">Q34+1</f>
+        <v>46028</v>
+      </c>
+      <c r="S34" s="11">
+        <f t="shared" ref="S34" si="188">R34+1</f>
+        <v>46029</v>
+      </c>
+      <c r="T34" s="11">
+        <f t="shared" ref="T34" si="189">S34+1</f>
+        <v>46030</v>
+      </c>
+      <c r="U34" s="11">
+        <f t="shared" ref="U34" si="190">T34+1</f>
+        <v>46031</v>
+      </c>
+      <c r="V34" s="11">
+        <f t="shared" ref="V34" si="191">U34+1</f>
+        <v>46032</v>
+      </c>
+      <c r="W34" s="11">
+        <f t="shared" ref="W34" si="192">V34+1</f>
+        <v>46033</v>
+      </c>
+      <c r="X34" s="12">
+        <f t="shared" ref="X34" si="193">W34+1</f>
+        <v>46034</v>
+      </c>
+      <c r="Y34" s="12">
+        <f t="shared" ref="Y34" si="194">X34+1</f>
+        <v>46035</v>
+      </c>
+      <c r="Z34" s="12">
+        <f t="shared" ref="Z34" si="195">Y34+1</f>
+        <v>46036</v>
+      </c>
+      <c r="AA34" s="12">
+        <f t="shared" ref="AA34" si="196">Z34+1</f>
+        <v>46037</v>
+      </c>
+      <c r="AB34" s="12">
+        <f t="shared" ref="AB34" si="197">AA34+1</f>
+        <v>46038</v>
+      </c>
+      <c r="AC34" s="12">
+        <f t="shared" ref="AC34" si="198">AB34+1</f>
+        <v>46039</v>
+      </c>
+      <c r="AD34" s="12">
+        <f t="shared" ref="AD34" si="199">AC34+1</f>
+        <v>46040</v>
+      </c>
     </row>
     <row r="35" spans="2:30" ht="30" customHeight="1">
-      <c r="B35" s="13" t="str">
-        <f>TEXT("내용입력","aaa")</f>
-        <v>내용입력</v>
-      </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="14"/>
+      <c r="B35" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="18"/>
       <c r="E35" s="15"/>
       <c r="F35" s="14"/>
       <c r="G35" s="15"/>
@@ -3733,431 +3644,418 @@
       <c r="AD35" s="14"/>
     </row>
     <row r="36" spans="2:30" ht="30" customHeight="1">
-      <c r="B36" s="13"/>
-      <c r="C36" s="6" t="str">
-        <f>LOWER(TEXT(C38, "m월"))</f>
-        <v>11월</v>
-      </c>
-      <c r="D36" s="7" t="str">
-        <f t="shared" ref="D36" si="200">IF(TEXT(D38,"m월")=TEXT(C38,"m월"),"",LOWER(TEXT(D38,"m월")))</f>
-        <v/>
-      </c>
-      <c r="E36" s="7" t="str">
-        <f t="shared" ref="E36" si="201">IF(TEXT(E38,"m월")=TEXT(D38,"m월"),"",LOWER(TEXT(E38,"m월")))</f>
-        <v/>
-      </c>
-      <c r="F36" s="7" t="str">
-        <f t="shared" ref="F36" si="202">IF(TEXT(F38,"m월")=TEXT(E38,"m월"),"",LOWER(TEXT(F38,"m월")))</f>
-        <v/>
-      </c>
-      <c r="G36" s="7" t="str">
-        <f t="shared" ref="G36" si="203">IF(TEXT(G38,"m월")=TEXT(F38,"m월"),"",LOWER(TEXT(G38,"m월")))</f>
-        <v/>
-      </c>
-      <c r="H36" s="7" t="str">
-        <f t="shared" ref="H36" si="204">IF(TEXT(H38,"m월")=TEXT(G38,"m월"),"",LOWER(TEXT(H38,"m월")))</f>
-        <v/>
-      </c>
-      <c r="I36" s="7" t="str">
-        <f>IF(TEXT(I38,"m월")=TEXT(H38,"m월"),"",LOWER(TEXT(I38,"m월")))</f>
-        <v/>
-      </c>
-      <c r="J36" s="8" t="str">
-        <f>LOWER(TEXT(J38,"m월"))</f>
-        <v>11월</v>
-      </c>
-      <c r="K36" s="8" t="str">
-        <f t="shared" ref="K36" si="205">IF(TEXT(K38,"m월")=TEXT(J38,"m월"),"",LOWER(TEXT(K38,"m월")))</f>
-        <v/>
-      </c>
-      <c r="L36" s="8" t="str">
-        <f t="shared" ref="L36" si="206">IF(TEXT(L38,"m월")=TEXT(K38,"m월"),"",LOWER(TEXT(L38,"m월")))</f>
-        <v/>
-      </c>
-      <c r="M36" s="8" t="str">
-        <f t="shared" ref="M36" si="207">IF(TEXT(M38,"m월")=TEXT(L38,"m월"),"",LOWER(TEXT(M38,"m월")))</f>
-        <v/>
-      </c>
-      <c r="N36" s="8" t="str">
-        <f t="shared" ref="N36" si="208">IF(TEXT(N38,"m월")=TEXT(M38,"m월"),"",LOWER(TEXT(N38,"m월")))</f>
-        <v/>
-      </c>
-      <c r="O36" s="8" t="str">
-        <f t="shared" ref="O36" si="209">IF(TEXT(O38,"m월")=TEXT(N38,"m월"),"",LOWER(TEXT(O38,"m월")))</f>
-        <v/>
-      </c>
-      <c r="P36" s="8" t="str">
-        <f>IF(TEXT(P38,"m월")=TEXT(O38,"m월"),"",LOWER(TEXT(P38,"m월")))</f>
-        <v/>
-      </c>
-      <c r="Q36" s="7" t="str">
-        <f>LOWER(TEXT(Q38,"m월"))</f>
-        <v>11월</v>
-      </c>
-      <c r="R36" s="7" t="str">
-        <f t="shared" ref="R36" si="210">IF(TEXT(R38,"m월")=TEXT(Q38,"m월"),"",LOWER(TEXT(R38,"m월")))</f>
-        <v/>
-      </c>
-      <c r="S36" s="7" t="str">
-        <f t="shared" ref="S36" si="211">IF(TEXT(S38,"m월")=TEXT(R38,"m월"),"",LOWER(TEXT(S38,"m월")))</f>
-        <v>12월</v>
-      </c>
-      <c r="T36" s="7" t="str">
-        <f t="shared" ref="T36" si="212">IF(TEXT(T38,"m월")=TEXT(S38,"m월"),"",LOWER(TEXT(T38,"m월")))</f>
-        <v/>
-      </c>
-      <c r="U36" s="7" t="str">
-        <f t="shared" ref="U36" si="213">IF(TEXT(U38,"m월")=TEXT(T38,"m월"),"",LOWER(TEXT(U38,"m월")))</f>
-        <v/>
-      </c>
-      <c r="V36" s="7" t="str">
-        <f t="shared" ref="V36" si="214">IF(TEXT(V38,"m월")=TEXT(U38,"m월"),"",LOWER(TEXT(V38,"m월")))</f>
-        <v/>
-      </c>
-      <c r="W36" s="7" t="str">
-        <f t="shared" ref="W36" si="215">IF(TEXT(W38,"m월")=TEXT(V38,"m월"),"",LOWER(TEXT(W38,"m월")))</f>
-        <v/>
-      </c>
-      <c r="X36" s="8" t="str">
-        <f>LOWER(TEXT(X38,"m월"))</f>
-        <v>12월</v>
-      </c>
-      <c r="Y36" s="8" t="str">
-        <f t="shared" ref="Y36" si="216">IF(TEXT(Y38,"m월")=TEXT(X38,"m월"),"",LOWER(TEXT(Y38,"m월")))</f>
-        <v/>
-      </c>
-      <c r="Z36" s="8" t="str">
-        <f t="shared" ref="Z36" si="217">IF(TEXT(Z38,"m월")=TEXT(Y38,"m월"),"",LOWER(TEXT(Z38,"m월")))</f>
-        <v/>
-      </c>
-      <c r="AA36" s="8" t="str">
-        <f t="shared" ref="AA36" si="218">IF(TEXT(AA38,"m월")=TEXT(Z38,"m월"),"",LOWER(TEXT(AA38,"m월")))</f>
-        <v/>
-      </c>
-      <c r="AB36" s="8" t="str">
-        <f t="shared" ref="AB36" si="219">IF(TEXT(AB38,"m월")=TEXT(AA38,"m월"),"",LOWER(TEXT(AB38,"m월")))</f>
-        <v/>
-      </c>
-      <c r="AC36" s="8" t="str">
-        <f t="shared" ref="AC36" si="220">IF(TEXT(AC38,"m월")=TEXT(AB38,"m월"),"",LOWER(TEXT(AC38,"m월")))</f>
-        <v/>
-      </c>
-      <c r="AD36" s="8" t="str">
-        <f t="shared" ref="AD36" si="221">IF(TEXT(AD38,"m월")=TEXT(AC38,"m월"),"",LOWER(TEXT(AD38,"m월")))</f>
-        <v/>
-      </c>
+      <c r="B36" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
+      <c r="AB36" s="21"/>
+      <c r="AC36" s="21"/>
+      <c r="AD36" s="21"/>
     </row>
     <row r="37" spans="2:30" ht="30" customHeight="1">
       <c r="B37" s="13"/>
-      <c r="C37" s="9" t="str">
-        <f>LOWER(TEXT(C38,"aaa"))</f>
+      <c r="C37" s="15"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="15"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="15"/>
+      <c r="AB37" s="14"/>
+      <c r="AC37" s="15"/>
+      <c r="AD37" s="14"/>
+    </row>
+    <row r="38" spans="2:30" ht="30" customHeight="1">
+      <c r="B38" s="13"/>
+      <c r="C38" s="6" t="str">
+        <f>LOWER(TEXT(C40, "m월"))</f>
+        <v>1월</v>
+      </c>
+      <c r="D38" s="7" t="str">
+        <f t="shared" ref="D38" si="200">IF(TEXT(D40,"m월")=TEXT(C40,"m월"),"",LOWER(TEXT(D40,"m월")))</f>
+        <v/>
+      </c>
+      <c r="E38" s="7" t="str">
+        <f t="shared" ref="E38" si="201">IF(TEXT(E40,"m월")=TEXT(D40,"m월"),"",LOWER(TEXT(E40,"m월")))</f>
+        <v/>
+      </c>
+      <c r="F38" s="7" t="str">
+        <f t="shared" ref="F38" si="202">IF(TEXT(F40,"m월")=TEXT(E40,"m월"),"",LOWER(TEXT(F40,"m월")))</f>
+        <v/>
+      </c>
+      <c r="G38" s="7" t="str">
+        <f t="shared" ref="G38" si="203">IF(TEXT(G40,"m월")=TEXT(F40,"m월"),"",LOWER(TEXT(G40,"m월")))</f>
+        <v/>
+      </c>
+      <c r="H38" s="7" t="str">
+        <f t="shared" ref="H38" si="204">IF(TEXT(H40,"m월")=TEXT(G40,"m월"),"",LOWER(TEXT(H40,"m월")))</f>
+        <v/>
+      </c>
+      <c r="I38" s="7" t="str">
+        <f>IF(TEXT(I40,"m월")=TEXT(H40,"m월"),"",LOWER(TEXT(I40,"m월")))</f>
+        <v/>
+      </c>
+      <c r="J38" s="8" t="str">
+        <f>LOWER(TEXT(J40,"m월"))</f>
+        <v>1월</v>
+      </c>
+      <c r="K38" s="8" t="str">
+        <f t="shared" ref="K38" si="205">IF(TEXT(K40,"m월")=TEXT(J40,"m월"),"",LOWER(TEXT(K40,"m월")))</f>
+        <v/>
+      </c>
+      <c r="L38" s="8" t="str">
+        <f t="shared" ref="L38" si="206">IF(TEXT(L40,"m월")=TEXT(K40,"m월"),"",LOWER(TEXT(L40,"m월")))</f>
+        <v/>
+      </c>
+      <c r="M38" s="8" t="str">
+        <f t="shared" ref="M38" si="207">IF(TEXT(M40,"m월")=TEXT(L40,"m월"),"",LOWER(TEXT(M40,"m월")))</f>
+        <v/>
+      </c>
+      <c r="N38" s="8" t="str">
+        <f t="shared" ref="N38" si="208">IF(TEXT(N40,"m월")=TEXT(M40,"m월"),"",LOWER(TEXT(N40,"m월")))</f>
+        <v/>
+      </c>
+      <c r="O38" s="8" t="str">
+        <f t="shared" ref="O38" si="209">IF(TEXT(O40,"m월")=TEXT(N40,"m월"),"",LOWER(TEXT(O40,"m월")))</f>
+        <v/>
+      </c>
+      <c r="P38" s="8" t="str">
+        <f>IF(TEXT(P40,"m월")=TEXT(O40,"m월"),"",LOWER(TEXT(P40,"m월")))</f>
+        <v>2월</v>
+      </c>
+      <c r="Q38" s="7" t="str">
+        <f>LOWER(TEXT(Q40,"m월"))</f>
+        <v>2월</v>
+      </c>
+      <c r="R38" s="7" t="str">
+        <f t="shared" ref="R38" si="210">IF(TEXT(R40,"m월")=TEXT(Q40,"m월"),"",LOWER(TEXT(R40,"m월")))</f>
+        <v/>
+      </c>
+      <c r="S38" s="7" t="str">
+        <f t="shared" ref="S38" si="211">IF(TEXT(S40,"m월")=TEXT(R40,"m월"),"",LOWER(TEXT(S40,"m월")))</f>
+        <v/>
+      </c>
+      <c r="T38" s="7" t="str">
+        <f t="shared" ref="T38" si="212">IF(TEXT(T40,"m월")=TEXT(S40,"m월"),"",LOWER(TEXT(T40,"m월")))</f>
+        <v/>
+      </c>
+      <c r="U38" s="7" t="str">
+        <f t="shared" ref="U38" si="213">IF(TEXT(U40,"m월")=TEXT(T40,"m월"),"",LOWER(TEXT(U40,"m월")))</f>
+        <v/>
+      </c>
+      <c r="V38" s="7" t="str">
+        <f t="shared" ref="V38" si="214">IF(TEXT(V40,"m월")=TEXT(U40,"m월"),"",LOWER(TEXT(V40,"m월")))</f>
+        <v/>
+      </c>
+      <c r="W38" s="7" t="str">
+        <f t="shared" ref="W38" si="215">IF(TEXT(W40,"m월")=TEXT(V40,"m월"),"",LOWER(TEXT(W40,"m월")))</f>
+        <v/>
+      </c>
+      <c r="X38" s="8" t="str">
+        <f>LOWER(TEXT(X40,"m월"))</f>
+        <v>2월</v>
+      </c>
+      <c r="Y38" s="8" t="str">
+        <f t="shared" ref="Y38" si="216">IF(TEXT(Y40,"m월")=TEXT(X40,"m월"),"",LOWER(TEXT(Y40,"m월")))</f>
+        <v/>
+      </c>
+      <c r="Z38" s="8" t="str">
+        <f t="shared" ref="Z38" si="217">IF(TEXT(Z40,"m월")=TEXT(Y40,"m월"),"",LOWER(TEXT(Z40,"m월")))</f>
+        <v/>
+      </c>
+      <c r="AA38" s="8" t="str">
+        <f t="shared" ref="AA38" si="218">IF(TEXT(AA40,"m월")=TEXT(Z40,"m월"),"",LOWER(TEXT(AA40,"m월")))</f>
+        <v/>
+      </c>
+      <c r="AB38" s="8" t="str">
+        <f t="shared" ref="AB38" si="219">IF(TEXT(AB40,"m월")=TEXT(AA40,"m월"),"",LOWER(TEXT(AB40,"m월")))</f>
+        <v/>
+      </c>
+      <c r="AC38" s="8" t="str">
+        <f t="shared" ref="AC38" si="220">IF(TEXT(AC40,"m월")=TEXT(AB40,"m월"),"",LOWER(TEXT(AC40,"m월")))</f>
+        <v/>
+      </c>
+      <c r="AD38" s="8" t="str">
+        <f t="shared" ref="AD38" si="221">IF(TEXT(AD40,"m월")=TEXT(AC40,"m월"),"",LOWER(TEXT(AD40,"m월")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:30" ht="30" customHeight="1">
+      <c r="B39" s="13"/>
+      <c r="C39" s="9" t="str">
+        <f>LOWER(TEXT(C40,"aaa"))</f>
+        <v>월</v>
+      </c>
+      <c r="D39" s="9" t="str">
+        <f t="shared" ref="D39:AD39" si="222">LOWER(TEXT(D40,"aaa"))</f>
+        <v>화</v>
+      </c>
+      <c r="E39" s="9" t="str">
+        <f t="shared" si="222"/>
         <v>수</v>
       </c>
-      <c r="D37" s="9" t="str">
-        <f t="shared" ref="D37:AD37" si="222">LOWER(TEXT(D38,"aaa"))</f>
+      <c r="F39" s="9" t="str">
+        <f t="shared" si="222"/>
         <v>목</v>
       </c>
-      <c r="E37" s="9" t="str">
+      <c r="G39" s="9" t="str">
         <f t="shared" si="222"/>
         <v>금</v>
       </c>
-      <c r="F37" s="9" t="str">
+      <c r="H39" s="9" t="str">
         <f t="shared" si="222"/>
         <v>토</v>
       </c>
-      <c r="G37" s="9" t="str">
+      <c r="I39" s="9" t="str">
         <f t="shared" si="222"/>
         <v>일</v>
       </c>
-      <c r="H37" s="9" t="str">
+      <c r="J39" s="10" t="str">
         <f t="shared" si="222"/>
         <v>월</v>
       </c>
-      <c r="I37" s="9" t="str">
+      <c r="K39" s="10" t="str">
         <f t="shared" si="222"/>
         <v>화</v>
       </c>
-      <c r="J37" s="10" t="str">
+      <c r="L39" s="10" t="str">
         <f t="shared" si="222"/>
         <v>수</v>
       </c>
-      <c r="K37" s="10" t="str">
+      <c r="M39" s="10" t="str">
         <f t="shared" si="222"/>
         <v>목</v>
       </c>
-      <c r="L37" s="10" t="str">
+      <c r="N39" s="10" t="str">
         <f t="shared" si="222"/>
         <v>금</v>
       </c>
-      <c r="M37" s="10" t="str">
+      <c r="O39" s="10" t="str">
         <f t="shared" si="222"/>
         <v>토</v>
       </c>
-      <c r="N37" s="10" t="str">
+      <c r="P39" s="10" t="str">
         <f t="shared" si="222"/>
         <v>일</v>
       </c>
-      <c r="O37" s="10" t="str">
+      <c r="Q39" s="9" t="str">
         <f t="shared" si="222"/>
         <v>월</v>
       </c>
-      <c r="P37" s="10" t="str">
+      <c r="R39" s="9" t="str">
         <f t="shared" si="222"/>
         <v>화</v>
       </c>
-      <c r="Q37" s="9" t="str">
+      <c r="S39" s="9" t="str">
         <f t="shared" si="222"/>
         <v>수</v>
       </c>
-      <c r="R37" s="9" t="str">
+      <c r="T39" s="9" t="str">
         <f t="shared" si="222"/>
         <v>목</v>
       </c>
-      <c r="S37" s="9" t="str">
+      <c r="U39" s="9" t="str">
         <f t="shared" si="222"/>
         <v>금</v>
       </c>
-      <c r="T37" s="9" t="str">
+      <c r="V39" s="9" t="str">
         <f t="shared" si="222"/>
         <v>토</v>
       </c>
-      <c r="U37" s="9" t="str">
+      <c r="W39" s="9" t="str">
         <f t="shared" si="222"/>
         <v>일</v>
       </c>
-      <c r="V37" s="9" t="str">
+      <c r="X39" s="10" t="str">
         <f t="shared" si="222"/>
         <v>월</v>
       </c>
-      <c r="W37" s="9" t="str">
+      <c r="Y39" s="10" t="str">
         <f t="shared" si="222"/>
         <v>화</v>
       </c>
-      <c r="X37" s="10" t="str">
+      <c r="Z39" s="10" t="str">
         <f t="shared" si="222"/>
         <v>수</v>
       </c>
-      <c r="Y37" s="10" t="str">
+      <c r="AA39" s="10" t="str">
         <f t="shared" si="222"/>
         <v>목</v>
       </c>
-      <c r="Z37" s="10" t="str">
+      <c r="AB39" s="10" t="str">
         <f t="shared" si="222"/>
         <v>금</v>
       </c>
-      <c r="AA37" s="10" t="str">
+      <c r="AC39" s="10" t="str">
         <f t="shared" si="222"/>
         <v>토</v>
       </c>
-      <c r="AB37" s="10" t="str">
+      <c r="AD39" s="10" t="str">
         <f t="shared" si="222"/>
         <v>일</v>
       </c>
-      <c r="AC37" s="10" t="str">
-        <f t="shared" si="222"/>
-        <v>월</v>
-      </c>
-      <c r="AD37" s="10" t="str">
-        <f t="shared" si="222"/>
-        <v>화</v>
-      </c>
-    </row>
-    <row r="38" spans="2:30" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="13"/>
-      <c r="C38" s="11">
-        <f>AD32+1</f>
-        <v>45245</v>
-      </c>
-      <c r="D38" s="11">
-        <f>C38+1</f>
-        <v>45246</v>
-      </c>
-      <c r="E38" s="11">
-        <f t="shared" ref="E38" si="223">D38+1</f>
-        <v>45247</v>
-      </c>
-      <c r="F38" s="11">
-        <f t="shared" ref="F38" si="224">E38+1</f>
-        <v>45248</v>
-      </c>
-      <c r="G38" s="11">
-        <f t="shared" ref="G38" si="225">F38+1</f>
-        <v>45249</v>
-      </c>
-      <c r="H38" s="11">
-        <f t="shared" ref="H38" si="226">G38+1</f>
-        <v>45250</v>
-      </c>
-      <c r="I38" s="11">
-        <f>H38+1</f>
-        <v>45251</v>
-      </c>
-      <c r="J38" s="12">
-        <f t="shared" ref="J38" si="227">I38+1</f>
-        <v>45252</v>
-      </c>
-      <c r="K38" s="12">
-        <f t="shared" ref="K38" si="228">J38+1</f>
-        <v>45253</v>
-      </c>
-      <c r="L38" s="12">
-        <f t="shared" ref="L38" si="229">K38+1</f>
-        <v>45254</v>
-      </c>
-      <c r="M38" s="12">
-        <f t="shared" ref="M38" si="230">L38+1</f>
-        <v>45255</v>
-      </c>
-      <c r="N38" s="12">
-        <f t="shared" ref="N38" si="231">M38+1</f>
-        <v>45256</v>
-      </c>
-      <c r="O38" s="12">
-        <f t="shared" ref="O38" si="232">N38+1</f>
-        <v>45257</v>
-      </c>
-      <c r="P38" s="12">
-        <f>O38+1</f>
-        <v>45258</v>
-      </c>
-      <c r="Q38" s="11">
-        <f t="shared" ref="Q38" si="233">P38+1</f>
-        <v>45259</v>
-      </c>
-      <c r="R38" s="11">
-        <f t="shared" ref="R38" si="234">Q38+1</f>
-        <v>45260</v>
-      </c>
-      <c r="S38" s="11">
-        <f t="shared" ref="S38" si="235">R38+1</f>
-        <v>45261</v>
-      </c>
-      <c r="T38" s="11">
-        <f t="shared" ref="T38" si="236">S38+1</f>
-        <v>45262</v>
-      </c>
-      <c r="U38" s="11">
-        <f t="shared" ref="U38" si="237">T38+1</f>
-        <v>45263</v>
-      </c>
-      <c r="V38" s="11">
-        <f t="shared" ref="V38" si="238">U38+1</f>
-        <v>45264</v>
-      </c>
-      <c r="W38" s="11">
-        <f t="shared" ref="W38" si="239">V38+1</f>
-        <v>45265</v>
-      </c>
-      <c r="X38" s="12">
-        <f t="shared" ref="X38" si="240">W38+1</f>
-        <v>45266</v>
-      </c>
-      <c r="Y38" s="12">
-        <f t="shared" ref="Y38" si="241">X38+1</f>
-        <v>45267</v>
-      </c>
-      <c r="Z38" s="12">
-        <f t="shared" ref="Z38" si="242">Y38+1</f>
-        <v>45268</v>
-      </c>
-      <c r="AA38" s="12">
-        <f t="shared" ref="AA38" si="243">Z38+1</f>
-        <v>45269</v>
-      </c>
-      <c r="AB38" s="12">
-        <f t="shared" ref="AB38" si="244">AA38+1</f>
-        <v>45270</v>
-      </c>
-      <c r="AC38" s="12">
-        <f t="shared" ref="AC38" si="245">AB38+1</f>
-        <v>45271</v>
-      </c>
-      <c r="AD38" s="12">
-        <f t="shared" ref="AD38" si="246">AC38+1</f>
-        <v>45272</v>
-      </c>
-    </row>
-    <row r="39" spans="2:30" ht="30" customHeight="1">
-      <c r="B39" s="13" t="str">
-        <f>TEXT("내용입력","aaa")</f>
-        <v>내용입력</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-      <c r="V39" s="31"/>
-      <c r="W39" s="31"/>
-      <c r="X39" s="31"/>
-      <c r="Y39" s="31"/>
-      <c r="Z39" s="31"/>
-      <c r="AA39" s="31"/>
-      <c r="AB39" s="31"/>
-      <c r="AC39" s="31"/>
-      <c r="AD39" s="31"/>
-    </row>
-    <row r="40" spans="2:30" ht="30" customHeight="1">
-      <c r="B40" s="13" t="str">
-        <f>TEXT("내용입력","aaa")</f>
-        <v>내용입력</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="T40" s="25"/>
-      <c r="U40" s="25"/>
-      <c r="V40" s="25"/>
-      <c r="W40" s="25"/>
-      <c r="X40" s="25"/>
-      <c r="Y40" s="25"/>
-      <c r="Z40" s="14"/>
-      <c r="AA40" s="15"/>
-      <c r="AB40" s="14"/>
-      <c r="AC40" s="15"/>
-      <c r="AD40" s="14"/>
+    </row>
+    <row r="40" spans="2:30" ht="30" customHeight="1" thickBot="1">
+      <c r="B40" s="13"/>
+      <c r="C40" s="11">
+        <f>AD34+1</f>
+        <v>46041</v>
+      </c>
+      <c r="D40" s="11">
+        <f>C40+1</f>
+        <v>46042</v>
+      </c>
+      <c r="E40" s="11">
+        <f t="shared" ref="E40" si="223">D40+1</f>
+        <v>46043</v>
+      </c>
+      <c r="F40" s="11">
+        <f t="shared" ref="F40" si="224">E40+1</f>
+        <v>46044</v>
+      </c>
+      <c r="G40" s="11">
+        <f t="shared" ref="G40" si="225">F40+1</f>
+        <v>46045</v>
+      </c>
+      <c r="H40" s="11">
+        <f t="shared" ref="H40" si="226">G40+1</f>
+        <v>46046</v>
+      </c>
+      <c r="I40" s="11">
+        <f>H40+1</f>
+        <v>46047</v>
+      </c>
+      <c r="J40" s="12">
+        <f t="shared" ref="J40" si="227">I40+1</f>
+        <v>46048</v>
+      </c>
+      <c r="K40" s="12">
+        <f t="shared" ref="K40" si="228">J40+1</f>
+        <v>46049</v>
+      </c>
+      <c r="L40" s="12">
+        <f t="shared" ref="L40" si="229">K40+1</f>
+        <v>46050</v>
+      </c>
+      <c r="M40" s="12">
+        <f t="shared" ref="M40" si="230">L40+1</f>
+        <v>46051</v>
+      </c>
+      <c r="N40" s="12">
+        <f t="shared" ref="N40" si="231">M40+1</f>
+        <v>46052</v>
+      </c>
+      <c r="O40" s="12">
+        <f t="shared" ref="O40" si="232">N40+1</f>
+        <v>46053</v>
+      </c>
+      <c r="P40" s="12">
+        <f>O40+1</f>
+        <v>46054</v>
+      </c>
+      <c r="Q40" s="11">
+        <f t="shared" ref="Q40" si="233">P40+1</f>
+        <v>46055</v>
+      </c>
+      <c r="R40" s="11">
+        <f t="shared" ref="R40" si="234">Q40+1</f>
+        <v>46056</v>
+      </c>
+      <c r="S40" s="11">
+        <f t="shared" ref="S40" si="235">R40+1</f>
+        <v>46057</v>
+      </c>
+      <c r="T40" s="11">
+        <f t="shared" ref="T40" si="236">S40+1</f>
+        <v>46058</v>
+      </c>
+      <c r="U40" s="11">
+        <f t="shared" ref="U40" si="237">T40+1</f>
+        <v>46059</v>
+      </c>
+      <c r="V40" s="11">
+        <f t="shared" ref="V40" si="238">U40+1</f>
+        <v>46060</v>
+      </c>
+      <c r="W40" s="11">
+        <f t="shared" ref="W40" si="239">V40+1</f>
+        <v>46061</v>
+      </c>
+      <c r="X40" s="12">
+        <f t="shared" ref="X40" si="240">W40+1</f>
+        <v>46062</v>
+      </c>
+      <c r="Y40" s="12">
+        <f t="shared" ref="Y40" si="241">X40+1</f>
+        <v>46063</v>
+      </c>
+      <c r="Z40" s="12">
+        <f t="shared" ref="Z40" si="242">Y40+1</f>
+        <v>46064</v>
+      </c>
+      <c r="AA40" s="12">
+        <f t="shared" ref="AA40" si="243">Z40+1</f>
+        <v>46065</v>
+      </c>
+      <c r="AB40" s="12">
+        <f t="shared" ref="AB40" si="244">AA40+1</f>
+        <v>46066</v>
+      </c>
+      <c r="AC40" s="12">
+        <f t="shared" ref="AC40" si="245">AB40+1</f>
+        <v>46067</v>
+      </c>
+      <c r="AD40" s="12">
+        <f t="shared" ref="AD40" si="246">AC40+1</f>
+        <v>46068</v>
+      </c>
     </row>
     <row r="41" spans="2:30" ht="30" customHeight="1">
-      <c r="B41" s="13" t="str">
-        <f>TEXT("내용입력","aaa")</f>
-        <v>내용입력</v>
-      </c>
+      <c r="B41" s="13"/>
       <c r="C41" s="15"/>
       <c r="D41" s="14"/>
       <c r="E41" s="15"/>
@@ -4188,425 +4086,418 @@
       <c r="AD41" s="14"/>
     </row>
     <row r="42" spans="2:30" ht="30" customHeight="1">
-      <c r="B42" s="13"/>
-      <c r="C42" s="6" t="str">
-        <f>LOWER(TEXT(C44, "m월"))</f>
-        <v>12월</v>
-      </c>
-      <c r="D42" s="7" t="str">
-        <f t="shared" ref="D42" si="247">IF(TEXT(D44,"m월")=TEXT(C44,"m월"),"",LOWER(TEXT(D44,"m월")))</f>
-        <v/>
-      </c>
-      <c r="E42" s="7" t="str">
-        <f t="shared" ref="E42" si="248">IF(TEXT(E44,"m월")=TEXT(D44,"m월"),"",LOWER(TEXT(E44,"m월")))</f>
-        <v/>
-      </c>
-      <c r="F42" s="7" t="str">
-        <f t="shared" ref="F42" si="249">IF(TEXT(F44,"m월")=TEXT(E44,"m월"),"",LOWER(TEXT(F44,"m월")))</f>
-        <v/>
-      </c>
-      <c r="G42" s="7" t="str">
-        <f t="shared" ref="G42" si="250">IF(TEXT(G44,"m월")=TEXT(F44,"m월"),"",LOWER(TEXT(G44,"m월")))</f>
-        <v/>
-      </c>
-      <c r="H42" s="7" t="str">
-        <f t="shared" ref="H42" si="251">IF(TEXT(H44,"m월")=TEXT(G44,"m월"),"",LOWER(TEXT(H44,"m월")))</f>
-        <v/>
-      </c>
-      <c r="I42" s="7" t="str">
-        <f>IF(TEXT(I44,"m월")=TEXT(H44,"m월"),"",LOWER(TEXT(I44,"m월")))</f>
-        <v/>
-      </c>
-      <c r="J42" s="8" t="str">
-        <f>LOWER(TEXT(J44,"m월"))</f>
-        <v>12월</v>
-      </c>
-      <c r="K42" s="8" t="str">
-        <f t="shared" ref="K42" si="252">IF(TEXT(K44,"m월")=TEXT(J44,"m월"),"",LOWER(TEXT(K44,"m월")))</f>
-        <v/>
-      </c>
-      <c r="L42" s="8" t="str">
-        <f t="shared" ref="L42" si="253">IF(TEXT(L44,"m월")=TEXT(K44,"m월"),"",LOWER(TEXT(L44,"m월")))</f>
-        <v/>
-      </c>
-      <c r="M42" s="8" t="str">
-        <f t="shared" ref="M42" si="254">IF(TEXT(M44,"m월")=TEXT(L44,"m월"),"",LOWER(TEXT(M44,"m월")))</f>
-        <v/>
-      </c>
-      <c r="N42" s="8" t="str">
-        <f t="shared" ref="N42" si="255">IF(TEXT(N44,"m월")=TEXT(M44,"m월"),"",LOWER(TEXT(N44,"m월")))</f>
-        <v/>
-      </c>
-      <c r="O42" s="8" t="str">
-        <f t="shared" ref="O42" si="256">IF(TEXT(O44,"m월")=TEXT(N44,"m월"),"",LOWER(TEXT(O44,"m월")))</f>
-        <v/>
-      </c>
-      <c r="P42" s="8" t="str">
-        <f>IF(TEXT(P44,"m월")=TEXT(O44,"m월"),"",LOWER(TEXT(P44,"m월")))</f>
-        <v/>
-      </c>
-      <c r="Q42" s="7" t="str">
-        <f>LOWER(TEXT(Q44,"m월"))</f>
-        <v>12월</v>
-      </c>
-      <c r="R42" s="7" t="str">
-        <f t="shared" ref="R42" si="257">IF(TEXT(R44,"m월")=TEXT(Q44,"m월"),"",LOWER(TEXT(R44,"m월")))</f>
-        <v/>
-      </c>
-      <c r="S42" s="7" t="str">
-        <f t="shared" ref="S42" si="258">IF(TEXT(S44,"m월")=TEXT(R44,"m월"),"",LOWER(TEXT(S44,"m월")))</f>
-        <v/>
-      </c>
-      <c r="T42" s="7" t="str">
-        <f t="shared" ref="T42" si="259">IF(TEXT(T44,"m월")=TEXT(S44,"m월"),"",LOWER(TEXT(T44,"m월")))</f>
-        <v/>
-      </c>
-      <c r="U42" s="7" t="str">
-        <f t="shared" ref="U42" si="260">IF(TEXT(U44,"m월")=TEXT(T44,"m월"),"",LOWER(TEXT(U44,"m월")))</f>
-        <v/>
-      </c>
-      <c r="V42" s="7" t="str">
-        <f t="shared" ref="V42" si="261">IF(TEXT(V44,"m월")=TEXT(U44,"m월"),"",LOWER(TEXT(V44,"m월")))</f>
-        <v>1월</v>
-      </c>
-      <c r="W42" s="7" t="str">
-        <f t="shared" ref="W42" si="262">IF(TEXT(W44,"m월")=TEXT(V44,"m월"),"",LOWER(TEXT(W44,"m월")))</f>
-        <v/>
-      </c>
-      <c r="X42" s="8" t="str">
-        <f>LOWER(TEXT(X44,"m월"))</f>
-        <v>1월</v>
-      </c>
-      <c r="Y42" s="8" t="str">
-        <f t="shared" ref="Y42" si="263">IF(TEXT(Y44,"m월")=TEXT(X44,"m월"),"",LOWER(TEXT(Y44,"m월")))</f>
-        <v/>
-      </c>
-      <c r="Z42" s="8" t="str">
-        <f t="shared" ref="Z42" si="264">IF(TEXT(Z44,"m월")=TEXT(Y44,"m월"),"",LOWER(TEXT(Z44,"m월")))</f>
-        <v/>
-      </c>
-      <c r="AA42" s="8" t="str">
-        <f t="shared" ref="AA42" si="265">IF(TEXT(AA44,"m월")=TEXT(Z44,"m월"),"",LOWER(TEXT(AA44,"m월")))</f>
-        <v/>
-      </c>
-      <c r="AB42" s="8" t="str">
-        <f t="shared" ref="AB42" si="266">IF(TEXT(AB44,"m월")=TEXT(AA44,"m월"),"",LOWER(TEXT(AB44,"m월")))</f>
-        <v/>
-      </c>
-      <c r="AC42" s="8" t="str">
-        <f t="shared" ref="AC42" si="267">IF(TEXT(AC44,"m월")=TEXT(AB44,"m월"),"",LOWER(TEXT(AC44,"m월")))</f>
-        <v/>
-      </c>
-      <c r="AD42" s="8" t="str">
-        <f t="shared" ref="AD42" si="268">IF(TEXT(AD44,"m월")=TEXT(AC44,"m월"),"",LOWER(TEXT(AD44,"m월")))</f>
-        <v/>
-      </c>
+      <c r="B42" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="14"/>
+      <c r="Y42" s="15"/>
+      <c r="Z42" s="14"/>
+      <c r="AA42" s="15"/>
+      <c r="AB42" s="14"/>
+      <c r="AC42" s="15"/>
+      <c r="AD42" s="14"/>
     </row>
     <row r="43" spans="2:30" ht="30" customHeight="1">
       <c r="B43" s="13"/>
-      <c r="C43" s="9" t="str">
-        <f>LOWER(TEXT(C44,"aaa"))</f>
+      <c r="C43" s="15"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="14"/>
+      <c r="Y43" s="15"/>
+      <c r="Z43" s="14"/>
+      <c r="AA43" s="15"/>
+      <c r="AB43" s="14"/>
+      <c r="AC43" s="15"/>
+      <c r="AD43" s="14"/>
+    </row>
+    <row r="44" spans="2:30" ht="30" customHeight="1">
+      <c r="B44" s="13"/>
+      <c r="C44" s="6" t="str">
+        <f>LOWER(TEXT(C46, "m월"))</f>
+        <v>2월</v>
+      </c>
+      <c r="D44" s="7" t="str">
+        <f t="shared" ref="D44" si="247">IF(TEXT(D46,"m월")=TEXT(C46,"m월"),"",LOWER(TEXT(D46,"m월")))</f>
+        <v/>
+      </c>
+      <c r="E44" s="7" t="str">
+        <f t="shared" ref="E44" si="248">IF(TEXT(E46,"m월")=TEXT(D46,"m월"),"",LOWER(TEXT(E46,"m월")))</f>
+        <v/>
+      </c>
+      <c r="F44" s="7" t="str">
+        <f t="shared" ref="F44" si="249">IF(TEXT(F46,"m월")=TEXT(E46,"m월"),"",LOWER(TEXT(F46,"m월")))</f>
+        <v/>
+      </c>
+      <c r="G44" s="7" t="str">
+        <f t="shared" ref="G44" si="250">IF(TEXT(G46,"m월")=TEXT(F46,"m월"),"",LOWER(TEXT(G46,"m월")))</f>
+        <v/>
+      </c>
+      <c r="H44" s="7" t="str">
+        <f t="shared" ref="H44" si="251">IF(TEXT(H46,"m월")=TEXT(G46,"m월"),"",LOWER(TEXT(H46,"m월")))</f>
+        <v/>
+      </c>
+      <c r="I44" s="7" t="str">
+        <f>IF(TEXT(I46,"m월")=TEXT(H46,"m월"),"",LOWER(TEXT(I46,"m월")))</f>
+        <v/>
+      </c>
+      <c r="J44" s="8" t="str">
+        <f>LOWER(TEXT(J46,"m월"))</f>
+        <v>2월</v>
+      </c>
+      <c r="K44" s="8" t="str">
+        <f t="shared" ref="K44" si="252">IF(TEXT(K46,"m월")=TEXT(J46,"m월"),"",LOWER(TEXT(K46,"m월")))</f>
+        <v/>
+      </c>
+      <c r="L44" s="8" t="str">
+        <f t="shared" ref="L44" si="253">IF(TEXT(L46,"m월")=TEXT(K46,"m월"),"",LOWER(TEXT(L46,"m월")))</f>
+        <v/>
+      </c>
+      <c r="M44" s="8" t="str">
+        <f t="shared" ref="M44" si="254">IF(TEXT(M46,"m월")=TEXT(L46,"m월"),"",LOWER(TEXT(M46,"m월")))</f>
+        <v/>
+      </c>
+      <c r="N44" s="8" t="str">
+        <f t="shared" ref="N44" si="255">IF(TEXT(N46,"m월")=TEXT(M46,"m월"),"",LOWER(TEXT(N46,"m월")))</f>
+        <v/>
+      </c>
+      <c r="O44" s="8" t="str">
+        <f t="shared" ref="O44" si="256">IF(TEXT(O46,"m월")=TEXT(N46,"m월"),"",LOWER(TEXT(O46,"m월")))</f>
+        <v/>
+      </c>
+      <c r="P44" s="8" t="str">
+        <f>IF(TEXT(P46,"m월")=TEXT(O46,"m월"),"",LOWER(TEXT(P46,"m월")))</f>
+        <v>3월</v>
+      </c>
+      <c r="Q44" s="7" t="str">
+        <f>LOWER(TEXT(Q46,"m월"))</f>
+        <v>3월</v>
+      </c>
+      <c r="R44" s="7" t="str">
+        <f t="shared" ref="R44" si="257">IF(TEXT(R46,"m월")=TEXT(Q46,"m월"),"",LOWER(TEXT(R46,"m월")))</f>
+        <v/>
+      </c>
+      <c r="S44" s="7" t="str">
+        <f t="shared" ref="S44" si="258">IF(TEXT(S46,"m월")=TEXT(R46,"m월"),"",LOWER(TEXT(S46,"m월")))</f>
+        <v/>
+      </c>
+      <c r="T44" s="7" t="str">
+        <f t="shared" ref="T44" si="259">IF(TEXT(T46,"m월")=TEXT(S46,"m월"),"",LOWER(TEXT(T46,"m월")))</f>
+        <v/>
+      </c>
+      <c r="U44" s="7" t="str">
+        <f t="shared" ref="U44" si="260">IF(TEXT(U46,"m월")=TEXT(T46,"m월"),"",LOWER(TEXT(U46,"m월")))</f>
+        <v/>
+      </c>
+      <c r="V44" s="7" t="str">
+        <f t="shared" ref="V44" si="261">IF(TEXT(V46,"m월")=TEXT(U46,"m월"),"",LOWER(TEXT(V46,"m월")))</f>
+        <v/>
+      </c>
+      <c r="W44" s="7" t="str">
+        <f t="shared" ref="W44" si="262">IF(TEXT(W46,"m월")=TEXT(V46,"m월"),"",LOWER(TEXT(W46,"m월")))</f>
+        <v/>
+      </c>
+      <c r="X44" s="8" t="str">
+        <f>LOWER(TEXT(X46,"m월"))</f>
+        <v>3월</v>
+      </c>
+      <c r="Y44" s="8" t="str">
+        <f t="shared" ref="Y44" si="263">IF(TEXT(Y46,"m월")=TEXT(X46,"m월"),"",LOWER(TEXT(Y46,"m월")))</f>
+        <v/>
+      </c>
+      <c r="Z44" s="8" t="str">
+        <f t="shared" ref="Z44" si="264">IF(TEXT(Z46,"m월")=TEXT(Y46,"m월"),"",LOWER(TEXT(Z46,"m월")))</f>
+        <v/>
+      </c>
+      <c r="AA44" s="8" t="str">
+        <f t="shared" ref="AA44" si="265">IF(TEXT(AA46,"m월")=TEXT(Z46,"m월"),"",LOWER(TEXT(AA46,"m월")))</f>
+        <v/>
+      </c>
+      <c r="AB44" s="8" t="str">
+        <f t="shared" ref="AB44" si="266">IF(TEXT(AB46,"m월")=TEXT(AA46,"m월"),"",LOWER(TEXT(AB46,"m월")))</f>
+        <v/>
+      </c>
+      <c r="AC44" s="8" t="str">
+        <f t="shared" ref="AC44" si="267">IF(TEXT(AC46,"m월")=TEXT(AB46,"m월"),"",LOWER(TEXT(AC46,"m월")))</f>
+        <v/>
+      </c>
+      <c r="AD44" s="8" t="str">
+        <f t="shared" ref="AD44" si="268">IF(TEXT(AD46,"m월")=TEXT(AC46,"m월"),"",LOWER(TEXT(AD46,"m월")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:30" ht="30" customHeight="1">
+      <c r="B45" s="13"/>
+      <c r="C45" s="9" t="str">
+        <f>LOWER(TEXT(C46,"aaa"))</f>
+        <v>월</v>
+      </c>
+      <c r="D45" s="9" t="str">
+        <f t="shared" ref="D43:AD45" si="269">LOWER(TEXT(D46,"aaa"))</f>
+        <v>화</v>
+      </c>
+      <c r="E45" s="9" t="str">
+        <f t="shared" si="269"/>
         <v>수</v>
       </c>
-      <c r="D43" s="9" t="str">
-        <f t="shared" ref="D43:AD43" si="269">LOWER(TEXT(D44,"aaa"))</f>
+      <c r="F45" s="9" t="str">
+        <f t="shared" si="269"/>
         <v>목</v>
       </c>
-      <c r="E43" s="9" t="str">
+      <c r="G45" s="9" t="str">
         <f t="shared" si="269"/>
         <v>금</v>
       </c>
-      <c r="F43" s="9" t="str">
+      <c r="H45" s="9" t="str">
         <f t="shared" si="269"/>
         <v>토</v>
       </c>
-      <c r="G43" s="9" t="str">
+      <c r="I45" s="9" t="str">
         <f t="shared" si="269"/>
         <v>일</v>
       </c>
-      <c r="H43" s="9" t="str">
+      <c r="J45" s="10" t="str">
         <f t="shared" si="269"/>
         <v>월</v>
       </c>
-      <c r="I43" s="9" t="str">
+      <c r="K45" s="10" t="str">
         <f t="shared" si="269"/>
         <v>화</v>
       </c>
-      <c r="J43" s="10" t="str">
+      <c r="L45" s="10" t="str">
         <f t="shared" si="269"/>
         <v>수</v>
       </c>
-      <c r="K43" s="10" t="str">
+      <c r="M45" s="10" t="str">
         <f t="shared" si="269"/>
         <v>목</v>
       </c>
-      <c r="L43" s="10" t="str">
+      <c r="N45" s="10" t="str">
         <f t="shared" si="269"/>
         <v>금</v>
       </c>
-      <c r="M43" s="10" t="str">
+      <c r="O45" s="10" t="str">
         <f t="shared" si="269"/>
         <v>토</v>
       </c>
-      <c r="N43" s="10" t="str">
+      <c r="P45" s="10" t="str">
         <f t="shared" si="269"/>
         <v>일</v>
       </c>
-      <c r="O43" s="10" t="str">
+      <c r="Q45" s="9" t="str">
         <f t="shared" si="269"/>
         <v>월</v>
       </c>
-      <c r="P43" s="10" t="str">
+      <c r="R45" s="9" t="str">
         <f t="shared" si="269"/>
         <v>화</v>
       </c>
-      <c r="Q43" s="9" t="str">
+      <c r="S45" s="9" t="str">
         <f t="shared" si="269"/>
         <v>수</v>
       </c>
-      <c r="R43" s="9" t="str">
+      <c r="T45" s="9" t="str">
         <f t="shared" si="269"/>
         <v>목</v>
       </c>
-      <c r="S43" s="9" t="str">
+      <c r="U45" s="9" t="str">
         <f t="shared" si="269"/>
         <v>금</v>
       </c>
-      <c r="T43" s="9" t="str">
+      <c r="V45" s="9" t="str">
         <f t="shared" si="269"/>
         <v>토</v>
       </c>
-      <c r="U43" s="9" t="str">
+      <c r="W45" s="9" t="str">
         <f t="shared" si="269"/>
         <v>일</v>
       </c>
-      <c r="V43" s="9" t="str">
+      <c r="X45" s="10" t="str">
         <f t="shared" si="269"/>
         <v>월</v>
       </c>
-      <c r="W43" s="9" t="str">
+      <c r="Y45" s="10" t="str">
         <f t="shared" si="269"/>
         <v>화</v>
       </c>
-      <c r="X43" s="10" t="str">
+      <c r="Z45" s="10" t="str">
         <f t="shared" si="269"/>
         <v>수</v>
       </c>
-      <c r="Y43" s="10" t="str">
+      <c r="AA45" s="10" t="str">
         <f t="shared" si="269"/>
         <v>목</v>
       </c>
-      <c r="Z43" s="10" t="str">
+      <c r="AB45" s="10" t="str">
         <f t="shared" si="269"/>
         <v>금</v>
       </c>
-      <c r="AA43" s="10" t="str">
+      <c r="AC45" s="10" t="str">
         <f t="shared" si="269"/>
         <v>토</v>
       </c>
-      <c r="AB43" s="10" t="str">
+      <c r="AD45" s="10" t="str">
         <f t="shared" si="269"/>
         <v>일</v>
       </c>
-      <c r="AC43" s="10" t="str">
-        <f t="shared" si="269"/>
-        <v>월</v>
-      </c>
-      <c r="AD43" s="10" t="str">
-        <f t="shared" si="269"/>
-        <v>화</v>
-      </c>
-    </row>
-    <row r="44" spans="2:30" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="13"/>
-      <c r="C44" s="11">
-        <f>AD38+1</f>
-        <v>45273</v>
-      </c>
-      <c r="D44" s="11">
-        <f>C44+1</f>
-        <v>45274</v>
-      </c>
-      <c r="E44" s="11">
-        <f t="shared" ref="E44" si="270">D44+1</f>
-        <v>45275</v>
-      </c>
-      <c r="F44" s="11">
-        <f t="shared" ref="F44" si="271">E44+1</f>
-        <v>45276</v>
-      </c>
-      <c r="G44" s="11">
-        <f t="shared" ref="G44" si="272">F44+1</f>
-        <v>45277</v>
-      </c>
-      <c r="H44" s="11">
-        <f t="shared" ref="H44" si="273">G44+1</f>
-        <v>45278</v>
-      </c>
-      <c r="I44" s="11">
-        <f>H44+1</f>
-        <v>45279</v>
-      </c>
-      <c r="J44" s="12">
-        <f t="shared" ref="J44" si="274">I44+1</f>
-        <v>45280</v>
-      </c>
-      <c r="K44" s="12">
-        <f t="shared" ref="K44" si="275">J44+1</f>
-        <v>45281</v>
-      </c>
-      <c r="L44" s="12">
-        <f t="shared" ref="L44" si="276">K44+1</f>
-        <v>45282</v>
-      </c>
-      <c r="M44" s="12">
-        <f t="shared" ref="M44" si="277">L44+1</f>
-        <v>45283</v>
-      </c>
-      <c r="N44" s="12">
-        <f t="shared" ref="N44" si="278">M44+1</f>
-        <v>45284</v>
-      </c>
-      <c r="O44" s="12">
-        <f t="shared" ref="O44" si="279">N44+1</f>
-        <v>45285</v>
-      </c>
-      <c r="P44" s="12">
-        <f>O44+1</f>
-        <v>45286</v>
-      </c>
-      <c r="Q44" s="11">
-        <f t="shared" ref="Q44" si="280">P44+1</f>
-        <v>45287</v>
-      </c>
-      <c r="R44" s="11">
-        <f t="shared" ref="R44" si="281">Q44+1</f>
-        <v>45288</v>
-      </c>
-      <c r="S44" s="11">
-        <f t="shared" ref="S44" si="282">R44+1</f>
-        <v>45289</v>
-      </c>
-      <c r="T44" s="11">
-        <f t="shared" ref="T44" si="283">S44+1</f>
-        <v>45290</v>
-      </c>
-      <c r="U44" s="11">
-        <f t="shared" ref="U44" si="284">T44+1</f>
-        <v>45291</v>
-      </c>
-      <c r="V44" s="11">
-        <f t="shared" ref="V44" si="285">U44+1</f>
-        <v>45292</v>
-      </c>
-      <c r="W44" s="11">
-        <f t="shared" ref="W44" si="286">V44+1</f>
-        <v>45293</v>
-      </c>
-      <c r="X44" s="12">
-        <f t="shared" ref="X44" si="287">W44+1</f>
-        <v>45294</v>
-      </c>
-      <c r="Y44" s="12">
-        <f t="shared" ref="Y44" si="288">X44+1</f>
-        <v>45295</v>
-      </c>
-      <c r="Z44" s="12">
-        <f t="shared" ref="Z44" si="289">Y44+1</f>
-        <v>45296</v>
-      </c>
-      <c r="AA44" s="12">
-        <f t="shared" ref="AA44" si="290">Z44+1</f>
-        <v>45297</v>
-      </c>
-      <c r="AB44" s="12">
-        <f t="shared" ref="AB44" si="291">AA44+1</f>
-        <v>45298</v>
-      </c>
-      <c r="AC44" s="12">
-        <f t="shared" ref="AC44" si="292">AB44+1</f>
-        <v>45299</v>
-      </c>
-      <c r="AD44" s="12">
-        <f t="shared" ref="AD44" si="293">AC44+1</f>
-        <v>45300</v>
-      </c>
-    </row>
-    <row r="45" spans="2:30" ht="30" customHeight="1">
-      <c r="B45" s="13" t="str">
-        <f>TEXT("내용입력","aaa")</f>
-        <v>내용입력</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="15"/>
-      <c r="T45" s="14"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="14"/>
-      <c r="W45" s="15"/>
-      <c r="X45" s="14"/>
-      <c r="Y45" s="15"/>
-      <c r="Z45" s="14"/>
-      <c r="AA45" s="15"/>
-      <c r="AB45" s="14"/>
-      <c r="AC45" s="15"/>
-      <c r="AD45" s="14"/>
-    </row>
-    <row r="46" spans="2:30" ht="30" customHeight="1">
-      <c r="B46" s="13" t="str">
-        <f>TEXT("내용입력","aaa")</f>
-        <v>내용입력</v>
-      </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="15"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="15"/>
-      <c r="V46" s="14"/>
-      <c r="W46" s="15"/>
-      <c r="X46" s="14"/>
-      <c r="Y46" s="15"/>
-      <c r="Z46" s="14"/>
-      <c r="AA46" s="15"/>
-      <c r="AB46" s="14"/>
-      <c r="AC46" s="15"/>
-      <c r="AD46" s="14"/>
+    </row>
+    <row r="46" spans="2:30" ht="30" customHeight="1" thickBot="1">
+      <c r="B46" s="13"/>
+      <c r="C46" s="11">
+        <f>AD40+1</f>
+        <v>46069</v>
+      </c>
+      <c r="D46" s="11">
+        <f>C46+1</f>
+        <v>46070</v>
+      </c>
+      <c r="E46" s="11">
+        <f t="shared" ref="E46" si="270">D46+1</f>
+        <v>46071</v>
+      </c>
+      <c r="F46" s="11">
+        <f t="shared" ref="F46" si="271">E46+1</f>
+        <v>46072</v>
+      </c>
+      <c r="G46" s="11">
+        <f t="shared" ref="G46" si="272">F46+1</f>
+        <v>46073</v>
+      </c>
+      <c r="H46" s="11">
+        <f t="shared" ref="H46" si="273">G46+1</f>
+        <v>46074</v>
+      </c>
+      <c r="I46" s="11">
+        <f>H46+1</f>
+        <v>46075</v>
+      </c>
+      <c r="J46" s="12">
+        <f t="shared" ref="J46" si="274">I46+1</f>
+        <v>46076</v>
+      </c>
+      <c r="K46" s="12">
+        <f t="shared" ref="K46" si="275">J46+1</f>
+        <v>46077</v>
+      </c>
+      <c r="L46" s="12">
+        <f t="shared" ref="L46" si="276">K46+1</f>
+        <v>46078</v>
+      </c>
+      <c r="M46" s="12">
+        <f t="shared" ref="M46" si="277">L46+1</f>
+        <v>46079</v>
+      </c>
+      <c r="N46" s="12">
+        <f t="shared" ref="N46" si="278">M46+1</f>
+        <v>46080</v>
+      </c>
+      <c r="O46" s="12">
+        <f t="shared" ref="O46" si="279">N46+1</f>
+        <v>46081</v>
+      </c>
+      <c r="P46" s="12">
+        <f>O46+1</f>
+        <v>46082</v>
+      </c>
+      <c r="Q46" s="11">
+        <f t="shared" ref="Q46" si="280">P46+1</f>
+        <v>46083</v>
+      </c>
+      <c r="R46" s="11">
+        <f t="shared" ref="R46" si="281">Q46+1</f>
+        <v>46084</v>
+      </c>
+      <c r="S46" s="11">
+        <f t="shared" ref="S46" si="282">R46+1</f>
+        <v>46085</v>
+      </c>
+      <c r="T46" s="11">
+        <f t="shared" ref="T46" si="283">S46+1</f>
+        <v>46086</v>
+      </c>
+      <c r="U46" s="11">
+        <f t="shared" ref="U46" si="284">T46+1</f>
+        <v>46087</v>
+      </c>
+      <c r="V46" s="11">
+        <f t="shared" ref="V46" si="285">U46+1</f>
+        <v>46088</v>
+      </c>
+      <c r="W46" s="11">
+        <f t="shared" ref="W46" si="286">V46+1</f>
+        <v>46089</v>
+      </c>
+      <c r="X46" s="12">
+        <f t="shared" ref="X46" si="287">W46+1</f>
+        <v>46090</v>
+      </c>
+      <c r="Y46" s="12">
+        <f t="shared" ref="Y46" si="288">X46+1</f>
+        <v>46091</v>
+      </c>
+      <c r="Z46" s="12">
+        <f t="shared" ref="Z46" si="289">Y46+1</f>
+        <v>46092</v>
+      </c>
+      <c r="AA46" s="12">
+        <f t="shared" ref="AA46" si="290">Z46+1</f>
+        <v>46093</v>
+      </c>
+      <c r="AB46" s="12">
+        <f t="shared" ref="AB46" si="291">AA46+1</f>
+        <v>46094</v>
+      </c>
+      <c r="AC46" s="12">
+        <f t="shared" ref="AC46" si="292">AB46+1</f>
+        <v>46095</v>
+      </c>
+      <c r="AD46" s="12">
+        <f t="shared" ref="AD46" si="293">AC46+1</f>
+        <v>46096</v>
+      </c>
     </row>
     <row r="47" spans="2:30" ht="30" customHeight="1">
-      <c r="B47" s="13" t="str">
-        <f>TEXT("내용입력","aaa")</f>
-        <v>내용입력</v>
-      </c>
+      <c r="B47" s="13"/>
       <c r="C47" s="15"/>
       <c r="D47" s="14"/>
       <c r="E47" s="15"/>
@@ -4636,77 +4527,127 @@
       <c r="AC47" s="15"/>
       <c r="AD47" s="14"/>
     </row>
+    <row r="48" spans="2:30" ht="30" customHeight="1">
+      <c r="B48" s="13"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="15"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="14"/>
+      <c r="Y48" s="15"/>
+      <c r="Z48" s="14"/>
+      <c r="AA48" s="15"/>
+      <c r="AB48" s="14"/>
+      <c r="AC48" s="15"/>
+      <c r="AD48" s="14"/>
+    </row>
+    <row r="49" spans="2:30" ht="30" customHeight="1">
+      <c r="B49" s="13"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="14"/>
+      <c r="Y49" s="15"/>
+      <c r="Z49" s="14"/>
+      <c r="AA49" s="15"/>
+      <c r="AB49" s="14"/>
+      <c r="AC49" s="15"/>
+      <c r="AD49" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="23">
+    <mergeCell ref="E15:W15"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="C28:AD28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="C14:AD14"/>
+    <mergeCell ref="C21:AD21"/>
+    <mergeCell ref="C8:AD8"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="J36:AD36"/>
     <mergeCell ref="B1:AD1"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="M7:AD7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="M8:S8"/>
-    <mergeCell ref="T8:Z8"/>
-    <mergeCell ref="AA8:AD8"/>
-    <mergeCell ref="I14:W14"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="P15:V15"/>
-    <mergeCell ref="W15:AC15"/>
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="C33:AD33"/>
-    <mergeCell ref="C27:AD27"/>
-    <mergeCell ref="L21:AD21"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="X14:AC14"/>
-    <mergeCell ref="L22:R22"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="Z22:AD22"/>
-    <mergeCell ref="S22:Y22"/>
-    <mergeCell ref="AB28:AD28"/>
-    <mergeCell ref="Q34:AD34"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:M28"/>
-    <mergeCell ref="N28:T28"/>
-    <mergeCell ref="U28:AA28"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="J40:R40"/>
-    <mergeCell ref="S40:Y40"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:P34"/>
-    <mergeCell ref="C39:AD39"/>
+    <mergeCell ref="C7:AD7"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C5:AD6">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:AD13">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:AD20">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:AD26">
-    <cfRule type="expression" dxfId="3" priority="4">
+  <conditionalFormatting sqref="C38:AD40 C37:G37 I37:AD37">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:AD32">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="C44:AD46 C43:G43 I43:AD43">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37:AD38">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="C26:AD27">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43:AD44">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="C33:AD34">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Temp/HG/졸작 계획서_송형규.xlsx
+++ b/Temp/HG/졸작 계획서_송형규.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA7B375-2E92-4EEF-AC66-7BB8C9CAA580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECF0322-7FEC-4E08-9363-BFB0E721E69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
   <si>
     <t xml:space="preserve"> 시작 날짜:</t>
   </si>
@@ -70,15 +70,43 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>블랜더 공부</t>
+    <t>알파 버전용 기획 문서 작성</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>쉐이더 및 이펙트 공부</t>
+    <t>종강</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>알파 버전용 기획 문서 작성</t>
+    <t>애니메이션 학습</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델링 작업</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 디자인 구상</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>분배된 파트 검수 및 계획 수정</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부 수치 설정 및 테스트</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔진</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 테스트</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 내 모델링 및 애니메이션 블루프린트 구현</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -262,7 +290,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,6 +533,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,7 +785,7 @@
     <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -785,62 +837,74 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="6" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="21" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="46" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="47" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -897,49 +961,7 @@
     <cellStyle name="평일" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color theme="1" tint="4.9989318521683403E-2"/>
@@ -1263,10 +1285,10 @@
     <tabColor theme="9"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AD49"/>
+  <dimension ref="B1:AD37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1279,48 +1301,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" ht="48.75" customHeight="1">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
     </row>
     <row r="2" spans="2:30" ht="24.75" customHeight="1" thickBot="1">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="31">
         <f>DATEVALUE("2025/09/01")</f>
         <v>45901</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="2:30" ht="12.75" customHeight="1"/>
     <row r="4" spans="2:30" ht="18.75" customHeight="1">
@@ -1674,141 +1696,147 @@
       <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
     </row>
     <row r="8" spans="2:30" ht="30" customHeight="1">
       <c r="B8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="30"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
     </row>
     <row r="9" spans="2:30" ht="30" customHeight="1">
       <c r="B9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="31"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="S9" s="31"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="23"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="25"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="S9" s="25"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="W9" s="35"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD9" s="35"/>
     </row>
     <row r="10" spans="2:30" ht="30" customHeight="1">
       <c r="B10" s="13"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="23"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="18"/>
     </row>
     <row r="11" spans="2:30" ht="30" customHeight="1">
       <c r="B11" s="13"/>
@@ -2159,112 +2187,122 @@
       <c r="B14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
     </row>
     <row r="15" spans="2:30" ht="30" customHeight="1">
       <c r="B15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="14"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
     </row>
     <row r="16" spans="2:30" ht="30" customHeight="1">
       <c r="B16" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="31"/>
+      <c r="D16" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="25"/>
       <c r="F16" s="14"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
+      <c r="H16" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="35"/>
       <c r="J16" s="14"/>
-      <c r="K16" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="L16" s="31"/>
+      <c r="K16" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="25"/>
       <c r="M16" s="15"/>
       <c r="N16" s="14"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="14"/>
+      <c r="O16" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="35"/>
       <c r="Q16" s="15"/>
-      <c r="R16" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="S16" s="31"/>
+      <c r="R16" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="S16" s="25"/>
       <c r="T16" s="14"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="15"/>
+      <c r="V16" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="W16" s="35"/>
       <c r="X16" s="14"/>
       <c r="Y16" s="15"/>
       <c r="Z16" s="14"/>
       <c r="AA16" s="15"/>
       <c r="AB16" s="14"/>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="14"/>
+      <c r="AC16" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD16" s="35"/>
     </row>
     <row r="17" spans="2:30" ht="30" customHeight="1">
       <c r="B17" s="13"/>
@@ -2646,69 +2684,75 @@
       <c r="B21" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
     </row>
     <row r="22" spans="2:30" ht="30" customHeight="1">
       <c r="B22" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="14"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="14"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="14"/>
+      <c r="C22" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="24"/>
+      <c r="AB22" s="24"/>
+      <c r="AC22" s="24"/>
+      <c r="AD22" s="24"/>
     </row>
     <row r="23" spans="2:30" ht="30" customHeight="1">
       <c r="B23" s="13" t="s">
@@ -2719,38 +2763,48 @@
       <c r="E23" s="15"/>
       <c r="F23" s="14"/>
       <c r="G23" s="15"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
+      <c r="H23" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="35"/>
       <c r="J23" s="14"/>
-      <c r="K23" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="L23" s="31"/>
+      <c r="K23" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="25"/>
       <c r="M23" s="15"/>
       <c r="N23" s="14"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="14"/>
+      <c r="O23" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" s="35"/>
       <c r="Q23" s="15"/>
-      <c r="R23" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="S23" s="31"/>
+      <c r="R23" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="S23" s="25"/>
       <c r="T23" s="14"/>
       <c r="U23" s="15"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="15"/>
+      <c r="V23" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="W23" s="35"/>
       <c r="X23" s="14"/>
-      <c r="Y23" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z23" s="31"/>
+      <c r="Y23" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z23" s="25"/>
       <c r="AA23" s="15"/>
       <c r="AB23" s="14"/>
-      <c r="AC23" s="15"/>
-      <c r="AD23" s="14"/>
+      <c r="AC23" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD23" s="35"/>
     </row>
     <row r="24" spans="2:30" ht="30" customHeight="1">
-      <c r="B24" s="13"/>
+      <c r="B24" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="C24" s="15"/>
       <c r="D24" s="14"/>
       <c r="E24" s="15"/>
@@ -2763,22 +2817,26 @@
       <c r="L24" s="14"/>
       <c r="M24" s="15"/>
       <c r="N24" s="14"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="14"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="14"/>
+      <c r="O24" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="39"/>
     </row>
     <row r="25" spans="2:30" ht="30" customHeight="1">
       <c r="B25" s="13"/>
@@ -3129,39 +3187,41 @@
       <c r="B28" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="34"/>
-      <c r="AC28" s="34"/>
-      <c r="AD28" s="34"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="26"/>
     </row>
     <row r="29" spans="2:30" ht="30" customHeight="1">
-      <c r="B29" s="13"/>
+      <c r="B29" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="C29" s="15"/>
       <c r="D29" s="14"/>
       <c r="E29" s="15"/>
@@ -3196,58 +3256,70 @@
         <v>8</v>
       </c>
       <c r="C30" s="15"/>
-      <c r="D30" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="33"/>
+      <c r="D30" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="25"/>
       <c r="F30" s="14"/>
       <c r="G30" s="15"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
+      <c r="H30" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="35"/>
       <c r="J30" s="14"/>
-      <c r="K30" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="L30" s="31"/>
+      <c r="K30" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="25"/>
       <c r="M30" s="15"/>
       <c r="N30" s="14"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="14"/>
+      <c r="O30" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="P30" s="35"/>
       <c r="Q30" s="15"/>
-      <c r="R30" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="S30" s="31"/>
+      <c r="R30" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="S30" s="25"/>
       <c r="T30" s="14"/>
       <c r="U30" s="15"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="15"/>
+      <c r="V30" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="W30" s="35"/>
       <c r="X30" s="14"/>
-      <c r="Y30" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z30" s="31"/>
+      <c r="Y30" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z30" s="25"/>
       <c r="AA30" s="15"/>
       <c r="AB30" s="14"/>
-      <c r="AC30" s="15"/>
-      <c r="AD30" s="14"/>
+      <c r="AC30" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD30" s="35"/>
     </row>
     <row r="31" spans="2:30" ht="30" customHeight="1">
-      <c r="B31" s="13"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="14"/>
+      <c r="B31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
       <c r="Q31" s="15"/>
       <c r="R31" s="14"/>
       <c r="S31" s="15"/>
@@ -3293,207 +3365,55 @@
         <f>IF(TEXT(I34,"m월")=TEXT(H34,"m월"),"",LOWER(TEXT(I34,"m월")))</f>
         <v/>
       </c>
-      <c r="J32" s="8" t="str">
-        <f>LOWER(TEXT(J34,"m월"))</f>
-        <v>12월</v>
-      </c>
-      <c r="K32" s="8" t="str">
-        <f t="shared" ref="K32" si="158">IF(TEXT(K34,"m월")=TEXT(J34,"m월"),"",LOWER(TEXT(K34,"m월")))</f>
-        <v/>
-      </c>
-      <c r="L32" s="8" t="str">
-        <f t="shared" ref="L32" si="159">IF(TEXT(L34,"m월")=TEXT(K34,"m월"),"",LOWER(TEXT(L34,"m월")))</f>
-        <v/>
-      </c>
-      <c r="M32" s="8" t="str">
-        <f t="shared" ref="M32" si="160">IF(TEXT(M34,"m월")=TEXT(L34,"m월"),"",LOWER(TEXT(M34,"m월")))</f>
-        <v>1월</v>
-      </c>
-      <c r="N32" s="8" t="str">
-        <f t="shared" ref="N32" si="161">IF(TEXT(N34,"m월")=TEXT(M34,"m월"),"",LOWER(TEXT(N34,"m월")))</f>
-        <v/>
-      </c>
-      <c r="O32" s="8" t="str">
-        <f t="shared" ref="O32" si="162">IF(TEXT(O34,"m월")=TEXT(N34,"m월"),"",LOWER(TEXT(O34,"m월")))</f>
-        <v/>
-      </c>
-      <c r="P32" s="8" t="str">
-        <f>IF(TEXT(P34,"m월")=TEXT(O34,"m월"),"",LOWER(TEXT(P34,"m월")))</f>
-        <v/>
-      </c>
-      <c r="Q32" s="7" t="str">
-        <f>LOWER(TEXT(Q34,"m월"))</f>
-        <v>1월</v>
-      </c>
-      <c r="R32" s="7" t="str">
-        <f t="shared" ref="R32" si="163">IF(TEXT(R34,"m월")=TEXT(Q34,"m월"),"",LOWER(TEXT(R34,"m월")))</f>
-        <v/>
-      </c>
-      <c r="S32" s="7" t="str">
-        <f t="shared" ref="S32" si="164">IF(TEXT(S34,"m월")=TEXT(R34,"m월"),"",LOWER(TEXT(S34,"m월")))</f>
-        <v/>
-      </c>
-      <c r="T32" s="7" t="str">
-        <f t="shared" ref="T32" si="165">IF(TEXT(T34,"m월")=TEXT(S34,"m월"),"",LOWER(TEXT(T34,"m월")))</f>
-        <v/>
-      </c>
-      <c r="U32" s="7" t="str">
-        <f t="shared" ref="U32" si="166">IF(TEXT(U34,"m월")=TEXT(T34,"m월"),"",LOWER(TEXT(U34,"m월")))</f>
-        <v/>
-      </c>
-      <c r="V32" s="7" t="str">
-        <f t="shared" ref="V32" si="167">IF(TEXT(V34,"m월")=TEXT(U34,"m월"),"",LOWER(TEXT(V34,"m월")))</f>
-        <v/>
-      </c>
-      <c r="W32" s="7" t="str">
-        <f t="shared" ref="W32" si="168">IF(TEXT(W34,"m월")=TEXT(V34,"m월"),"",LOWER(TEXT(W34,"m월")))</f>
-        <v/>
-      </c>
-      <c r="X32" s="8" t="str">
-        <f>LOWER(TEXT(X34,"m월"))</f>
-        <v>1월</v>
-      </c>
-      <c r="Y32" s="8" t="str">
-        <f t="shared" ref="Y32" si="169">IF(TEXT(Y34,"m월")=TEXT(X34,"m월"),"",LOWER(TEXT(Y34,"m월")))</f>
-        <v/>
-      </c>
-      <c r="Z32" s="8" t="str">
-        <f t="shared" ref="Z32" si="170">IF(TEXT(Z34,"m월")=TEXT(Y34,"m월"),"",LOWER(TEXT(Z34,"m월")))</f>
-        <v/>
-      </c>
-      <c r="AA32" s="8" t="str">
-        <f t="shared" ref="AA32" si="171">IF(TEXT(AA34,"m월")=TEXT(Z34,"m월"),"",LOWER(TEXT(AA34,"m월")))</f>
-        <v/>
-      </c>
-      <c r="AB32" s="8" t="str">
-        <f t="shared" ref="AB32" si="172">IF(TEXT(AB34,"m월")=TEXT(AA34,"m월"),"",LOWER(TEXT(AB34,"m월")))</f>
-        <v/>
-      </c>
-      <c r="AC32" s="8" t="str">
-        <f t="shared" ref="AC32" si="173">IF(TEXT(AC34,"m월")=TEXT(AB34,"m월"),"",LOWER(TEXT(AC34,"m월")))</f>
-        <v/>
-      </c>
-      <c r="AD32" s="8" t="str">
-        <f t="shared" ref="AD32" si="174">IF(TEXT(AD34,"m월")=TEXT(AC34,"m월"),"",LOWER(TEXT(AD34,"m월")))</f>
-        <v/>
-      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="2:30" ht="30" customHeight="1">
+    <row r="33" spans="2:17" ht="30" customHeight="1">
       <c r="B33" s="13"/>
       <c r="C33" s="9" t="str">
         <f>LOWER(TEXT(C34,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="D33" s="9" t="str">
-        <f t="shared" ref="D33:AD33" si="175">LOWER(TEXT(D34,"aaa"))</f>
+        <f t="shared" ref="D33:I33" si="158">LOWER(TEXT(D34,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="E33" s="9" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="158"/>
         <v>수</v>
       </c>
       <c r="F33" s="9" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="158"/>
         <v>목</v>
       </c>
       <c r="G33" s="9" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="158"/>
         <v>금</v>
       </c>
       <c r="H33" s="9" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="158"/>
         <v>토</v>
       </c>
       <c r="I33" s="9" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="158"/>
         <v>일</v>
       </c>
-      <c r="J33" s="10" t="str">
-        <f t="shared" si="175"/>
-        <v>월</v>
-      </c>
-      <c r="K33" s="10" t="str">
-        <f t="shared" si="175"/>
-        <v>화</v>
-      </c>
-      <c r="L33" s="10" t="str">
-        <f t="shared" si="175"/>
-        <v>수</v>
-      </c>
-      <c r="M33" s="10" t="str">
-        <f t="shared" si="175"/>
-        <v>목</v>
-      </c>
-      <c r="N33" s="10" t="str">
-        <f t="shared" si="175"/>
-        <v>금</v>
-      </c>
-      <c r="O33" s="10" t="str">
-        <f t="shared" si="175"/>
-        <v>토</v>
-      </c>
-      <c r="P33" s="10" t="str">
-        <f t="shared" si="175"/>
-        <v>일</v>
-      </c>
-      <c r="Q33" s="9" t="str">
-        <f t="shared" si="175"/>
-        <v>월</v>
-      </c>
-      <c r="R33" s="9" t="str">
-        <f t="shared" si="175"/>
-        <v>화</v>
-      </c>
-      <c r="S33" s="9" t="str">
-        <f t="shared" si="175"/>
-        <v>수</v>
-      </c>
-      <c r="T33" s="9" t="str">
-        <f t="shared" si="175"/>
-        <v>목</v>
-      </c>
-      <c r="U33" s="9" t="str">
-        <f t="shared" si="175"/>
-        <v>금</v>
-      </c>
-      <c r="V33" s="9" t="str">
-        <f t="shared" si="175"/>
-        <v>토</v>
-      </c>
-      <c r="W33" s="9" t="str">
-        <f t="shared" si="175"/>
-        <v>일</v>
-      </c>
-      <c r="X33" s="10" t="str">
-        <f t="shared" si="175"/>
-        <v>월</v>
-      </c>
-      <c r="Y33" s="10" t="str">
-        <f t="shared" si="175"/>
-        <v>화</v>
-      </c>
-      <c r="Z33" s="10" t="str">
-        <f t="shared" si="175"/>
-        <v>수</v>
-      </c>
-      <c r="AA33" s="10" t="str">
-        <f t="shared" si="175"/>
-        <v>목</v>
-      </c>
-      <c r="AB33" s="10" t="str">
-        <f t="shared" si="175"/>
-        <v>금</v>
-      </c>
-      <c r="AC33" s="10" t="str">
-        <f t="shared" si="175"/>
-        <v>토</v>
-      </c>
-      <c r="AD33" s="10" t="str">
-        <f t="shared" si="175"/>
-        <v>일</v>
-      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="2:30" ht="30" customHeight="1" thickBot="1">
+    <row r="34" spans="2:17" ht="30" customHeight="1" thickBot="1">
       <c r="B34" s="13"/>
       <c r="C34" s="11">
         <f>AD27+1</f>
@@ -3504,1150 +3424,161 @@
         <v>46014</v>
       </c>
       <c r="E34" s="11">
-        <f t="shared" ref="E34" si="176">D34+1</f>
+        <f t="shared" ref="E34" si="159">D34+1</f>
         <v>46015</v>
       </c>
       <c r="F34" s="11">
-        <f t="shared" ref="F34" si="177">E34+1</f>
+        <f t="shared" ref="F34" si="160">E34+1</f>
         <v>46016</v>
       </c>
       <c r="G34" s="11">
-        <f t="shared" ref="G34" si="178">F34+1</f>
+        <f t="shared" ref="G34" si="161">F34+1</f>
         <v>46017</v>
       </c>
       <c r="H34" s="11">
-        <f t="shared" ref="H34" si="179">G34+1</f>
+        <f t="shared" ref="H34" si="162">G34+1</f>
         <v>46018</v>
       </c>
       <c r="I34" s="11">
         <f>H34+1</f>
         <v>46019</v>
       </c>
-      <c r="J34" s="12">
-        <f t="shared" ref="J34" si="180">I34+1</f>
-        <v>46020</v>
-      </c>
-      <c r="K34" s="12">
-        <f t="shared" ref="K34" si="181">J34+1</f>
-        <v>46021</v>
-      </c>
-      <c r="L34" s="12">
-        <f t="shared" ref="L34" si="182">K34+1</f>
-        <v>46022</v>
-      </c>
-      <c r="M34" s="12">
-        <f t="shared" ref="M34" si="183">L34+1</f>
-        <v>46023</v>
-      </c>
-      <c r="N34" s="12">
-        <f t="shared" ref="N34" si="184">M34+1</f>
-        <v>46024</v>
-      </c>
-      <c r="O34" s="12">
-        <f t="shared" ref="O34" si="185">N34+1</f>
-        <v>46025</v>
-      </c>
-      <c r="P34" s="12">
-        <f>O34+1</f>
-        <v>46026</v>
-      </c>
-      <c r="Q34" s="11">
-        <f t="shared" ref="Q34" si="186">P34+1</f>
-        <v>46027</v>
-      </c>
-      <c r="R34" s="11">
-        <f t="shared" ref="R34" si="187">Q34+1</f>
-        <v>46028</v>
-      </c>
-      <c r="S34" s="11">
-        <f t="shared" ref="S34" si="188">R34+1</f>
-        <v>46029</v>
-      </c>
-      <c r="T34" s="11">
-        <f t="shared" ref="T34" si="189">S34+1</f>
-        <v>46030</v>
-      </c>
-      <c r="U34" s="11">
-        <f t="shared" ref="U34" si="190">T34+1</f>
-        <v>46031</v>
-      </c>
-      <c r="V34" s="11">
-        <f t="shared" ref="V34" si="191">U34+1</f>
-        <v>46032</v>
-      </c>
-      <c r="W34" s="11">
-        <f t="shared" ref="W34" si="192">V34+1</f>
-        <v>46033</v>
-      </c>
-      <c r="X34" s="12">
-        <f t="shared" ref="X34" si="193">W34+1</f>
-        <v>46034</v>
-      </c>
-      <c r="Y34" s="12">
-        <f t="shared" ref="Y34" si="194">X34+1</f>
-        <v>46035</v>
-      </c>
-      <c r="Z34" s="12">
-        <f t="shared" ref="Z34" si="195">Y34+1</f>
-        <v>46036</v>
-      </c>
-      <c r="AA34" s="12">
-        <f t="shared" ref="AA34" si="196">Z34+1</f>
-        <v>46037</v>
-      </c>
-      <c r="AB34" s="12">
-        <f t="shared" ref="AB34" si="197">AA34+1</f>
-        <v>46038</v>
-      </c>
-      <c r="AC34" s="12">
-        <f t="shared" ref="AC34" si="198">AB34+1</f>
-        <v>46039</v>
-      </c>
-      <c r="AD34" s="12">
-        <f t="shared" ref="AD34" si="199">AC34+1</f>
-        <v>46040</v>
-      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="2:30" ht="30" customHeight="1">
+    <row r="35" spans="2:17" ht="30" customHeight="1">
       <c r="B35" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="15"/>
-      <c r="X35" s="14"/>
-      <c r="Y35" s="15"/>
-      <c r="Z35" s="14"/>
-      <c r="AA35" s="15"/>
-      <c r="AB35" s="14"/>
-      <c r="AC35" s="15"/>
-      <c r="AD35" s="14"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="2:30" ht="30" customHeight="1">
+    <row r="36" spans="2:17" ht="30" customHeight="1">
       <c r="B36" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="21"/>
-      <c r="Z36" s="21"/>
-      <c r="AA36" s="21"/>
-      <c r="AB36" s="21"/>
-      <c r="AC36" s="21"/>
-      <c r="AD36" s="21"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
     </row>
-    <row r="37" spans="2:30" ht="30" customHeight="1">
+    <row r="37" spans="2:17" ht="30" customHeight="1">
       <c r="B37" s="13"/>
       <c r="C37" s="15"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="15"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="15"/>
-      <c r="X37" s="14"/>
-      <c r="Y37" s="15"/>
-      <c r="Z37" s="14"/>
-      <c r="AA37" s="15"/>
-      <c r="AB37" s="14"/>
-      <c r="AC37" s="15"/>
-      <c r="AD37" s="14"/>
-    </row>
-    <row r="38" spans="2:30" ht="30" customHeight="1">
-      <c r="B38" s="13"/>
-      <c r="C38" s="6" t="str">
-        <f>LOWER(TEXT(C40, "m월"))</f>
-        <v>1월</v>
-      </c>
-      <c r="D38" s="7" t="str">
-        <f t="shared" ref="D38" si="200">IF(TEXT(D40,"m월")=TEXT(C40,"m월"),"",LOWER(TEXT(D40,"m월")))</f>
-        <v/>
-      </c>
-      <c r="E38" s="7" t="str">
-        <f t="shared" ref="E38" si="201">IF(TEXT(E40,"m월")=TEXT(D40,"m월"),"",LOWER(TEXT(E40,"m월")))</f>
-        <v/>
-      </c>
-      <c r="F38" s="7" t="str">
-        <f t="shared" ref="F38" si="202">IF(TEXT(F40,"m월")=TEXT(E40,"m월"),"",LOWER(TEXT(F40,"m월")))</f>
-        <v/>
-      </c>
-      <c r="G38" s="7" t="str">
-        <f t="shared" ref="G38" si="203">IF(TEXT(G40,"m월")=TEXT(F40,"m월"),"",LOWER(TEXT(G40,"m월")))</f>
-        <v/>
-      </c>
-      <c r="H38" s="7" t="str">
-        <f t="shared" ref="H38" si="204">IF(TEXT(H40,"m월")=TEXT(G40,"m월"),"",LOWER(TEXT(H40,"m월")))</f>
-        <v/>
-      </c>
-      <c r="I38" s="7" t="str">
-        <f>IF(TEXT(I40,"m월")=TEXT(H40,"m월"),"",LOWER(TEXT(I40,"m월")))</f>
-        <v/>
-      </c>
-      <c r="J38" s="8" t="str">
-        <f>LOWER(TEXT(J40,"m월"))</f>
-        <v>1월</v>
-      </c>
-      <c r="K38" s="8" t="str">
-        <f t="shared" ref="K38" si="205">IF(TEXT(K40,"m월")=TEXT(J40,"m월"),"",LOWER(TEXT(K40,"m월")))</f>
-        <v/>
-      </c>
-      <c r="L38" s="8" t="str">
-        <f t="shared" ref="L38" si="206">IF(TEXT(L40,"m월")=TEXT(K40,"m월"),"",LOWER(TEXT(L40,"m월")))</f>
-        <v/>
-      </c>
-      <c r="M38" s="8" t="str">
-        <f t="shared" ref="M38" si="207">IF(TEXT(M40,"m월")=TEXT(L40,"m월"),"",LOWER(TEXT(M40,"m월")))</f>
-        <v/>
-      </c>
-      <c r="N38" s="8" t="str">
-        <f t="shared" ref="N38" si="208">IF(TEXT(N40,"m월")=TEXT(M40,"m월"),"",LOWER(TEXT(N40,"m월")))</f>
-        <v/>
-      </c>
-      <c r="O38" s="8" t="str">
-        <f t="shared" ref="O38" si="209">IF(TEXT(O40,"m월")=TEXT(N40,"m월"),"",LOWER(TEXT(O40,"m월")))</f>
-        <v/>
-      </c>
-      <c r="P38" s="8" t="str">
-        <f>IF(TEXT(P40,"m월")=TEXT(O40,"m월"),"",LOWER(TEXT(P40,"m월")))</f>
-        <v>2월</v>
-      </c>
-      <c r="Q38" s="7" t="str">
-        <f>LOWER(TEXT(Q40,"m월"))</f>
-        <v>2월</v>
-      </c>
-      <c r="R38" s="7" t="str">
-        <f t="shared" ref="R38" si="210">IF(TEXT(R40,"m월")=TEXT(Q40,"m월"),"",LOWER(TEXT(R40,"m월")))</f>
-        <v/>
-      </c>
-      <c r="S38" s="7" t="str">
-        <f t="shared" ref="S38" si="211">IF(TEXT(S40,"m월")=TEXT(R40,"m월"),"",LOWER(TEXT(S40,"m월")))</f>
-        <v/>
-      </c>
-      <c r="T38" s="7" t="str">
-        <f t="shared" ref="T38" si="212">IF(TEXT(T40,"m월")=TEXT(S40,"m월"),"",LOWER(TEXT(T40,"m월")))</f>
-        <v/>
-      </c>
-      <c r="U38" s="7" t="str">
-        <f t="shared" ref="U38" si="213">IF(TEXT(U40,"m월")=TEXT(T40,"m월"),"",LOWER(TEXT(U40,"m월")))</f>
-        <v/>
-      </c>
-      <c r="V38" s="7" t="str">
-        <f t="shared" ref="V38" si="214">IF(TEXT(V40,"m월")=TEXT(U40,"m월"),"",LOWER(TEXT(V40,"m월")))</f>
-        <v/>
-      </c>
-      <c r="W38" s="7" t="str">
-        <f t="shared" ref="W38" si="215">IF(TEXT(W40,"m월")=TEXT(V40,"m월"),"",LOWER(TEXT(W40,"m월")))</f>
-        <v/>
-      </c>
-      <c r="X38" s="8" t="str">
-        <f>LOWER(TEXT(X40,"m월"))</f>
-        <v>2월</v>
-      </c>
-      <c r="Y38" s="8" t="str">
-        <f t="shared" ref="Y38" si="216">IF(TEXT(Y40,"m월")=TEXT(X40,"m월"),"",LOWER(TEXT(Y40,"m월")))</f>
-        <v/>
-      </c>
-      <c r="Z38" s="8" t="str">
-        <f t="shared" ref="Z38" si="217">IF(TEXT(Z40,"m월")=TEXT(Y40,"m월"),"",LOWER(TEXT(Z40,"m월")))</f>
-        <v/>
-      </c>
-      <c r="AA38" s="8" t="str">
-        <f t="shared" ref="AA38" si="218">IF(TEXT(AA40,"m월")=TEXT(Z40,"m월"),"",LOWER(TEXT(AA40,"m월")))</f>
-        <v/>
-      </c>
-      <c r="AB38" s="8" t="str">
-        <f t="shared" ref="AB38" si="219">IF(TEXT(AB40,"m월")=TEXT(AA40,"m월"),"",LOWER(TEXT(AB40,"m월")))</f>
-        <v/>
-      </c>
-      <c r="AC38" s="8" t="str">
-        <f t="shared" ref="AC38" si="220">IF(TEXT(AC40,"m월")=TEXT(AB40,"m월"),"",LOWER(TEXT(AC40,"m월")))</f>
-        <v/>
-      </c>
-      <c r="AD38" s="8" t="str">
-        <f t="shared" ref="AD38" si="221">IF(TEXT(AD40,"m월")=TEXT(AC40,"m월"),"",LOWER(TEXT(AD40,"m월")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="2:30" ht="30" customHeight="1">
-      <c r="B39" s="13"/>
-      <c r="C39" s="9" t="str">
-        <f>LOWER(TEXT(C40,"aaa"))</f>
-        <v>월</v>
-      </c>
-      <c r="D39" s="9" t="str">
-        <f t="shared" ref="D39:AD39" si="222">LOWER(TEXT(D40,"aaa"))</f>
-        <v>화</v>
-      </c>
-      <c r="E39" s="9" t="str">
-        <f t="shared" si="222"/>
-        <v>수</v>
-      </c>
-      <c r="F39" s="9" t="str">
-        <f t="shared" si="222"/>
-        <v>목</v>
-      </c>
-      <c r="G39" s="9" t="str">
-        <f t="shared" si="222"/>
-        <v>금</v>
-      </c>
-      <c r="H39" s="9" t="str">
-        <f t="shared" si="222"/>
-        <v>토</v>
-      </c>
-      <c r="I39" s="9" t="str">
-        <f t="shared" si="222"/>
-        <v>일</v>
-      </c>
-      <c r="J39" s="10" t="str">
-        <f t="shared" si="222"/>
-        <v>월</v>
-      </c>
-      <c r="K39" s="10" t="str">
-        <f t="shared" si="222"/>
-        <v>화</v>
-      </c>
-      <c r="L39" s="10" t="str">
-        <f t="shared" si="222"/>
-        <v>수</v>
-      </c>
-      <c r="M39" s="10" t="str">
-        <f t="shared" si="222"/>
-        <v>목</v>
-      </c>
-      <c r="N39" s="10" t="str">
-        <f t="shared" si="222"/>
-        <v>금</v>
-      </c>
-      <c r="O39" s="10" t="str">
-        <f t="shared" si="222"/>
-        <v>토</v>
-      </c>
-      <c r="P39" s="10" t="str">
-        <f t="shared" si="222"/>
-        <v>일</v>
-      </c>
-      <c r="Q39" s="9" t="str">
-        <f t="shared" si="222"/>
-        <v>월</v>
-      </c>
-      <c r="R39" s="9" t="str">
-        <f t="shared" si="222"/>
-        <v>화</v>
-      </c>
-      <c r="S39" s="9" t="str">
-        <f t="shared" si="222"/>
-        <v>수</v>
-      </c>
-      <c r="T39" s="9" t="str">
-        <f t="shared" si="222"/>
-        <v>목</v>
-      </c>
-      <c r="U39" s="9" t="str">
-        <f t="shared" si="222"/>
-        <v>금</v>
-      </c>
-      <c r="V39" s="9" t="str">
-        <f t="shared" si="222"/>
-        <v>토</v>
-      </c>
-      <c r="W39" s="9" t="str">
-        <f t="shared" si="222"/>
-        <v>일</v>
-      </c>
-      <c r="X39" s="10" t="str">
-        <f t="shared" si="222"/>
-        <v>월</v>
-      </c>
-      <c r="Y39" s="10" t="str">
-        <f t="shared" si="222"/>
-        <v>화</v>
-      </c>
-      <c r="Z39" s="10" t="str">
-        <f t="shared" si="222"/>
-        <v>수</v>
-      </c>
-      <c r="AA39" s="10" t="str">
-        <f t="shared" si="222"/>
-        <v>목</v>
-      </c>
-      <c r="AB39" s="10" t="str">
-        <f t="shared" si="222"/>
-        <v>금</v>
-      </c>
-      <c r="AC39" s="10" t="str">
-        <f t="shared" si="222"/>
-        <v>토</v>
-      </c>
-      <c r="AD39" s="10" t="str">
-        <f t="shared" si="222"/>
-        <v>일</v>
-      </c>
-    </row>
-    <row r="40" spans="2:30" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="13"/>
-      <c r="C40" s="11">
-        <f>AD34+1</f>
-        <v>46041</v>
-      </c>
-      <c r="D40" s="11">
-        <f>C40+1</f>
-        <v>46042</v>
-      </c>
-      <c r="E40" s="11">
-        <f t="shared" ref="E40" si="223">D40+1</f>
-        <v>46043</v>
-      </c>
-      <c r="F40" s="11">
-        <f t="shared" ref="F40" si="224">E40+1</f>
-        <v>46044</v>
-      </c>
-      <c r="G40" s="11">
-        <f t="shared" ref="G40" si="225">F40+1</f>
-        <v>46045</v>
-      </c>
-      <c r="H40" s="11">
-        <f t="shared" ref="H40" si="226">G40+1</f>
-        <v>46046</v>
-      </c>
-      <c r="I40" s="11">
-        <f>H40+1</f>
-        <v>46047</v>
-      </c>
-      <c r="J40" s="12">
-        <f t="shared" ref="J40" si="227">I40+1</f>
-        <v>46048</v>
-      </c>
-      <c r="K40" s="12">
-        <f t="shared" ref="K40" si="228">J40+1</f>
-        <v>46049</v>
-      </c>
-      <c r="L40" s="12">
-        <f t="shared" ref="L40" si="229">K40+1</f>
-        <v>46050</v>
-      </c>
-      <c r="M40" s="12">
-        <f t="shared" ref="M40" si="230">L40+1</f>
-        <v>46051</v>
-      </c>
-      <c r="N40" s="12">
-        <f t="shared" ref="N40" si="231">M40+1</f>
-        <v>46052</v>
-      </c>
-      <c r="O40" s="12">
-        <f t="shared" ref="O40" si="232">N40+1</f>
-        <v>46053</v>
-      </c>
-      <c r="P40" s="12">
-        <f>O40+1</f>
-        <v>46054</v>
-      </c>
-      <c r="Q40" s="11">
-        <f t="shared" ref="Q40" si="233">P40+1</f>
-        <v>46055</v>
-      </c>
-      <c r="R40" s="11">
-        <f t="shared" ref="R40" si="234">Q40+1</f>
-        <v>46056</v>
-      </c>
-      <c r="S40" s="11">
-        <f t="shared" ref="S40" si="235">R40+1</f>
-        <v>46057</v>
-      </c>
-      <c r="T40" s="11">
-        <f t="shared" ref="T40" si="236">S40+1</f>
-        <v>46058</v>
-      </c>
-      <c r="U40" s="11">
-        <f t="shared" ref="U40" si="237">T40+1</f>
-        <v>46059</v>
-      </c>
-      <c r="V40" s="11">
-        <f t="shared" ref="V40" si="238">U40+1</f>
-        <v>46060</v>
-      </c>
-      <c r="W40" s="11">
-        <f t="shared" ref="W40" si="239">V40+1</f>
-        <v>46061</v>
-      </c>
-      <c r="X40" s="12">
-        <f t="shared" ref="X40" si="240">W40+1</f>
-        <v>46062</v>
-      </c>
-      <c r="Y40" s="12">
-        <f t="shared" ref="Y40" si="241">X40+1</f>
-        <v>46063</v>
-      </c>
-      <c r="Z40" s="12">
-        <f t="shared" ref="Z40" si="242">Y40+1</f>
-        <v>46064</v>
-      </c>
-      <c r="AA40" s="12">
-        <f t="shared" ref="AA40" si="243">Z40+1</f>
-        <v>46065</v>
-      </c>
-      <c r="AB40" s="12">
-        <f t="shared" ref="AB40" si="244">AA40+1</f>
-        <v>46066</v>
-      </c>
-      <c r="AC40" s="12">
-        <f t="shared" ref="AC40" si="245">AB40+1</f>
-        <v>46067</v>
-      </c>
-      <c r="AD40" s="12">
-        <f t="shared" ref="AD40" si="246">AC40+1</f>
-        <v>46068</v>
-      </c>
-    </row>
-    <row r="41" spans="2:30" ht="30" customHeight="1">
-      <c r="B41" s="13"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="15"/>
-      <c r="V41" s="14"/>
-      <c r="W41" s="15"/>
-      <c r="X41" s="14"/>
-      <c r="Y41" s="15"/>
-      <c r="Z41" s="14"/>
-      <c r="AA41" s="15"/>
-      <c r="AB41" s="14"/>
-      <c r="AC41" s="15"/>
-      <c r="AD41" s="14"/>
-    </row>
-    <row r="42" spans="2:30" ht="30" customHeight="1">
-      <c r="B42" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="15"/>
-      <c r="V42" s="14"/>
-      <c r="W42" s="15"/>
-      <c r="X42" s="14"/>
-      <c r="Y42" s="15"/>
-      <c r="Z42" s="14"/>
-      <c r="AA42" s="15"/>
-      <c r="AB42" s="14"/>
-      <c r="AC42" s="15"/>
-      <c r="AD42" s="14"/>
-    </row>
-    <row r="43" spans="2:30" ht="30" customHeight="1">
-      <c r="B43" s="13"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="15"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="15"/>
-      <c r="V43" s="14"/>
-      <c r="W43" s="15"/>
-      <c r="X43" s="14"/>
-      <c r="Y43" s="15"/>
-      <c r="Z43" s="14"/>
-      <c r="AA43" s="15"/>
-      <c r="AB43" s="14"/>
-      <c r="AC43" s="15"/>
-      <c r="AD43" s="14"/>
-    </row>
-    <row r="44" spans="2:30" ht="30" customHeight="1">
-      <c r="B44" s="13"/>
-      <c r="C44" s="6" t="str">
-        <f>LOWER(TEXT(C46, "m월"))</f>
-        <v>2월</v>
-      </c>
-      <c r="D44" s="7" t="str">
-        <f t="shared" ref="D44" si="247">IF(TEXT(D46,"m월")=TEXT(C46,"m월"),"",LOWER(TEXT(D46,"m월")))</f>
-        <v/>
-      </c>
-      <c r="E44" s="7" t="str">
-        <f t="shared" ref="E44" si="248">IF(TEXT(E46,"m월")=TEXT(D46,"m월"),"",LOWER(TEXT(E46,"m월")))</f>
-        <v/>
-      </c>
-      <c r="F44" s="7" t="str">
-        <f t="shared" ref="F44" si="249">IF(TEXT(F46,"m월")=TEXT(E46,"m월"),"",LOWER(TEXT(F46,"m월")))</f>
-        <v/>
-      </c>
-      <c r="G44" s="7" t="str">
-        <f t="shared" ref="G44" si="250">IF(TEXT(G46,"m월")=TEXT(F46,"m월"),"",LOWER(TEXT(G46,"m월")))</f>
-        <v/>
-      </c>
-      <c r="H44" s="7" t="str">
-        <f t="shared" ref="H44" si="251">IF(TEXT(H46,"m월")=TEXT(G46,"m월"),"",LOWER(TEXT(H46,"m월")))</f>
-        <v/>
-      </c>
-      <c r="I44" s="7" t="str">
-        <f>IF(TEXT(I46,"m월")=TEXT(H46,"m월"),"",LOWER(TEXT(I46,"m월")))</f>
-        <v/>
-      </c>
-      <c r="J44" s="8" t="str">
-        <f>LOWER(TEXT(J46,"m월"))</f>
-        <v>2월</v>
-      </c>
-      <c r="K44" s="8" t="str">
-        <f t="shared" ref="K44" si="252">IF(TEXT(K46,"m월")=TEXT(J46,"m월"),"",LOWER(TEXT(K46,"m월")))</f>
-        <v/>
-      </c>
-      <c r="L44" s="8" t="str">
-        <f t="shared" ref="L44" si="253">IF(TEXT(L46,"m월")=TEXT(K46,"m월"),"",LOWER(TEXT(L46,"m월")))</f>
-        <v/>
-      </c>
-      <c r="M44" s="8" t="str">
-        <f t="shared" ref="M44" si="254">IF(TEXT(M46,"m월")=TEXT(L46,"m월"),"",LOWER(TEXT(M46,"m월")))</f>
-        <v/>
-      </c>
-      <c r="N44" s="8" t="str">
-        <f t="shared" ref="N44" si="255">IF(TEXT(N46,"m월")=TEXT(M46,"m월"),"",LOWER(TEXT(N46,"m월")))</f>
-        <v/>
-      </c>
-      <c r="O44" s="8" t="str">
-        <f t="shared" ref="O44" si="256">IF(TEXT(O46,"m월")=TEXT(N46,"m월"),"",LOWER(TEXT(O46,"m월")))</f>
-        <v/>
-      </c>
-      <c r="P44" s="8" t="str">
-        <f>IF(TEXT(P46,"m월")=TEXT(O46,"m월"),"",LOWER(TEXT(P46,"m월")))</f>
-        <v>3월</v>
-      </c>
-      <c r="Q44" s="7" t="str">
-        <f>LOWER(TEXT(Q46,"m월"))</f>
-        <v>3월</v>
-      </c>
-      <c r="R44" s="7" t="str">
-        <f t="shared" ref="R44" si="257">IF(TEXT(R46,"m월")=TEXT(Q46,"m월"),"",LOWER(TEXT(R46,"m월")))</f>
-        <v/>
-      </c>
-      <c r="S44" s="7" t="str">
-        <f t="shared" ref="S44" si="258">IF(TEXT(S46,"m월")=TEXT(R46,"m월"),"",LOWER(TEXT(S46,"m월")))</f>
-        <v/>
-      </c>
-      <c r="T44" s="7" t="str">
-        <f t="shared" ref="T44" si="259">IF(TEXT(T46,"m월")=TEXT(S46,"m월"),"",LOWER(TEXT(T46,"m월")))</f>
-        <v/>
-      </c>
-      <c r="U44" s="7" t="str">
-        <f t="shared" ref="U44" si="260">IF(TEXT(U46,"m월")=TEXT(T46,"m월"),"",LOWER(TEXT(U46,"m월")))</f>
-        <v/>
-      </c>
-      <c r="V44" s="7" t="str">
-        <f t="shared" ref="V44" si="261">IF(TEXT(V46,"m월")=TEXT(U46,"m월"),"",LOWER(TEXT(V46,"m월")))</f>
-        <v/>
-      </c>
-      <c r="W44" s="7" t="str">
-        <f t="shared" ref="W44" si="262">IF(TEXT(W46,"m월")=TEXT(V46,"m월"),"",LOWER(TEXT(W46,"m월")))</f>
-        <v/>
-      </c>
-      <c r="X44" s="8" t="str">
-        <f>LOWER(TEXT(X46,"m월"))</f>
-        <v>3월</v>
-      </c>
-      <c r="Y44" s="8" t="str">
-        <f t="shared" ref="Y44" si="263">IF(TEXT(Y46,"m월")=TEXT(X46,"m월"),"",LOWER(TEXT(Y46,"m월")))</f>
-        <v/>
-      </c>
-      <c r="Z44" s="8" t="str">
-        <f t="shared" ref="Z44" si="264">IF(TEXT(Z46,"m월")=TEXT(Y46,"m월"),"",LOWER(TEXT(Z46,"m월")))</f>
-        <v/>
-      </c>
-      <c r="AA44" s="8" t="str">
-        <f t="shared" ref="AA44" si="265">IF(TEXT(AA46,"m월")=TEXT(Z46,"m월"),"",LOWER(TEXT(AA46,"m월")))</f>
-        <v/>
-      </c>
-      <c r="AB44" s="8" t="str">
-        <f t="shared" ref="AB44" si="266">IF(TEXT(AB46,"m월")=TEXT(AA46,"m월"),"",LOWER(TEXT(AB46,"m월")))</f>
-        <v/>
-      </c>
-      <c r="AC44" s="8" t="str">
-        <f t="shared" ref="AC44" si="267">IF(TEXT(AC46,"m월")=TEXT(AB46,"m월"),"",LOWER(TEXT(AC46,"m월")))</f>
-        <v/>
-      </c>
-      <c r="AD44" s="8" t="str">
-        <f t="shared" ref="AD44" si="268">IF(TEXT(AD46,"m월")=TEXT(AC46,"m월"),"",LOWER(TEXT(AD46,"m월")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="2:30" ht="30" customHeight="1">
-      <c r="B45" s="13"/>
-      <c r="C45" s="9" t="str">
-        <f>LOWER(TEXT(C46,"aaa"))</f>
-        <v>월</v>
-      </c>
-      <c r="D45" s="9" t="str">
-        <f t="shared" ref="D43:AD45" si="269">LOWER(TEXT(D46,"aaa"))</f>
-        <v>화</v>
-      </c>
-      <c r="E45" s="9" t="str">
-        <f t="shared" si="269"/>
-        <v>수</v>
-      </c>
-      <c r="F45" s="9" t="str">
-        <f t="shared" si="269"/>
-        <v>목</v>
-      </c>
-      <c r="G45" s="9" t="str">
-        <f t="shared" si="269"/>
-        <v>금</v>
-      </c>
-      <c r="H45" s="9" t="str">
-        <f t="shared" si="269"/>
-        <v>토</v>
-      </c>
-      <c r="I45" s="9" t="str">
-        <f t="shared" si="269"/>
-        <v>일</v>
-      </c>
-      <c r="J45" s="10" t="str">
-        <f t="shared" si="269"/>
-        <v>월</v>
-      </c>
-      <c r="K45" s="10" t="str">
-        <f t="shared" si="269"/>
-        <v>화</v>
-      </c>
-      <c r="L45" s="10" t="str">
-        <f t="shared" si="269"/>
-        <v>수</v>
-      </c>
-      <c r="M45" s="10" t="str">
-        <f t="shared" si="269"/>
-        <v>목</v>
-      </c>
-      <c r="N45" s="10" t="str">
-        <f t="shared" si="269"/>
-        <v>금</v>
-      </c>
-      <c r="O45" s="10" t="str">
-        <f t="shared" si="269"/>
-        <v>토</v>
-      </c>
-      <c r="P45" s="10" t="str">
-        <f t="shared" si="269"/>
-        <v>일</v>
-      </c>
-      <c r="Q45" s="9" t="str">
-        <f t="shared" si="269"/>
-        <v>월</v>
-      </c>
-      <c r="R45" s="9" t="str">
-        <f t="shared" si="269"/>
-        <v>화</v>
-      </c>
-      <c r="S45" s="9" t="str">
-        <f t="shared" si="269"/>
-        <v>수</v>
-      </c>
-      <c r="T45" s="9" t="str">
-        <f t="shared" si="269"/>
-        <v>목</v>
-      </c>
-      <c r="U45" s="9" t="str">
-        <f t="shared" si="269"/>
-        <v>금</v>
-      </c>
-      <c r="V45" s="9" t="str">
-        <f t="shared" si="269"/>
-        <v>토</v>
-      </c>
-      <c r="W45" s="9" t="str">
-        <f t="shared" si="269"/>
-        <v>일</v>
-      </c>
-      <c r="X45" s="10" t="str">
-        <f t="shared" si="269"/>
-        <v>월</v>
-      </c>
-      <c r="Y45" s="10" t="str">
-        <f t="shared" si="269"/>
-        <v>화</v>
-      </c>
-      <c r="Z45" s="10" t="str">
-        <f t="shared" si="269"/>
-        <v>수</v>
-      </c>
-      <c r="AA45" s="10" t="str">
-        <f t="shared" si="269"/>
-        <v>목</v>
-      </c>
-      <c r="AB45" s="10" t="str">
-        <f t="shared" si="269"/>
-        <v>금</v>
-      </c>
-      <c r="AC45" s="10" t="str">
-        <f t="shared" si="269"/>
-        <v>토</v>
-      </c>
-      <c r="AD45" s="10" t="str">
-        <f t="shared" si="269"/>
-        <v>일</v>
-      </c>
-    </row>
-    <row r="46" spans="2:30" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="13"/>
-      <c r="C46" s="11">
-        <f>AD40+1</f>
-        <v>46069</v>
-      </c>
-      <c r="D46" s="11">
-        <f>C46+1</f>
-        <v>46070</v>
-      </c>
-      <c r="E46" s="11">
-        <f t="shared" ref="E46" si="270">D46+1</f>
-        <v>46071</v>
-      </c>
-      <c r="F46" s="11">
-        <f t="shared" ref="F46" si="271">E46+1</f>
-        <v>46072</v>
-      </c>
-      <c r="G46" s="11">
-        <f t="shared" ref="G46" si="272">F46+1</f>
-        <v>46073</v>
-      </c>
-      <c r="H46" s="11">
-        <f t="shared" ref="H46" si="273">G46+1</f>
-        <v>46074</v>
-      </c>
-      <c r="I46" s="11">
-        <f>H46+1</f>
-        <v>46075</v>
-      </c>
-      <c r="J46" s="12">
-        <f t="shared" ref="J46" si="274">I46+1</f>
-        <v>46076</v>
-      </c>
-      <c r="K46" s="12">
-        <f t="shared" ref="K46" si="275">J46+1</f>
-        <v>46077</v>
-      </c>
-      <c r="L46" s="12">
-        <f t="shared" ref="L46" si="276">K46+1</f>
-        <v>46078</v>
-      </c>
-      <c r="M46" s="12">
-        <f t="shared" ref="M46" si="277">L46+1</f>
-        <v>46079</v>
-      </c>
-      <c r="N46" s="12">
-        <f t="shared" ref="N46" si="278">M46+1</f>
-        <v>46080</v>
-      </c>
-      <c r="O46" s="12">
-        <f t="shared" ref="O46" si="279">N46+1</f>
-        <v>46081</v>
-      </c>
-      <c r="P46" s="12">
-        <f>O46+1</f>
-        <v>46082</v>
-      </c>
-      <c r="Q46" s="11">
-        <f t="shared" ref="Q46" si="280">P46+1</f>
-        <v>46083</v>
-      </c>
-      <c r="R46" s="11">
-        <f t="shared" ref="R46" si="281">Q46+1</f>
-        <v>46084</v>
-      </c>
-      <c r="S46" s="11">
-        <f t="shared" ref="S46" si="282">R46+1</f>
-        <v>46085</v>
-      </c>
-      <c r="T46" s="11">
-        <f t="shared" ref="T46" si="283">S46+1</f>
-        <v>46086</v>
-      </c>
-      <c r="U46" s="11">
-        <f t="shared" ref="U46" si="284">T46+1</f>
-        <v>46087</v>
-      </c>
-      <c r="V46" s="11">
-        <f t="shared" ref="V46" si="285">U46+1</f>
-        <v>46088</v>
-      </c>
-      <c r="W46" s="11">
-        <f t="shared" ref="W46" si="286">V46+1</f>
-        <v>46089</v>
-      </c>
-      <c r="X46" s="12">
-        <f t="shared" ref="X46" si="287">W46+1</f>
-        <v>46090</v>
-      </c>
-      <c r="Y46" s="12">
-        <f t="shared" ref="Y46" si="288">X46+1</f>
-        <v>46091</v>
-      </c>
-      <c r="Z46" s="12">
-        <f t="shared" ref="Z46" si="289">Y46+1</f>
-        <v>46092</v>
-      </c>
-      <c r="AA46" s="12">
-        <f t="shared" ref="AA46" si="290">Z46+1</f>
-        <v>46093</v>
-      </c>
-      <c r="AB46" s="12">
-        <f t="shared" ref="AB46" si="291">AA46+1</f>
-        <v>46094</v>
-      </c>
-      <c r="AC46" s="12">
-        <f t="shared" ref="AC46" si="292">AB46+1</f>
-        <v>46095</v>
-      </c>
-      <c r="AD46" s="12">
-        <f t="shared" ref="AD46" si="293">AC46+1</f>
-        <v>46096</v>
-      </c>
-    </row>
-    <row r="47" spans="2:30" ht="30" customHeight="1">
-      <c r="B47" s="13"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="14"/>
-      <c r="S47" s="15"/>
-      <c r="T47" s="14"/>
-      <c r="U47" s="15"/>
-      <c r="V47" s="14"/>
-      <c r="W47" s="15"/>
-      <c r="X47" s="14"/>
-      <c r="Y47" s="15"/>
-      <c r="Z47" s="14"/>
-      <c r="AA47" s="15"/>
-      <c r="AB47" s="14"/>
-      <c r="AC47" s="15"/>
-      <c r="AD47" s="14"/>
-    </row>
-    <row r="48" spans="2:30" ht="30" customHeight="1">
-      <c r="B48" s="13"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="15"/>
-      <c r="T48" s="14"/>
-      <c r="U48" s="15"/>
-      <c r="V48" s="14"/>
-      <c r="W48" s="15"/>
-      <c r="X48" s="14"/>
-      <c r="Y48" s="15"/>
-      <c r="Z48" s="14"/>
-      <c r="AA48" s="15"/>
-      <c r="AB48" s="14"/>
-      <c r="AC48" s="15"/>
-      <c r="AD48" s="14"/>
-    </row>
-    <row r="49" spans="2:30" ht="30" customHeight="1">
-      <c r="B49" s="13"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="15"/>
-      <c r="T49" s="14"/>
-      <c r="U49" s="15"/>
-      <c r="V49" s="14"/>
-      <c r="W49" s="15"/>
-      <c r="X49" s="14"/>
-      <c r="Y49" s="15"/>
-      <c r="Z49" s="14"/>
-      <c r="AA49" s="15"/>
-      <c r="AB49" s="14"/>
-      <c r="AC49" s="15"/>
-      <c r="AD49" s="14"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="E15:W15"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="C28:AD28"/>
+  <mergeCells count="45">
+    <mergeCell ref="C31:P31"/>
+    <mergeCell ref="B1:AD1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C7:AD7"/>
+    <mergeCell ref="E35:I37"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C8:AD8"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="X15:AD15"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="R30:S30"/>
     <mergeCell ref="Y30:Z30"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="C14:AD14"/>
     <mergeCell ref="C21:AD21"/>
-    <mergeCell ref="C8:AD8"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="K9:L9"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="R16:S16"/>
-    <mergeCell ref="J36:AD36"/>
-    <mergeCell ref="B1:AD1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C7:AD7"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="E15:W15"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="C28:AD28"/>
+    <mergeCell ref="Q22:AD22"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:AD24"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
+  <conditionalFormatting sqref="C37:D37 J37:U37 W37:AD37">
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>C$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45:U46 W45:AD46">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>C$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C5:AD6">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:AD13">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:AD20">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>C$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38:AD40 C37:G37 I37:AD37">
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>C$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44:AD46 C43:G43 I43:AD43">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:AD27">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33:AD34">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="C33:I34">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
